--- a/jrap-core-db/src/main/java/com/jingrui/jrap/db/data/core-init-data.xlsx
+++ b/jrap-core-db/src/main/java/com/jingrui/jrap/db/data/core-init-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hap\MyProject\jrap_lease\jrap-core-db\src\main\java\com\jingrui\jrap\db\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C172BC91-C5BF-4BAD-8157-6E4F727A9EDF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0077628E-B92E-47AC-8972-6E3C05FA264A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="913" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="913" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13199" uniqueCount="3902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13210" uniqueCount="3907">
   <si>
     <r>
       <rPr>
@@ -16181,6 +16181,26 @@
   </si>
   <si>
     <t>叶亮钦</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>FND</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Company Mgr</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>FND1010</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户维护</t>
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
 </sst>
@@ -17268,7 +17288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -18120,7 +18140,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="33">
+    <row r="4" spans="1:15">
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
@@ -18820,7 +18840,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="31.5">
+    <row r="8" spans="1:12">
       <c r="A8" s="8">
         <v>42656</v>
       </c>
@@ -18886,7 +18906,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="47">
+    <row r="10" spans="1:12">
       <c r="A10" s="8">
         <v>42656</v>
       </c>
@@ -18919,7 +18939,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="31.5">
+    <row r="11" spans="1:12">
       <c r="E11" s="2" t="s">
         <v>3606</v>
       </c>
@@ -19870,7 +19890,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="33">
+    <row r="3" spans="1:13">
       <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
@@ -20333,8 +20353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N411"/>
   <sheetViews>
-    <sheetView topLeftCell="A394" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A409" sqref="A409:XFD409"/>
+    <sheetView topLeftCell="A376" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D413" sqref="D413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -32788,11 +32808,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AA395"/>
+  <dimension ref="A1:AA396"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A196" workbookViewId="0">
       <pane xSplit="28140"/>
-      <selection activeCell="P30" sqref="P30"/>
+      <selection activeCell="G149" sqref="G149"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -33262,7 +33282,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="17" spans="5:17">
+    <row r="17" spans="1:17">
       <c r="E17" s="10" t="s">
         <v>908</v>
       </c>
@@ -33305,7 +33325,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="18" spans="5:17">
+    <row r="18" spans="1:17">
       <c r="E18" s="10" t="s">
         <v>1108</v>
       </c>
@@ -33345,7 +33365,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="19" spans="5:17">
+    <row r="19" spans="1:17">
       <c r="E19" s="10" t="s">
         <v>214</v>
       </c>
@@ -33388,7 +33408,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="20" spans="5:17">
+    <row r="20" spans="1:17">
       <c r="E20" s="10" t="s">
         <v>315</v>
       </c>
@@ -33431,7 +33451,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="21" spans="5:17">
+    <row r="21" spans="1:17">
       <c r="E21" s="10" t="s">
         <v>891</v>
       </c>
@@ -33474,7 +33494,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="5:17">
+    <row r="22" spans="1:17">
       <c r="E22" s="10" t="s">
         <v>1120</v>
       </c>
@@ -33511,7 +33531,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="23" spans="5:17">
+    <row r="23" spans="1:17">
       <c r="E23" s="10" t="s">
         <v>919</v>
       </c>
@@ -33554,7 +33574,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="5:17">
+    <row r="24" spans="1:17">
       <c r="E24" s="10" t="s">
         <v>928</v>
       </c>
@@ -33597,7 +33617,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="5:17">
+    <row r="25" spans="1:17">
       <c r="E25" s="10" t="s">
         <v>148</v>
       </c>
@@ -33640,7 +33660,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="5:17">
+    <row r="26" spans="1:17">
       <c r="E26" s="10" t="s">
         <v>1126</v>
       </c>
@@ -33677,7 +33697,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="27" spans="5:17">
+    <row r="27" spans="1:17">
       <c r="E27" s="10" t="s">
         <v>934</v>
       </c>
@@ -33698,7 +33718,7 @@
         <v>1084</v>
       </c>
       <c r="K27" s="16" t="str">
-        <f t="shared" ref="K27:K30" si="3">$E$26</f>
+        <f t="shared" ref="K27:K31" si="3">$E$26</f>
         <v>HR</v>
       </c>
       <c r="L27">
@@ -33720,7 +33740,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="28" spans="5:17">
+    <row r="28" spans="1:17">
       <c r="E28" s="10" t="s">
         <v>102</v>
       </c>
@@ -33763,7 +33783,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="29" spans="5:17">
+    <row r="29" spans="1:17">
       <c r="E29" s="10" t="s">
         <v>111</v>
       </c>
@@ -33806,278 +33826,273 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="30" spans="5:17">
+    <row r="30" spans="1:17">
+      <c r="A30" s="36"/>
+      <c r="B30" s="62"/>
       <c r="E30" s="10" t="s">
-        <v>946</v>
+        <v>3902</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>3902</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>3902</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I30" s="16"/>
+      <c r="J30" s="7" t="s">
+        <v>1084</v>
+      </c>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7">
+        <v>18</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>3903</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>3859</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>3904</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>3859</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="E31" s="10" t="s">
+        <v>3905</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>1142</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>946</v>
-      </c>
-      <c r="H30" s="7" t="s">
+      <c r="G31" s="7" t="s">
+        <v>3905</v>
+      </c>
+      <c r="H31" s="7" t="s">
         <v>1131</v>
       </c>
-      <c r="I30" s="16" t="str">
+      <c r="I31" s="16" t="str">
         <f>RESOURCE!E132</f>
         <v>fnd/company.html</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="J31" s="7" t="s">
         <v>1084</v>
       </c>
-      <c r="K30" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>HR</v>
-      </c>
-      <c r="L30">
-        <v>40</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="N30" s="62" t="s">
-        <v>3859</v>
-      </c>
-      <c r="O30" s="7" t="s">
+      <c r="K31" s="16" t="str">
+        <f>$E$30</f>
+        <v>FND</v>
+      </c>
+      <c r="L31">
+        <v>10</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N31" s="62" t="s">
+        <v>3906</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>1143</v>
       </c>
-      <c r="P30" s="62" t="s">
-        <v>3859</v>
-      </c>
-      <c r="Q30" s="7" t="s">
+      <c r="P31" s="62" t="s">
+        <v>3906</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="31" spans="5:17">
-      <c r="E31" s="10" t="s">
+    <row r="32" spans="1:17">
+      <c r="E32" s="10" t="s">
         <v>950</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F32" s="7" t="s">
         <v>1082</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>950</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H32" s="7" t="s">
         <v>1145</v>
       </c>
-      <c r="I31" s="16" t="str">
+      <c r="I32" s="16" t="str">
         <f>RESOURCE!E137</f>
         <v>sys/sys_dashboard.html</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="J32" s="7" t="s">
         <v>1084</v>
       </c>
-      <c r="K31" s="16" t="str">
+      <c r="K32" s="16" t="str">
         <f>FUNCTION!E8</f>
         <v>SYSTEM</v>
       </c>
-      <c r="L31">
+      <c r="L32">
         <v>15</v>
       </c>
-      <c r="M31" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="N31" t="s">
+      <c r="M32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N32" t="s">
         <v>504</v>
       </c>
-      <c r="O31" s="7" t="s">
+      <c r="O32" s="7" t="s">
         <v>1146</v>
       </c>
-      <c r="P31" t="s">
+      <c r="P32" t="s">
         <v>504</v>
       </c>
-      <c r="Q31" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="32" spans="5:17">
-      <c r="E32" s="10" t="s">
+    <row r="33" spans="1:27">
+      <c r="E33" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F33" s="7" t="s">
         <v>1082</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H33" s="7" t="s">
         <v>1147</v>
       </c>
-      <c r="I32" s="16" t="str">
+      <c r="I33" s="16" t="str">
         <f>RESOURCE!E144</f>
         <v>sys/sys_detail_metrics.html</v>
       </c>
-      <c r="J32" s="7" t="s">
-        <v>1084</v>
-      </c>
-      <c r="K32" s="16" t="str">
-        <f t="shared" ref="K32:K38" si="4">$E$8</f>
-        <v>SYSTEM</v>
-      </c>
-      <c r="L32">
-        <v>10</v>
-      </c>
-      <c r="M32" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="N32" t="s">
-        <v>678</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>1148</v>
-      </c>
-      <c r="P32" t="s">
-        <v>678</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27">
-      <c r="E33" s="10" t="s">
-        <v>1149</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>1150</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>1149</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>1151</v>
-      </c>
-      <c r="I33" s="16"/>
       <c r="J33" s="7" t="s">
         <v>1084</v>
       </c>
       <c r="K33" s="16" t="str">
+        <f t="shared" ref="K33:K39" si="4">$E$8</f>
+        <v>SYSTEM</v>
+      </c>
+      <c r="L33">
+        <v>10</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N33" t="s">
+        <v>678</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>1148</v>
+      </c>
+      <c r="P33" t="s">
+        <v>678</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
+      <c r="E34" s="10" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>1149</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>1151</v>
+      </c>
+      <c r="I34" s="16"/>
+      <c r="J34" s="7" t="s">
+        <v>1084</v>
+      </c>
+      <c r="K34" s="16" t="str">
         <f t="shared" si="4"/>
         <v>SYSTEM</v>
       </c>
-      <c r="L33">
+      <c r="L34">
         <v>90</v>
       </c>
-      <c r="M33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="N33" t="s">
+      <c r="M34" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N34" t="s">
         <v>1152</v>
       </c>
-      <c r="O33" s="7" t="s">
+      <c r="O34" s="7" t="s">
         <v>1153</v>
       </c>
-      <c r="P33" t="s">
+      <c r="P34" t="s">
         <v>1152</v>
       </c>
-      <c r="Q33" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
-      <c r="E34" s="10" t="s">
+    <row r="35" spans="1:27">
+      <c r="E35" s="10" t="s">
         <v>652</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F35" s="7" t="s">
         <v>1150</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>652</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H35" s="7" t="s">
         <v>1154</v>
       </c>
-      <c r="I34" s="16" t="str">
+      <c r="I35" s="16" t="str">
         <f>RESOURCE!E148</f>
         <v>flexfield/flex_model.html</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="J35" s="7" t="s">
         <v>1084</v>
       </c>
-      <c r="K34" s="16" t="str">
-        <f t="shared" ref="K34:K36" si="5">$E$33</f>
+      <c r="K35" s="16" t="str">
+        <f t="shared" ref="K35:K37" si="5">$E$34</f>
         <v>FLEX_FIELD</v>
       </c>
-      <c r="L34">
+      <c r="L35">
         <v>10</v>
       </c>
-      <c r="M34" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="N34" t="s">
+      <c r="M35" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N35" t="s">
         <v>541</v>
       </c>
-      <c r="O34" s="7" t="s">
+      <c r="O35" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="P34" t="s">
+      <c r="P35" t="s">
         <v>541</v>
       </c>
-      <c r="Q34" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
-      <c r="E35" s="10" t="s">
+    <row r="36" spans="1:27">
+      <c r="E36" s="10" t="s">
         <v>962</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F36" s="7" t="s">
         <v>1150</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H36" s="7" t="s">
         <v>1154</v>
       </c>
-      <c r="I35" s="16" t="str">
+      <c r="I36" s="16" t="str">
         <f>RESOURCE!E167</f>
         <v>flexfield/flex_rule_set.html</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>1084</v>
-      </c>
-      <c r="K35" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>FLEX_FIELD</v>
-      </c>
-      <c r="L35">
-        <v>20</v>
-      </c>
-      <c r="M35" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="N35" t="s">
-        <v>565</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="P35" t="s">
-        <v>565</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27">
-      <c r="A36" s="8"/>
-      <c r="E36" s="10" t="s">
-        <v>1155</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>1150</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>1155</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>1154</v>
-      </c>
-      <c r="I36" s="16" t="str">
-        <f>RESOURCE!E171</f>
-        <v>demo/flexfield.html</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>1084</v>
@@ -34087,93 +34102,86 @@
         <v>FLEX_FIELD</v>
       </c>
       <c r="L36">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M36" s="7" t="s">
         <v>63</v>
       </c>
       <c r="N36" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="P36" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
     </row>
     <row r="37" spans="1:27">
       <c r="A37" s="8"/>
-      <c r="E37" s="32" t="s">
-        <v>975</v>
+      <c r="E37" s="10" t="s">
+        <v>1155</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>1082</v>
+        <v>1150</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>975</v>
+        <v>1155</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>1131</v>
+        <v>1154</v>
       </c>
       <c r="I37" s="16" t="str">
-        <f>RESOURCE!E203</f>
-        <v>code/rule/code_rules.html</v>
+        <f>RESOURCE!E171</f>
+        <v>demo/flexfield.html</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>1084</v>
       </c>
       <c r="K37" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>SYSTEM</v>
-      </c>
-      <c r="L37" s="7">
-        <v>45</v>
+        <f t="shared" si="5"/>
+        <v>FLEX_FIELD</v>
+      </c>
+      <c r="L37">
+        <v>30</v>
       </c>
       <c r="M37" s="7" t="s">
         <v>63</v>
       </c>
       <c r="N37" t="s">
-        <v>1156</v>
+        <v>610</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>1157</v>
+        <v>611</v>
       </c>
       <c r="P37" t="s">
-        <v>1156</v>
+        <v>610</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>1157</v>
-      </c>
-      <c r="R37" s="7"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="7"/>
-      <c r="V37" s="7"/>
-      <c r="W37" s="7"/>
-      <c r="X37" s="7"/>
-      <c r="Y37" s="7"/>
-      <c r="Z37" s="7"/>
-      <c r="AA37" s="7"/>
+        <v>611</v>
+      </c>
     </row>
     <row r="38" spans="1:27">
       <c r="A38" s="8"/>
       <c r="E38" s="32" t="s">
-        <v>1158</v>
+        <v>975</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>1159</v>
+        <v>1082</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>1158</v>
+        <v>975</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>1160</v>
-      </c>
-      <c r="I38" s="16"/>
+        <v>1131</v>
+      </c>
+      <c r="I38" s="16" t="str">
+        <f>RESOURCE!E203</f>
+        <v>code/rule/code_rules.html</v>
+      </c>
       <c r="J38" s="7" t="s">
         <v>1084</v>
       </c>
@@ -34182,22 +34190,22 @@
         <v>SYSTEM</v>
       </c>
       <c r="L38" s="7">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="M38" s="7" t="s">
         <v>63</v>
       </c>
       <c r="N38" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="P38" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="R38" s="7"/>
       <c r="S38" s="7"/>
@@ -34213,45 +34221,42 @@
     <row r="39" spans="1:27">
       <c r="A39" s="8"/>
       <c r="E39" s="32" t="s">
-        <v>982</v>
+        <v>1158</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>1159</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>982</v>
+        <v>1158</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>1160</v>
       </c>
-      <c r="I39" s="16" t="str">
-        <f>RESOURCE!E215</f>
-        <v>permission/data_permission_rule.html</v>
-      </c>
+      <c r="I39" s="16"/>
       <c r="J39" s="7" t="s">
         <v>1084</v>
       </c>
       <c r="K39" s="16" t="str">
-        <f>$E$38</f>
-        <v>DATA_PERMISSION</v>
+        <f t="shared" si="4"/>
+        <v>SYSTEM</v>
       </c>
       <c r="L39" s="7">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>63</v>
       </c>
       <c r="N39" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="P39" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>743</v>
+        <v>1162</v>
       </c>
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
@@ -34267,45 +34272,45 @@
     <row r="40" spans="1:27">
       <c r="A40" s="8"/>
       <c r="E40" s="32" t="s">
-        <v>992</v>
+        <v>982</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>1159</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>992</v>
+        <v>982</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>1160</v>
       </c>
       <c r="I40" s="16" t="str">
-        <f>RESOURCE!E228</f>
-        <v>permission/data_permission_table.html</v>
+        <f>RESOURCE!E215</f>
+        <v>permission/data_permission_rule.html</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>1084</v>
       </c>
       <c r="K40" s="16" t="str">
-        <f>$E$38</f>
+        <f>$E$39</f>
         <v>DATA_PERMISSION</v>
       </c>
       <c r="L40" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M40" s="7" t="s">
         <v>63</v>
       </c>
       <c r="N40" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="P40" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>783</v>
+        <v>743</v>
       </c>
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
@@ -34321,45 +34326,45 @@
     <row r="41" spans="1:27">
       <c r="A41" s="8"/>
       <c r="E41" s="32" t="s">
-        <v>825</v>
+        <v>992</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>1082</v>
+        <v>1159</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>825</v>
+        <v>992</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>1167</v>
+        <v>1160</v>
       </c>
       <c r="I41" s="16" t="str">
-        <f>RESOURCE!E242</f>
-        <v>sys/ui-builder.html</v>
+        <f>RESOURCE!E228</f>
+        <v>permission/data_permission_table.html</v>
       </c>
       <c r="J41" s="7" t="s">
         <v>1084</v>
       </c>
       <c r="K41" s="16" t="str">
-        <f>$E$8</f>
-        <v>SYSTEM</v>
+        <f>$E$39</f>
+        <v>DATA_PERMISSION</v>
       </c>
       <c r="L41" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M41" s="7" t="s">
         <v>63</v>
       </c>
       <c r="N41" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>1169</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>1168</v>
+        <v>1166</v>
+      </c>
+      <c r="P41" t="s">
+        <v>1165</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>1169</v>
+        <v>783</v>
       </c>
       <c r="R41" s="7"/>
       <c r="S41" s="7"/>
@@ -34373,27 +34378,22 @@
       <c r="AA41" s="7"/>
     </row>
     <row r="42" spans="1:27">
-      <c r="A42" s="8">
-        <v>43042</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1170</v>
-      </c>
+      <c r="A42" s="8"/>
       <c r="E42" s="32" t="s">
-        <v>1012</v>
+        <v>825</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>1082</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>1012</v>
+        <v>825</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="I42" s="16" t="str">
-        <f>RESOURCE!E391</f>
-        <v>sys/sys_hotkey.html</v>
+        <f>RESOURCE!E242</f>
+        <v>sys/ui-builder.html</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>1084</v>
@@ -34409,16 +34409,16 @@
         <v>63</v>
       </c>
       <c r="N42" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>1173</v>
-      </c>
-      <c r="P42" t="s">
-        <v>1172</v>
+        <v>1169</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>1168</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="R42" s="7"/>
       <c r="S42" s="7"/>
@@ -34432,41 +34432,52 @@
       <c r="AA42" s="7"/>
     </row>
     <row r="43" spans="1:27">
-      <c r="A43" s="8"/>
-      <c r="E43" s="10" t="s">
-        <v>1174</v>
+      <c r="A43" s="8">
+        <v>43042</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>1012</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>1174</v>
+        <v>1082</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>1174</v>
+        <v>1012</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>1109</v>
-      </c>
-      <c r="I43" s="16"/>
+        <v>1171</v>
+      </c>
+      <c r="I43" s="16" t="str">
+        <f>RESOURCE!E391</f>
+        <v>sys/sys_hotkey.html</v>
+      </c>
       <c r="J43" s="7" t="s">
         <v>1084</v>
       </c>
-      <c r="K43" s="16"/>
-      <c r="L43">
-        <v>80</v>
+      <c r="K43" s="16" t="str">
+        <f>$E$8</f>
+        <v>SYSTEM</v>
+      </c>
+      <c r="L43" s="7">
+        <v>10</v>
       </c>
       <c r="M43" s="7" t="s">
         <v>63</v>
       </c>
       <c r="N43" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="P43" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="R43" s="7"/>
       <c r="S43" s="7"/>
@@ -34482,45 +34493,39 @@
     <row r="44" spans="1:27">
       <c r="A44" s="8"/>
       <c r="E44" s="10" t="s">
-        <v>1050</v>
+        <v>1174</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>1174</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>1050</v>
+        <v>1174</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>1177</v>
-      </c>
-      <c r="I44" s="16" t="str">
-        <f>RESOURCE!E408</f>
-        <v>intergration/sys_interface_invoke.html</v>
-      </c>
+        <v>1109</v>
+      </c>
+      <c r="I44" s="16"/>
       <c r="J44" s="7" t="s">
         <v>1084</v>
       </c>
-      <c r="K44" s="16" t="str">
-        <f>$E$43</f>
-        <v>IF</v>
-      </c>
+      <c r="K44" s="16"/>
       <c r="L44">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="M44" s="7" t="s">
         <v>63</v>
       </c>
       <c r="N44" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="P44" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="R44" s="7"/>
       <c r="S44" s="7"/>
@@ -34533,44 +34538,85 @@
       <c r="Z44" s="7"/>
       <c r="AA44" s="7"/>
     </row>
-    <row r="46" spans="1:27">
-      <c r="D46" s="5" t="s">
+    <row r="45" spans="1:27">
+      <c r="A45" s="8"/>
+      <c r="E45" s="10" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>1177</v>
+      </c>
+      <c r="I45" s="16" t="str">
+        <f>RESOURCE!E408</f>
+        <v>intergration/sys_interface_invoke.html</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>1084</v>
+      </c>
+      <c r="K45" s="16" t="str">
+        <f>$E$44</f>
+        <v>IF</v>
+      </c>
+      <c r="L45">
+        <v>20</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N45" t="s">
+        <v>1178</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>1179</v>
+      </c>
+      <c r="P45" t="s">
+        <v>1178</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>1179</v>
+      </c>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="7"/>
+      <c r="AA45" s="7"/>
+    </row>
+    <row r="47" spans="1:27">
+      <c r="D47" s="5" t="s">
         <v>1180</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E47" s="5" t="s">
         <v>1181</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F47" s="6" t="s">
         <v>1182</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G47" s="6" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="47" spans="1:27">
-      <c r="E47" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F47" s="16" t="str">
-        <f t="shared" ref="F47:F50" si="6">$E$9</f>
+    <row r="48" spans="1:27">
+      <c r="E48" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F48" s="16" t="str">
+        <f t="shared" ref="F48:F51" si="6">$E$9</f>
         <v>PROMPT</v>
       </c>
-      <c r="G47" s="16" t="str">
+      <c r="G48" s="16" t="str">
         <f>RESOURCE!E106</f>
         <v>sys/sys_prompt.html</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27">
-      <c r="E48" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F48" s="16" t="str">
-        <f t="shared" si="6"/>
-        <v>PROMPT</v>
-      </c>
-      <c r="G48" s="16" t="str">
-        <f>RESOURCE!E75</f>
-        <v>sys/prompt/query</v>
       </c>
     </row>
     <row r="49" spans="5:7">
@@ -34582,8 +34628,8 @@
         <v>PROMPT</v>
       </c>
       <c r="G49" s="16" t="str">
-        <f>RESOURCE!E76</f>
-        <v>sys/prompt/remove</v>
+        <f>RESOURCE!E75</f>
+        <v>sys/prompt/query</v>
       </c>
     </row>
     <row r="50" spans="5:7">
@@ -34595,34 +34641,34 @@
         <v>PROMPT</v>
       </c>
       <c r="G50" s="16" t="str">
+        <f>RESOURCE!E76</f>
+        <v>sys/prompt/remove</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7">
+      <c r="E51" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F51" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>PROMPT</v>
+      </c>
+      <c r="G51" s="16" t="str">
         <f>RESOURCE!E77</f>
         <v>sys/prompt/submit</v>
       </c>
     </row>
-    <row r="51" spans="5:7">
-      <c r="E51" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F51" s="16" t="str">
-        <f t="shared" ref="F51:F57" si="7">$E$10</f>
+    <row r="52" spans="5:7">
+      <c r="E52" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F52" s="16" t="str">
+        <f t="shared" ref="F52:F58" si="7">$E$10</f>
         <v>CODE</v>
       </c>
-      <c r="G51" s="16" t="str">
+      <c r="G52" s="16" t="str">
         <f>RESOURCE!E97</f>
         <v>sys/sys_code.html</v>
-      </c>
-    </row>
-    <row r="52" spans="5:7">
-      <c r="E52" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F52" s="16" t="str">
-        <f t="shared" si="7"/>
-        <v>CODE</v>
-      </c>
-      <c r="G52" s="16" t="str">
-        <f>RESOURCE!E98</f>
-        <v>sys/sys_code_edit.html</v>
       </c>
     </row>
     <row r="53" spans="5:7">
@@ -34634,8 +34680,8 @@
         <v>CODE</v>
       </c>
       <c r="G53" s="16" t="str">
-        <f>RESOURCE!E42</f>
-        <v>sys/code/query</v>
+        <f>RESOURCE!E98</f>
+        <v>sys/sys_code_edit.html</v>
       </c>
     </row>
     <row r="54" spans="5:7">
@@ -34647,8 +34693,8 @@
         <v>CODE</v>
       </c>
       <c r="G54" s="16" t="str">
-        <f>RESOURCE!E43</f>
-        <v>sys/code/remove</v>
+        <f>RESOURCE!E42</f>
+        <v>sys/code/query</v>
       </c>
     </row>
     <row r="55" spans="5:7">
@@ -34660,8 +34706,8 @@
         <v>CODE</v>
       </c>
       <c r="G55" s="16" t="str">
-        <f>RESOURCE!E44</f>
-        <v>sys/code/submit</v>
+        <f>RESOURCE!E43</f>
+        <v>sys/code/remove</v>
       </c>
     </row>
     <row r="56" spans="5:7">
@@ -34673,8 +34719,8 @@
         <v>CODE</v>
       </c>
       <c r="G56" s="16" t="str">
-        <f>RESOURCE!E45</f>
-        <v>sys/codevalue/query</v>
+        <f>RESOURCE!E44</f>
+        <v>sys/code/submit</v>
       </c>
     </row>
     <row r="57" spans="5:7">
@@ -34686,34 +34732,34 @@
         <v>CODE</v>
       </c>
       <c r="G57" s="16" t="str">
+        <f>RESOURCE!E45</f>
+        <v>sys/codevalue/query</v>
+      </c>
+    </row>
+    <row r="58" spans="5:7">
+      <c r="E58" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F58" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>CODE</v>
+      </c>
+      <c r="G58" s="16" t="str">
         <f>RESOURCE!E46</f>
         <v>sys/codevalue/remove</v>
       </c>
     </row>
-    <row r="58" spans="5:7">
-      <c r="E58" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F58" s="16" t="str">
-        <f t="shared" ref="F58:F66" si="8">$E$11</f>
+    <row r="59" spans="5:7">
+      <c r="E59" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F59" s="16" t="str">
+        <f t="shared" ref="F59:F67" si="8">$E$11</f>
         <v>LOV</v>
       </c>
-      <c r="G58" s="16" t="str">
+      <c r="G59" s="16" t="str">
         <f>RESOURCE!E100</f>
         <v>sys/sys_lov.html</v>
-      </c>
-    </row>
-    <row r="59" spans="5:7">
-      <c r="E59" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F59" s="16" t="str">
-        <f t="shared" si="8"/>
-        <v>LOV</v>
-      </c>
-      <c r="G59" s="16" t="str">
-        <f>RESOURCE!E101</f>
-        <v>sys/sys_lov_edit.html</v>
       </c>
     </row>
     <row r="60" spans="5:7">
@@ -34725,8 +34771,8 @@
         <v>LOV</v>
       </c>
       <c r="G60" s="16" t="str">
-        <f>RESOURCE!E102</f>
-        <v>sys/sys_lov_preview.html</v>
+        <f>RESOURCE!E101</f>
+        <v>sys/sys_lov_edit.html</v>
       </c>
     </row>
     <row r="61" spans="5:7">
@@ -34738,8 +34784,8 @@
         <v>LOV</v>
       </c>
       <c r="G61" s="16" t="str">
-        <f>RESOURCE!E61</f>
-        <v>sys/lov/load</v>
+        <f>RESOURCE!E102</f>
+        <v>sys/sys_lov_preview.html</v>
       </c>
     </row>
     <row r="62" spans="5:7">
@@ -34751,8 +34797,8 @@
         <v>LOV</v>
       </c>
       <c r="G62" s="16" t="str">
-        <f>RESOURCE!E62</f>
-        <v>sys/lov/query</v>
+        <f>RESOURCE!E61</f>
+        <v>sys/lov/load</v>
       </c>
     </row>
     <row r="63" spans="5:7">
@@ -34764,8 +34810,8 @@
         <v>LOV</v>
       </c>
       <c r="G63" s="16" t="str">
-        <f>RESOURCE!E63</f>
-        <v>sys/lov/remove</v>
+        <f>RESOURCE!E62</f>
+        <v>sys/lov/query</v>
       </c>
     </row>
     <row r="64" spans="5:7">
@@ -34777,8 +34823,8 @@
         <v>LOV</v>
       </c>
       <c r="G64" s="16" t="str">
-        <f>RESOURCE!E64</f>
-        <v>sys/lov/submit</v>
+        <f>RESOURCE!E63</f>
+        <v>sys/lov/remove</v>
       </c>
     </row>
     <row r="65" spans="5:7">
@@ -34790,8 +34836,8 @@
         <v>LOV</v>
       </c>
       <c r="G65" s="16" t="str">
-        <f>RESOURCE!E65</f>
-        <v>sys/lovitem/query</v>
+        <f>RESOURCE!E64</f>
+        <v>sys/lov/submit</v>
       </c>
     </row>
     <row r="66" spans="5:7">
@@ -34803,34 +34849,34 @@
         <v>LOV</v>
       </c>
       <c r="G66" s="16" t="str">
+        <f>RESOURCE!E65</f>
+        <v>sys/lovitem/query</v>
+      </c>
+    </row>
+    <row r="67" spans="5:7">
+      <c r="E67" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F67" s="16" t="str">
+        <f t="shared" si="8"/>
+        <v>LOV</v>
+      </c>
+      <c r="G67" s="16" t="str">
         <f>RESOURCE!E66</f>
         <v>sys/lovitem/remove</v>
       </c>
     </row>
-    <row r="67" spans="5:7">
-      <c r="E67" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F67" s="16" t="str">
-        <f t="shared" ref="F67:F74" si="9">$E$13</f>
+    <row r="68" spans="5:7">
+      <c r="E68" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F68" s="16" t="str">
+        <f t="shared" ref="F68:F75" si="9">$E$13</f>
         <v>PROFILE</v>
       </c>
-      <c r="G67" s="16" t="str">
+      <c r="G68" s="16" t="str">
         <f>RESOURCE!E104</f>
         <v>sys/sys_profile.html</v>
-      </c>
-    </row>
-    <row r="68" spans="5:7">
-      <c r="E68" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F68" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>PROFILE</v>
-      </c>
-      <c r="G68" s="16" t="str">
-        <f>RESOURCE!E105</f>
-        <v>sys/sys_profile_edit.html</v>
       </c>
     </row>
     <row r="69" spans="5:7">
@@ -34842,8 +34888,8 @@
         <v>PROFILE</v>
       </c>
       <c r="G69" s="16" t="str">
-        <f>RESOURCE!E69</f>
-        <v>sys/profile/query</v>
+        <f>RESOURCE!E105</f>
+        <v>sys/sys_profile_edit.html</v>
       </c>
     </row>
     <row r="70" spans="5:7">
@@ -34855,8 +34901,8 @@
         <v>PROFILE</v>
       </c>
       <c r="G70" s="16" t="str">
-        <f>RESOURCE!E70</f>
-        <v>sys/profile/remove</v>
+        <f>RESOURCE!E69</f>
+        <v>sys/profile/query</v>
       </c>
     </row>
     <row r="71" spans="5:7">
@@ -34868,8 +34914,8 @@
         <v>PROFILE</v>
       </c>
       <c r="G71" s="16" t="str">
-        <f>RESOURCE!E71</f>
-        <v>sys/profile/submit</v>
+        <f>RESOURCE!E70</f>
+        <v>sys/profile/remove</v>
       </c>
     </row>
     <row r="72" spans="5:7">
@@ -34881,8 +34927,8 @@
         <v>PROFILE</v>
       </c>
       <c r="G72" s="16" t="str">
-        <f>RESOURCE!E72</f>
-        <v>sys/profilevalue/query</v>
+        <f>RESOURCE!E71</f>
+        <v>sys/profile/submit</v>
       </c>
     </row>
     <row r="73" spans="5:7">
@@ -34894,8 +34940,8 @@
         <v>PROFILE</v>
       </c>
       <c r="G73" s="16" t="str">
-        <f>RESOURCE!E73</f>
-        <v>sys/profilevalue/querylevelvalues</v>
+        <f>RESOURCE!E72</f>
+        <v>sys/profilevalue/query</v>
       </c>
     </row>
     <row r="74" spans="5:7">
@@ -34907,34 +34953,34 @@
         <v>PROFILE</v>
       </c>
       <c r="G74" s="16" t="str">
+        <f>RESOURCE!E73</f>
+        <v>sys/profilevalue/querylevelvalues</v>
+      </c>
+    </row>
+    <row r="75" spans="5:7">
+      <c r="E75" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F75" s="16" t="str">
+        <f t="shared" si="9"/>
+        <v>PROFILE</v>
+      </c>
+      <c r="G75" s="16" t="str">
         <f>RESOURCE!E74</f>
         <v>sys/profilevalue/remove</v>
       </c>
     </row>
-    <row r="75" spans="5:7">
-      <c r="E75" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F75" s="16" t="str">
-        <f t="shared" ref="F75:F84" si="10">$E$19</f>
+    <row r="76" spans="5:7">
+      <c r="E76" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F76" s="16" t="str">
+        <f t="shared" ref="F76:F85" si="10">$E$19</f>
         <v>FUNCTION_ADD</v>
       </c>
-      <c r="G75" s="16" t="str">
+      <c r="G76" s="16" t="str">
         <f>RESOURCE!E47</f>
         <v>sys/sys_function.html</v>
-      </c>
-    </row>
-    <row r="76" spans="5:7">
-      <c r="E76" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F76" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>FUNCTION_ADD</v>
-      </c>
-      <c r="G76" s="16" t="str">
-        <f>RESOURCE!E48</f>
-        <v>sys/sys_function_resource.html</v>
       </c>
     </row>
     <row r="77" spans="5:7">
@@ -34946,8 +34992,8 @@
         <v>FUNCTION_ADD</v>
       </c>
       <c r="G77" s="16" t="str">
-        <f>RESOURCE!E49</f>
-        <v>sys/sys_function_addresource.html</v>
+        <f>RESOURCE!E48</f>
+        <v>sys/sys_function_resource.html</v>
       </c>
     </row>
     <row r="78" spans="5:7">
@@ -34959,8 +35005,8 @@
         <v>FUNCTION_ADD</v>
       </c>
       <c r="G78" s="16" t="str">
-        <f>RESOURCE!E50</f>
-        <v>sys/function/fetchNotResource</v>
+        <f>RESOURCE!E49</f>
+        <v>sys/sys_function_addresource.html</v>
       </c>
     </row>
     <row r="79" spans="5:7">
@@ -34972,8 +35018,8 @@
         <v>FUNCTION_ADD</v>
       </c>
       <c r="G79" s="16" t="str">
-        <f>RESOURCE!E51</f>
-        <v>sys/function/fetchResource</v>
+        <f>RESOURCE!E50</f>
+        <v>sys/function/fetchNotResource</v>
       </c>
     </row>
     <row r="80" spans="5:7">
@@ -34985,8 +35031,8 @@
         <v>FUNCTION_ADD</v>
       </c>
       <c r="G80" s="16" t="str">
-        <f>RESOURCE!E52</f>
-        <v>sys/function/menus</v>
+        <f>RESOURCE!E51</f>
+        <v>sys/function/fetchResource</v>
       </c>
     </row>
     <row r="81" spans="5:7">
@@ -34998,8 +35044,8 @@
         <v>FUNCTION_ADD</v>
       </c>
       <c r="G81" s="16" t="str">
-        <f>RESOURCE!E53</f>
-        <v>sys/function/query</v>
+        <f>RESOURCE!E52</f>
+        <v>sys/function/menus</v>
       </c>
     </row>
     <row r="82" spans="5:7">
@@ -35011,8 +35057,8 @@
         <v>FUNCTION_ADD</v>
       </c>
       <c r="G82" s="16" t="str">
-        <f>RESOURCE!E54</f>
-        <v>sys/function/remove</v>
+        <f>RESOURCE!E53</f>
+        <v>sys/function/query</v>
       </c>
     </row>
     <row r="83" spans="5:7">
@@ -35024,8 +35070,8 @@
         <v>FUNCTION_ADD</v>
       </c>
       <c r="G83" s="16" t="str">
-        <f>RESOURCE!E55</f>
-        <v>sys/function/submit</v>
+        <f>RESOURCE!E54</f>
+        <v>sys/function/remove</v>
       </c>
     </row>
     <row r="84" spans="5:7">
@@ -35037,34 +35083,34 @@
         <v>FUNCTION_ADD</v>
       </c>
       <c r="G84" s="16" t="str">
+        <f>RESOURCE!E55</f>
+        <v>sys/function/submit</v>
+      </c>
+    </row>
+    <row r="85" spans="5:7">
+      <c r="E85" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F85" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>FUNCTION_ADD</v>
+      </c>
+      <c r="G85" s="16" t="str">
         <f>RESOURCE!E56</f>
         <v>sys/function/updateFunctionResource</v>
       </c>
     </row>
-    <row r="85" spans="5:7">
-      <c r="E85" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F85" s="16" t="str">
-        <f t="shared" ref="F85:F93" si="11">$E$20</f>
+    <row r="86" spans="5:7">
+      <c r="E86" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F86" s="16" t="str">
+        <f t="shared" ref="F86:F94" si="11">$E$20</f>
         <v>SYS_RESOURCE</v>
       </c>
-      <c r="G85" s="16" t="str">
+      <c r="G86" s="16" t="str">
         <f>RESOURCE!E78</f>
         <v>sys/sys_resource.html</v>
-      </c>
-    </row>
-    <row r="86" spans="5:7">
-      <c r="E86" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F86" s="16" t="str">
-        <f t="shared" si="11"/>
-        <v>SYS_RESOURCE</v>
-      </c>
-      <c r="G86" s="16" t="str">
-        <f>RESOURCE!E83</f>
-        <v>sys/sys_resource_item.html</v>
       </c>
     </row>
     <row r="87" spans="5:7">
@@ -35076,8 +35122,8 @@
         <v>SYS_RESOURCE</v>
       </c>
       <c r="G87" s="16" t="str">
-        <f>RESOURCE!E84</f>
-        <v>sys/sys_role_resource_item.html</v>
+        <f>RESOURCE!E83</f>
+        <v>sys/sys_resource_item.html</v>
       </c>
     </row>
     <row r="88" spans="5:7">
@@ -35089,8 +35135,8 @@
         <v>SYS_RESOURCE</v>
       </c>
       <c r="G88" s="16" t="str">
-        <f>RESOURCE!E85</f>
-        <v>sys/resource/query</v>
+        <f>RESOURCE!E84</f>
+        <v>sys/sys_role_resource_item.html</v>
       </c>
     </row>
     <row r="89" spans="5:7">
@@ -35102,8 +35148,8 @@
         <v>SYS_RESOURCE</v>
       </c>
       <c r="G89" s="16" t="str">
-        <f>RESOURCE!E86</f>
-        <v>sys/resource/remove</v>
+        <f>RESOURCE!E85</f>
+        <v>sys/resource/query</v>
       </c>
     </row>
     <row r="90" spans="5:7">
@@ -35115,8 +35161,8 @@
         <v>SYS_RESOURCE</v>
       </c>
       <c r="G90" s="16" t="str">
-        <f>RESOURCE!E87</f>
-        <v>sys/resource/submit</v>
+        <f>RESOURCE!E86</f>
+        <v>sys/resource/remove</v>
       </c>
     </row>
     <row r="91" spans="5:7">
@@ -35128,8 +35174,8 @@
         <v>SYS_RESOURCE</v>
       </c>
       <c r="G91" s="16" t="str">
-        <f>RESOURCE!E88</f>
-        <v>sys/resourceItem/query</v>
+        <f>RESOURCE!E87</f>
+        <v>sys/resource/submit</v>
       </c>
     </row>
     <row r="92" spans="5:7">
@@ -35141,8 +35187,8 @@
         <v>SYS_RESOURCE</v>
       </c>
       <c r="G92" s="16" t="str">
-        <f>RESOURCE!E89</f>
-        <v>sys/resourceItem/remove</v>
+        <f>RESOURCE!E88</f>
+        <v>sys/resourceItem/query</v>
       </c>
     </row>
     <row r="93" spans="5:7">
@@ -35154,34 +35200,34 @@
         <v>SYS_RESOURCE</v>
       </c>
       <c r="G93" s="16" t="str">
+        <f>RESOURCE!E89</f>
+        <v>sys/resourceItem/remove</v>
+      </c>
+    </row>
+    <row r="94" spans="5:7">
+      <c r="E94" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F94" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v>SYS_RESOURCE</v>
+      </c>
+      <c r="G94" s="16" t="str">
         <f>RESOURCE!E90</f>
         <v>sys/resourceItem/submit</v>
       </c>
     </row>
-    <row r="94" spans="5:7">
-      <c r="E94" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F94" s="16" t="str">
-        <f t="shared" ref="F94:F99" si="12">$E$21</f>
+    <row r="95" spans="5:7">
+      <c r="E95" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F95" s="16" t="str">
+        <f t="shared" ref="F95:F100" si="12">$E$21</f>
         <v>FUNCTION_ASSIGN</v>
       </c>
-      <c r="G94" s="16" t="str">
+      <c r="G95" s="16" t="str">
         <f>RESOURCE!E92</f>
         <v>sys/sys_role_function.html</v>
-      </c>
-    </row>
-    <row r="95" spans="5:7">
-      <c r="E95" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F95" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>FUNCTION_ASSIGN</v>
-      </c>
-      <c r="G95" s="16" t="str">
-        <f>RESOURCE!E93</f>
-        <v>sys/rolefunction/query</v>
       </c>
     </row>
     <row r="96" spans="5:7">
@@ -35193,8 +35239,8 @@
         <v>FUNCTION_ASSIGN</v>
       </c>
       <c r="G96" s="16" t="str">
-        <f>RESOURCE!E94</f>
-        <v>sys/rolefunction/queryResourceItems</v>
+        <f>RESOURCE!E93</f>
+        <v>sys/rolefunction/query</v>
       </c>
     </row>
     <row r="97" spans="5:7">
@@ -35206,8 +35252,8 @@
         <v>FUNCTION_ASSIGN</v>
       </c>
       <c r="G97" s="16" t="str">
-        <f>RESOURCE!E95</f>
-        <v>sys/rolefunction/submit</v>
+        <f>RESOURCE!E94</f>
+        <v>sys/rolefunction/queryResourceItems</v>
       </c>
     </row>
     <row r="98" spans="5:7">
@@ -35219,8 +35265,8 @@
         <v>FUNCTION_ASSIGN</v>
       </c>
       <c r="G98" s="16" t="str">
-        <f>RESOURCE!E96</f>
-        <v>sys/rolefunction/submitResourceItems</v>
+        <f>RESOURCE!E95</f>
+        <v>sys/rolefunction/submit</v>
       </c>
     </row>
     <row r="99" spans="5:7">
@@ -35232,34 +35278,34 @@
         <v>FUNCTION_ASSIGN</v>
       </c>
       <c r="G99" s="16" t="str">
+        <f>RESOURCE!E96</f>
+        <v>sys/rolefunction/submitResourceItems</v>
+      </c>
+    </row>
+    <row r="100" spans="5:7">
+      <c r="E100" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F100" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>FUNCTION_ASSIGN</v>
+      </c>
+      <c r="G100" s="16" t="str">
         <f>RESOURCE!E84</f>
         <v>sys/sys_role_resource_item.html</v>
       </c>
     </row>
-    <row r="100" spans="5:7">
-      <c r="E100" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F100" s="16" t="str">
-        <f t="shared" ref="F100:F109" si="13">$E$16</f>
+    <row r="101" spans="5:7">
+      <c r="E101" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F101" s="16" t="str">
+        <f t="shared" ref="F101:F110" si="13">$E$16</f>
         <v>ACCOUNT_USER</v>
       </c>
-      <c r="G100" s="16" t="str">
+      <c r="G101" s="16" t="str">
         <f>RESOURCE!E111</f>
         <v>sys/sys_user.html</v>
-      </c>
-    </row>
-    <row r="101" spans="5:7">
-      <c r="E101" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F101" s="16" t="str">
-        <f t="shared" si="13"/>
-        <v>ACCOUNT_USER</v>
-      </c>
-      <c r="G101" s="16" t="str">
-        <f>RESOURCE!E112</f>
-        <v>sys/sys_user_role.html</v>
       </c>
     </row>
     <row r="102" spans="5:7">
@@ -35271,8 +35317,8 @@
         <v>ACCOUNT_USER</v>
       </c>
       <c r="G102" s="16" t="str">
-        <f>RESOURCE!E113</f>
-        <v>sys/sys_user_chooserole.html</v>
+        <f>RESOURCE!E112</f>
+        <v>sys/sys_user_role.html</v>
       </c>
     </row>
     <row r="103" spans="5:7">
@@ -35284,8 +35330,8 @@
         <v>ACCOUNT_USER</v>
       </c>
       <c r="G103" s="16" t="str">
-        <f>RESOURCE!E114</f>
-        <v>sys/user/query</v>
+        <f>RESOURCE!E113</f>
+        <v>sys/sys_user_chooserole.html</v>
       </c>
     </row>
     <row r="104" spans="5:7">
@@ -35297,8 +35343,8 @@
         <v>ACCOUNT_USER</v>
       </c>
       <c r="G104" s="16" t="str">
-        <f>RESOURCE!E115</f>
-        <v>sys/user/remove</v>
+        <f>RESOURCE!E114</f>
+        <v>sys/user/query</v>
       </c>
     </row>
     <row r="105" spans="5:7">
@@ -35310,8 +35356,8 @@
         <v>ACCOUNT_USER</v>
       </c>
       <c r="G105" s="16" t="str">
-        <f>RESOURCE!E116</f>
-        <v>sys/user/submit</v>
+        <f>RESOURCE!E115</f>
+        <v>sys/user/remove</v>
       </c>
     </row>
     <row r="106" spans="5:7">
@@ -35323,8 +35369,8 @@
         <v>ACCOUNT_USER</v>
       </c>
       <c r="G106" s="16" t="str">
-        <f>RESOURCE!E117</f>
-        <v>sys/user/{userId}/roles</v>
+        <f>RESOURCE!E116</f>
+        <v>sys/user/submit</v>
       </c>
     </row>
     <row r="107" spans="5:7">
@@ -35336,8 +35382,8 @@
         <v>ACCOUNT_USER</v>
       </c>
       <c r="G107" s="16" t="str">
-        <f>RESOURCE!E118</f>
-        <v>sys/userrole/submit</v>
+        <f>RESOURCE!E117</f>
+        <v>sys/user/{userId}/roles</v>
       </c>
     </row>
     <row r="108" spans="5:7">
@@ -35349,8 +35395,8 @@
         <v>ACCOUNT_USER</v>
       </c>
       <c r="G108" s="16" t="str">
-        <f>RESOURCE!E91</f>
-        <v>sys/role/queryRoleNotUserRole</v>
+        <f>RESOURCE!E118</f>
+        <v>sys/userrole/submit</v>
       </c>
     </row>
     <row r="109" spans="5:7">
@@ -35362,34 +35408,34 @@
         <v>ACCOUNT_USER</v>
       </c>
       <c r="G109" s="16" t="str">
+        <f>RESOURCE!E91</f>
+        <v>sys/role/queryRoleNotUserRole</v>
+      </c>
+    </row>
+    <row r="110" spans="5:7">
+      <c r="E110" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F110" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>ACCOUNT_USER</v>
+      </c>
+      <c r="G110" s="16" t="str">
         <f>RESOURCE!E119</f>
         <v>sys/um/getSingleUser</v>
       </c>
     </row>
-    <row r="110" spans="5:7">
-      <c r="E110" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F110" s="16" t="str">
-        <f t="shared" ref="F110:F113" si="14">$E$17</f>
+    <row r="111" spans="5:7">
+      <c r="E111" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F111" s="16" t="str">
+        <f t="shared" ref="F111:F114" si="14">$E$17</f>
         <v>ACCOUNT_ROLE</v>
       </c>
-      <c r="G110" s="16" t="str">
+      <c r="G111" s="16" t="str">
         <f>RESOURCE!E107</f>
         <v>sys/sys_role.html</v>
-      </c>
-    </row>
-    <row r="111" spans="5:7">
-      <c r="E111" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F111" s="16" t="str">
-        <f t="shared" si="14"/>
-        <v>ACCOUNT_ROLE</v>
-      </c>
-      <c r="G111" s="16" t="str">
-        <f>RESOURCE!E108</f>
-        <v>sys/role/remove</v>
       </c>
     </row>
     <row r="112" spans="5:7">
@@ -35401,8 +35447,8 @@
         <v>ACCOUNT_ROLE</v>
       </c>
       <c r="G112" s="16" t="str">
-        <f>RESOURCE!E109</f>
-        <v>sys/role/query</v>
+        <f>RESOURCE!E108</f>
+        <v>sys/role/remove</v>
       </c>
     </row>
     <row r="113" spans="5:7">
@@ -35414,34 +35460,34 @@
         <v>ACCOUNT_ROLE</v>
       </c>
       <c r="G113" s="16" t="str">
+        <f>RESOURCE!E109</f>
+        <v>sys/role/query</v>
+      </c>
+    </row>
+    <row r="114" spans="5:7">
+      <c r="E114" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F114" s="16" t="str">
+        <f t="shared" si="14"/>
+        <v>ACCOUNT_ROLE</v>
+      </c>
+      <c r="G114" s="16" t="str">
         <f>RESOURCE!E110</f>
         <v>sys/role/submit</v>
       </c>
     </row>
-    <row r="114" spans="5:7">
-      <c r="E114" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F114" s="16" t="str">
-        <f t="shared" ref="F114:F117" si="15">$E$12</f>
+    <row r="115" spans="5:7">
+      <c r="E115" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F115" s="16" t="str">
+        <f t="shared" ref="F115:F118" si="15">$E$12</f>
         <v>LANGUAGE</v>
       </c>
-      <c r="G114" s="16" t="str">
+      <c r="G115" s="16" t="str">
         <f>RESOURCE!E57</f>
         <v>sys/sys_language.html</v>
-      </c>
-    </row>
-    <row r="115" spans="5:7">
-      <c r="E115" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F115" s="16" t="str">
-        <f t="shared" si="15"/>
-        <v>LANGUAGE</v>
-      </c>
-      <c r="G115" s="16" t="str">
-        <f>RESOURCE!E58</f>
-        <v>sys/language/remove</v>
       </c>
     </row>
     <row r="116" spans="5:7">
@@ -35453,8 +35499,8 @@
         <v>LANGUAGE</v>
       </c>
       <c r="G116" s="16" t="str">
-        <f>RESOURCE!E59</f>
-        <v>sys/language/query</v>
+        <f>RESOURCE!E58</f>
+        <v>sys/language/remove</v>
       </c>
     </row>
     <row r="117" spans="5:7">
@@ -35466,34 +35512,34 @@
         <v>LANGUAGE</v>
       </c>
       <c r="G117" s="16" t="str">
+        <f>RESOURCE!E59</f>
+        <v>sys/language/query</v>
+      </c>
+    </row>
+    <row r="118" spans="5:7">
+      <c r="E118" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F118" s="16" t="str">
+        <f t="shared" si="15"/>
+        <v>LANGUAGE</v>
+      </c>
+      <c r="G118" s="16" t="str">
         <f>RESOURCE!E60</f>
         <v>sys/language/submit</v>
       </c>
     </row>
-    <row r="118" spans="5:7">
-      <c r="E118" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F118" s="16" t="str">
-        <f t="shared" ref="F118:F122" si="16">$E$25</f>
+    <row r="119" spans="5:7">
+      <c r="E119" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F119" s="16" t="str">
+        <f t="shared" ref="F119:F123" si="16">$E$25</f>
         <v>ATTACH_CATEGORY</v>
       </c>
-      <c r="G118" s="16" t="str">
+      <c r="G119" s="16" t="str">
         <f>RESOURCE!E26</f>
         <v>attach/sys_attach_category_edit.html</v>
-      </c>
-    </row>
-    <row r="119" spans="5:7">
-      <c r="E119" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F119" s="16" t="str">
-        <f t="shared" si="16"/>
-        <v>ATTACH_CATEGORY</v>
-      </c>
-      <c r="G119" s="16" t="str">
-        <f>RESOURCE!E27</f>
-        <v>attach/sys_attach_category_manage.html</v>
       </c>
     </row>
     <row r="120" spans="5:7">
@@ -35505,8 +35551,8 @@
         <v>ATTACH_CATEGORY</v>
       </c>
       <c r="G120" s="16" t="str">
-        <f>RESOURCE!E28</f>
-        <v>sys/attachcategory/query</v>
+        <f>RESOURCE!E27</f>
+        <v>attach/sys_attach_category_manage.html</v>
       </c>
     </row>
     <row r="121" spans="5:7">
@@ -35518,8 +35564,8 @@
         <v>ATTACH_CATEGORY</v>
       </c>
       <c r="G121" s="16" t="str">
-        <f>RESOURCE!E29</f>
-        <v>sys/attachcategory/remove</v>
+        <f>RESOURCE!E28</f>
+        <v>sys/attachcategory/query</v>
       </c>
     </row>
     <row r="122" spans="5:7">
@@ -35531,34 +35577,34 @@
         <v>ATTACH_CATEGORY</v>
       </c>
       <c r="G122" s="16" t="str">
+        <f>RESOURCE!E29</f>
+        <v>sys/attachcategory/remove</v>
+      </c>
+    </row>
+    <row r="123" spans="5:7">
+      <c r="E123" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F123" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v>ATTACH_CATEGORY</v>
+      </c>
+      <c r="G123" s="16" t="str">
         <f>RESOURCE!E30</f>
         <v>sys/attachcategory/submit</v>
       </c>
     </row>
-    <row r="123" spans="5:7">
-      <c r="E123" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F123" s="16" t="str">
-        <f t="shared" ref="F123:F131" si="17">$E$23</f>
+    <row r="124" spans="5:7">
+      <c r="E124" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F124" s="16" t="str">
+        <f t="shared" ref="F124:F132" si="17">$E$23</f>
         <v>ATTACH_FILE</v>
       </c>
-      <c r="G123" s="16" t="str">
+      <c r="G124" s="16" t="str">
         <f>RESOURCE!E31</f>
         <v>attach/sys_file_manage.html</v>
-      </c>
-    </row>
-    <row r="124" spans="5:7">
-      <c r="E124" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F124" s="16" t="str">
-        <f t="shared" si="17"/>
-        <v>ATTACH_FILE</v>
-      </c>
-      <c r="G124" s="16" t="str">
-        <f>RESOURCE!E32</f>
-        <v>sys/attachcategory/tree</v>
       </c>
     </row>
     <row r="125" spans="5:7">
@@ -35570,8 +35616,8 @@
         <v>ATTACH_FILE</v>
       </c>
       <c r="G125" s="16" t="str">
-        <f>RESOURCE!E33</f>
-        <v>sys/attach/file/queryFiles</v>
+        <f>RESOURCE!E32</f>
+        <v>sys/attachcategory/tree</v>
       </c>
     </row>
     <row r="126" spans="5:7">
@@ -35583,8 +35629,8 @@
         <v>ATTACH_FILE</v>
       </c>
       <c r="G126" s="16" t="str">
-        <f>RESOURCE!E34</f>
-        <v>sys/attach/file/remove</v>
+        <f>RESOURCE!E33</f>
+        <v>sys/attach/file/queryFiles</v>
       </c>
     </row>
     <row r="127" spans="5:7">
@@ -35596,8 +35642,8 @@
         <v>ATTACH_FILE</v>
       </c>
       <c r="G127" s="16" t="str">
-        <f>RESOURCE!E35</f>
-        <v>sys/attach/file/detail</v>
+        <f>RESOURCE!E34</f>
+        <v>sys/attach/file/remove</v>
       </c>
     </row>
     <row r="128" spans="5:7">
@@ -35609,8 +35655,8 @@
         <v>ATTACH_FILE</v>
       </c>
       <c r="G128" s="16" t="str">
-        <f>RESOURCE!E36</f>
-        <v>sys/attach/file/view</v>
+        <f>RESOURCE!E35</f>
+        <v>sys/attach/file/detail</v>
       </c>
     </row>
     <row r="129" spans="5:7">
@@ -35622,8 +35668,8 @@
         <v>ATTACH_FILE</v>
       </c>
       <c r="G129" s="16" t="str">
-        <f>RESOURCE!E37</f>
-        <v>sys/attach/remove</v>
+        <f>RESOURCE!E36</f>
+        <v>sys/attach/file/view</v>
       </c>
     </row>
     <row r="130" spans="5:7">
@@ -35635,8 +35681,8 @@
         <v>ATTACH_FILE</v>
       </c>
       <c r="G130" s="16" t="str">
-        <f>RESOURCE!E38</f>
-        <v>sys/attach/file/query</v>
+        <f>RESOURCE!E37</f>
+        <v>sys/attach/remove</v>
       </c>
     </row>
     <row r="131" spans="5:7">
@@ -35648,21 +35694,21 @@
         <v>ATTACH_FILE</v>
       </c>
       <c r="G131" s="16" t="str">
+        <f>RESOURCE!E38</f>
+        <v>sys/attach/file/query</v>
+      </c>
+    </row>
+    <row r="132" spans="5:7">
+      <c r="E132" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F132" s="16" t="str">
+        <f t="shared" si="17"/>
+        <v>ATTACH_FILE</v>
+      </c>
+      <c r="G132" s="16" t="str">
         <f>RESOURCE!E39</f>
         <v>sys/attach/manage</v>
-      </c>
-    </row>
-    <row r="132" spans="5:7">
-      <c r="E132" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F132" s="16" t="str">
-        <f>$E$24</f>
-        <v>ATTACH_TEST</v>
-      </c>
-      <c r="G132" s="16" t="str">
-        <f>RESOURCE!E40</f>
-        <v>attach/sys_attachment_create.html</v>
       </c>
     </row>
     <row r="133" spans="5:7">
@@ -35674,47 +35720,47 @@
         <v>ATTACH_TEST</v>
       </c>
       <c r="G133" s="16" t="str">
+        <f>RESOURCE!E40</f>
+        <v>attach/sys_attachment_create.html</v>
+      </c>
+    </row>
+    <row r="134" spans="5:7">
+      <c r="E134" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F134" s="16" t="str">
+        <f>$E$24</f>
+        <v>ATTACH_TEST</v>
+      </c>
+      <c r="G134" s="16" t="str">
         <f>RESOURCE!E41</f>
         <v>sys/attach/upload</v>
       </c>
     </row>
-    <row r="134" spans="5:7">
-      <c r="E134" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F134" s="16" t="str">
+    <row r="135" spans="5:7">
+      <c r="E135" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F135" s="16" t="str">
         <f>$E$14</f>
         <v>SYS_CONFIG</v>
       </c>
-      <c r="G134" s="16" t="str">
+      <c r="G135" s="16" t="str">
         <f>RESOURCE!E99</f>
         <v>sys/sys_config.html</v>
       </c>
     </row>
-    <row r="135" spans="5:7">
-      <c r="E135" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F135" s="16" t="str">
-        <f t="shared" ref="F135:F138" si="18">$E$27</f>
+    <row r="136" spans="5:7">
+      <c r="E136" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F136" s="16" t="str">
+        <f t="shared" ref="F136:F139" si="18">$E$27</f>
         <v>HR_UNIT</v>
       </c>
-      <c r="G135" s="16" t="str">
+      <c r="G136" s="16" t="str">
         <f>RESOURCE!E19</f>
         <v>hr/org_unit.html</v>
-      </c>
-    </row>
-    <row r="136" spans="5:7">
-      <c r="E136" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F136" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v>HR_UNIT</v>
-      </c>
-      <c r="G136" s="16" t="str">
-        <f>RESOURCE!E20</f>
-        <v>hr/unit/query</v>
       </c>
     </row>
     <row r="137" spans="5:7">
@@ -35726,8 +35772,8 @@
         <v>HR_UNIT</v>
       </c>
       <c r="G137" s="16" t="str">
-        <f>RESOURCE!E21</f>
-        <v>hr/unit/remove</v>
+        <f>RESOURCE!E20</f>
+        <v>hr/unit/query</v>
       </c>
     </row>
     <row r="138" spans="5:7">
@@ -35739,34 +35785,34 @@
         <v>HR_UNIT</v>
       </c>
       <c r="G138" s="16" t="str">
+        <f>RESOURCE!E21</f>
+        <v>hr/unit/remove</v>
+      </c>
+    </row>
+    <row r="139" spans="5:7">
+      <c r="E139" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F139" s="16" t="str">
+        <f t="shared" si="18"/>
+        <v>HR_UNIT</v>
+      </c>
+      <c r="G139" s="16" t="str">
         <f>RESOURCE!E22</f>
         <v>hr/unit/submit</v>
       </c>
     </row>
-    <row r="139" spans="5:7">
-      <c r="E139" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F139" s="16" t="str">
-        <f t="shared" ref="F139:F141" si="19">$E$28</f>
+    <row r="140" spans="5:7">
+      <c r="E140" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F140" s="16" t="str">
+        <f t="shared" ref="F140:F142" si="19">$E$28</f>
         <v>HR_EMPLOYEE</v>
       </c>
-      <c r="G139" s="16" t="str">
+      <c r="G140" s="16" t="str">
         <f>RESOURCE!E12</f>
         <v>hr/employee.html</v>
-      </c>
-    </row>
-    <row r="140" spans="5:7">
-      <c r="E140" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F140" s="16" t="str">
-        <f t="shared" si="19"/>
-        <v>HR_EMPLOYEE</v>
-      </c>
-      <c r="G140" s="16" t="str">
-        <f>RESOURCE!E13</f>
-        <v>hr/employee/query</v>
       </c>
     </row>
     <row r="141" spans="5:7">
@@ -35778,34 +35824,34 @@
         <v>HR_EMPLOYEE</v>
       </c>
       <c r="G141" s="16" t="str">
+        <f>RESOURCE!E13</f>
+        <v>hr/employee/query</v>
+      </c>
+    </row>
+    <row r="142" spans="5:7">
+      <c r="E142" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F142" s="16" t="str">
+        <f t="shared" si="19"/>
+        <v>HR_EMPLOYEE</v>
+      </c>
+      <c r="G142" s="16" t="str">
         <f>RESOURCE!E14</f>
         <v>hr/employee/submit</v>
       </c>
     </row>
-    <row r="142" spans="5:7">
-      <c r="E142" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F142" s="16" t="str">
-        <f t="shared" ref="F142:F145" si="20">$E$29</f>
+    <row r="143" spans="5:7">
+      <c r="E143" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F143" s="16" t="str">
+        <f t="shared" ref="F143:F146" si="20">$E$29</f>
         <v>HR_POSITION</v>
       </c>
-      <c r="G142" s="16" t="str">
+      <c r="G143" s="16" t="str">
         <f>RESOURCE!E15</f>
         <v>hr/position.html</v>
-      </c>
-    </row>
-    <row r="143" spans="5:7">
-      <c r="E143" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F143" s="16" t="str">
-        <f t="shared" si="20"/>
-        <v>HR_POSITION</v>
-      </c>
-      <c r="G143" s="16" t="str">
-        <f>RESOURCE!E16</f>
-        <v>hr/position/query</v>
       </c>
     </row>
     <row r="144" spans="5:7">
@@ -35817,8 +35863,8 @@
         <v>HR_POSITION</v>
       </c>
       <c r="G144" s="16" t="str">
-        <f>RESOURCE!E17</f>
-        <v>hr/position/remove</v>
+        <f>RESOURCE!E16</f>
+        <v>hr/position/query</v>
       </c>
     </row>
     <row r="145" spans="5:7">
@@ -35830,99 +35876,99 @@
         <v>HR_POSITION</v>
       </c>
       <c r="G145" s="16" t="str">
+        <f>RESOURCE!E17</f>
+        <v>hr/position/remove</v>
+      </c>
+    </row>
+    <row r="146" spans="5:7">
+      <c r="E146" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F146" s="16" t="str">
+        <f t="shared" si="20"/>
+        <v>HR_POSITION</v>
+      </c>
+      <c r="G146" s="16" t="str">
         <f>RESOURCE!E18</f>
         <v>hr/position/submit</v>
       </c>
     </row>
-    <row r="146" spans="5:7">
-      <c r="E146" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F146" s="16" t="str">
-        <f t="shared" ref="F146:F150" si="21">$E$30</f>
-        <v>FND_COMPANY</v>
-      </c>
-      <c r="G146" s="16" t="str">
+    <row r="147" spans="5:7">
+      <c r="E147" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F147" s="16" t="str">
+        <f t="shared" ref="F147:F151" si="21">$E$31</f>
+        <v>FND1010</v>
+      </c>
+      <c r="G147" s="16" t="str">
         <f>RESOURCE!E132</f>
         <v>fnd/company.html</v>
       </c>
     </row>
-    <row r="147" spans="5:7">
-      <c r="E147" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F147" s="16" t="str">
+    <row r="148" spans="5:7">
+      <c r="E148" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F148" s="16" t="str">
         <f t="shared" si="21"/>
-        <v>FND_COMPANY</v>
-      </c>
-      <c r="G147" s="16" t="str">
+        <v>FND1010</v>
+      </c>
+      <c r="G148" s="16" t="str">
         <f>RESOURCE!E133</f>
         <v>fnd/company/submit</v>
       </c>
     </row>
-    <row r="148" spans="5:7">
-      <c r="E148" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F148" s="16" t="str">
-        <f t="shared" si="21"/>
-        <v>FND_COMPANY</v>
-      </c>
-      <c r="G148" s="16" t="str">
+    <row r="149" spans="5:7">
+      <c r="E149" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F149" s="16" t="str">
+        <f>$E$31</f>
+        <v>FND1010</v>
+      </c>
+      <c r="G149" s="16" t="str">
         <f>RESOURCE!E134</f>
         <v>fnd/company/query</v>
       </c>
     </row>
-    <row r="149" spans="5:7">
-      <c r="E149" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F149" s="16" t="str">
+    <row r="150" spans="5:7">
+      <c r="E150" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F150" s="16" t="str">
         <f t="shared" si="21"/>
-        <v>FND_COMPANY</v>
-      </c>
-      <c r="G149" s="16" t="str">
+        <v>FND1010</v>
+      </c>
+      <c r="G150" s="16" t="str">
         <f>RESOURCE!E135</f>
         <v>fnd/company/remove</v>
       </c>
     </row>
-    <row r="150" spans="5:7">
-      <c r="E150" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F150" s="16" t="str">
+    <row r="151" spans="5:7">
+      <c r="E151" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F151" s="16" t="str">
         <f t="shared" si="21"/>
-        <v>FND_COMPANY</v>
-      </c>
-      <c r="G150" s="16" t="str">
+        <v>FND1010</v>
+      </c>
+      <c r="G151" s="16" t="str">
         <f>RESOURCE!E136</f>
         <v>fnd/company_edit.html</v>
       </c>
     </row>
-    <row r="151" spans="5:7">
-      <c r="E151" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F151" s="16" t="str">
-        <f t="shared" ref="F151:F154" si="22">$E$31</f>
+    <row r="152" spans="5:7">
+      <c r="E152" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F152" s="16" t="str">
+        <f t="shared" ref="F152:F155" si="22">$E$32</f>
         <v>SYS_DASHBOARD</v>
       </c>
-      <c r="G151" s="16" t="str">
+      <c r="G152" s="16" t="str">
         <f>RESOURCE!E137</f>
         <v>sys/sys_dashboard.html</v>
-      </c>
-    </row>
-    <row r="152" spans="5:7">
-      <c r="E152" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F152" s="16" t="str">
-        <f t="shared" si="22"/>
-        <v>SYS_DASHBOARD</v>
-      </c>
-      <c r="G152" s="16" t="str">
-        <f>RESOURCE!E138</f>
-        <v>sys/sys_dashboard/query</v>
       </c>
     </row>
     <row r="153" spans="5:7">
@@ -35934,8 +35980,8 @@
         <v>SYS_DASHBOARD</v>
       </c>
       <c r="G153" s="16" t="str">
-        <f>RESOURCE!E139</f>
-        <v>sys/sys_dashboard/submit</v>
+        <f>RESOURCE!E138</f>
+        <v>sys/sys_dashboard/query</v>
       </c>
     </row>
     <row r="154" spans="5:7">
@@ -35947,47 +35993,47 @@
         <v>SYS_DASHBOARD</v>
       </c>
       <c r="G154" s="16" t="str">
+        <f>RESOURCE!E139</f>
+        <v>sys/sys_dashboard/submit</v>
+      </c>
+    </row>
+    <row r="155" spans="5:7">
+      <c r="E155" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F155" s="16" t="str">
+        <f t="shared" si="22"/>
+        <v>SYS_DASHBOARD</v>
+      </c>
+      <c r="G155" s="16" t="str">
         <f>RESOURCE!E140</f>
         <v>sys/sys_dashboard/remove</v>
       </c>
     </row>
-    <row r="155" spans="5:7">
-      <c r="E155" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F155" s="16" t="str">
-        <f>$E$32</f>
+    <row r="156" spans="5:7">
+      <c r="E156" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F156" s="16" t="str">
+        <f>$E$33</f>
         <v>SYS_METRICS</v>
       </c>
-      <c r="G155" s="16" t="str">
+      <c r="G156" s="16" t="str">
         <f>RESOURCE!E144</f>
         <v>sys/sys_detail_metrics.html</v>
       </c>
     </row>
-    <row r="156" spans="5:7">
-      <c r="E156" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F156" s="16" t="str">
-        <f t="shared" ref="F156:F159" si="23">$E$20</f>
+    <row r="157" spans="5:7">
+      <c r="E157" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F157" s="16" t="str">
+        <f t="shared" ref="F157:F160" si="23">$E$20</f>
         <v>SYS_RESOURCE</v>
       </c>
-      <c r="G156" s="16" t="str">
+      <c r="G157" s="16" t="str">
         <f>RESOURCE!E79</f>
         <v>sys/resourceCustomization/submit</v>
-      </c>
-    </row>
-    <row r="157" spans="5:7">
-      <c r="E157" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F157" s="16" t="str">
-        <f t="shared" si="23"/>
-        <v>SYS_RESOURCE</v>
-      </c>
-      <c r="G157" s="16" t="str">
-        <f>RESOURCE!E80</f>
-        <v>sys/resourceCustomization/query</v>
       </c>
     </row>
     <row r="158" spans="5:7">
@@ -35999,8 +36045,8 @@
         <v>SYS_RESOURCE</v>
       </c>
       <c r="G158" s="16" t="str">
-        <f>RESOURCE!E81</f>
-        <v>sys/resourceCustomization/remove</v>
+        <f>RESOURCE!E80</f>
+        <v>sys/resourceCustomization/query</v>
       </c>
     </row>
     <row r="159" spans="5:7">
@@ -36012,47 +36058,47 @@
         <v>SYS_RESOURCE</v>
       </c>
       <c r="G159" s="16" t="str">
+        <f>RESOURCE!E81</f>
+        <v>sys/resourceCustomization/remove</v>
+      </c>
+    </row>
+    <row r="160" spans="5:7">
+      <c r="E160" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F160" s="16" t="str">
+        <f t="shared" si="23"/>
+        <v>SYS_RESOURCE</v>
+      </c>
+      <c r="G160" s="16" t="str">
         <f>RESOURCE!E82</f>
         <v>sys/sys_resource_customization.html</v>
       </c>
     </row>
-    <row r="160" spans="5:7">
-      <c r="E160" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F160" s="16" t="str">
+    <row r="161" spans="5:7">
+      <c r="E161" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F161" s="16" t="str">
         <f>$E$16</f>
         <v>ACCOUNT_USER</v>
       </c>
-      <c r="G160" s="16" t="str">
+      <c r="G161" s="16" t="str">
         <f>RESOURCE!E147</f>
         <v>sys/user/password/reset</v>
       </c>
     </row>
-    <row r="161" spans="5:7">
-      <c r="E161" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F161" s="16" t="str">
-        <f t="shared" ref="F161:F168" si="24">$E$34</f>
+    <row r="162" spans="5:7">
+      <c r="E162" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F162" s="16" t="str">
+        <f t="shared" ref="F162:F169" si="24">$E$35</f>
         <v>FLEX_FIELD_MODEL</v>
       </c>
-      <c r="G161" s="16" t="str">
+      <c r="G162" s="16" t="str">
         <f>RESOURCE!E148</f>
         <v>flexfield/flex_model.html</v>
-      </c>
-    </row>
-    <row r="162" spans="5:7">
-      <c r="E162" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F162" s="16" t="str">
-        <f t="shared" si="24"/>
-        <v>FLEX_FIELD_MODEL</v>
-      </c>
-      <c r="G162" s="16" t="str">
-        <f>RESOURCE!E149</f>
-        <v>fnd/flex/model/query</v>
       </c>
     </row>
     <row r="163" spans="5:7">
@@ -36064,8 +36110,8 @@
         <v>FLEX_FIELD_MODEL</v>
       </c>
       <c r="G163" s="16" t="str">
-        <f>RESOURCE!E150</f>
-        <v>fnd/flex/model/submit</v>
+        <f>RESOURCE!E149</f>
+        <v>fnd/flex/model/query</v>
       </c>
     </row>
     <row r="164" spans="5:7">
@@ -36077,8 +36123,8 @@
         <v>FLEX_FIELD_MODEL</v>
       </c>
       <c r="G164" s="16" t="str">
-        <f>RESOURCE!E151</f>
-        <v>fnd/flex/model/remove</v>
+        <f>RESOURCE!E150</f>
+        <v>fnd/flex/model/submit</v>
       </c>
     </row>
     <row r="165" spans="5:7">
@@ -36090,8 +36136,8 @@
         <v>FLEX_FIELD_MODEL</v>
       </c>
       <c r="G165" s="16" t="str">
-        <f>RESOURCE!E152</f>
-        <v>flexfield/flex_model_column.html</v>
+        <f>RESOURCE!E151</f>
+        <v>fnd/flex/model/remove</v>
       </c>
     </row>
     <row r="166" spans="5:7">
@@ -36103,8 +36149,8 @@
         <v>FLEX_FIELD_MODEL</v>
       </c>
       <c r="G166" s="16" t="str">
-        <f>RESOURCE!E153</f>
-        <v>fnd/flex/model/column/query</v>
+        <f>RESOURCE!E152</f>
+        <v>flexfield/flex_model_column.html</v>
       </c>
     </row>
     <row r="167" spans="5:7">
@@ -36116,8 +36162,8 @@
         <v>FLEX_FIELD_MODEL</v>
       </c>
       <c r="G167" s="16" t="str">
-        <f>RESOURCE!E154</f>
-        <v>fnd/flex/model/column/submit</v>
+        <f>RESOURCE!E153</f>
+        <v>fnd/flex/model/column/query</v>
       </c>
     </row>
     <row r="168" spans="5:7">
@@ -36129,34 +36175,34 @@
         <v>FLEX_FIELD_MODEL</v>
       </c>
       <c r="G168" s="16" t="str">
+        <f>RESOURCE!E154</f>
+        <v>fnd/flex/model/column/submit</v>
+      </c>
+    </row>
+    <row r="169" spans="5:7">
+      <c r="E169" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F169" s="16" t="str">
+        <f t="shared" si="24"/>
+        <v>FLEX_FIELD_MODEL</v>
+      </c>
+      <c r="G169" s="16" t="str">
         <f>RESOURCE!E155</f>
         <v>fnd/flex/model/column/remove</v>
       </c>
     </row>
-    <row r="169" spans="5:7">
-      <c r="E169" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F169" s="16" t="str">
-        <f t="shared" ref="F169:F183" si="25">$E$35</f>
+    <row r="170" spans="5:7">
+      <c r="E170" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F170" s="16" t="str">
+        <f t="shared" ref="F170:F184" si="25">$E$36</f>
         <v>FLEX_FIELD_RULE_SET</v>
       </c>
-      <c r="G169" s="16" t="str">
+      <c r="G170" s="16" t="str">
         <f>RESOURCE!E156</f>
         <v>flexfield/flex_rule.html</v>
-      </c>
-    </row>
-    <row r="170" spans="5:7">
-      <c r="E170" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F170" s="16" t="str">
-        <f t="shared" si="25"/>
-        <v>FLEX_FIELD_RULE_SET</v>
-      </c>
-      <c r="G170" s="16" t="str">
-        <f>RESOURCE!E157</f>
-        <v>fnd/flex/rule/query</v>
       </c>
     </row>
     <row r="171" spans="5:7">
@@ -36168,8 +36214,8 @@
         <v>FLEX_FIELD_RULE_SET</v>
       </c>
       <c r="G171" s="16" t="str">
-        <f>RESOURCE!E158</f>
-        <v>fnd/flex/rule/submit</v>
+        <f>RESOURCE!E157</f>
+        <v>fnd/flex/rule/query</v>
       </c>
     </row>
     <row r="172" spans="5:7">
@@ -36181,8 +36227,8 @@
         <v>FLEX_FIELD_RULE_SET</v>
       </c>
       <c r="G172" s="16" t="str">
-        <f>RESOURCE!E159</f>
-        <v>fnd/flex/rule/remove</v>
+        <f>RESOURCE!E158</f>
+        <v>fnd/flex/rule/submit</v>
       </c>
     </row>
     <row r="173" spans="5:7">
@@ -36194,8 +36240,8 @@
         <v>FLEX_FIELD_RULE_SET</v>
       </c>
       <c r="G173" s="16" t="str">
-        <f>RESOURCE!E160</f>
-        <v>flexfield/flex_rule_field.html</v>
+        <f>RESOURCE!E159</f>
+        <v>fnd/flex/rule/remove</v>
       </c>
     </row>
     <row r="174" spans="5:7">
@@ -36207,8 +36253,8 @@
         <v>FLEX_FIELD_RULE_SET</v>
       </c>
       <c r="G174" s="16" t="str">
-        <f>RESOURCE!E161</f>
-        <v>fnd/flex/rule/field/query</v>
+        <f>RESOURCE!E160</f>
+        <v>flexfield/flex_rule_field.html</v>
       </c>
     </row>
     <row r="175" spans="5:7">
@@ -36220,8 +36266,8 @@
         <v>FLEX_FIELD_RULE_SET</v>
       </c>
       <c r="G175" s="16" t="str">
-        <f>RESOURCE!E162</f>
-        <v>fnd/flex/rule/field/submit</v>
+        <f>RESOURCE!E161</f>
+        <v>fnd/flex/rule/field/query</v>
       </c>
     </row>
     <row r="176" spans="5:7">
@@ -36233,8 +36279,8 @@
         <v>FLEX_FIELD_RULE_SET</v>
       </c>
       <c r="G176" s="16" t="str">
-        <f>RESOURCE!E163</f>
-        <v>fnd/flex/rule/field/remove</v>
+        <f>RESOURCE!E162</f>
+        <v>fnd/flex/rule/field/submit</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -36246,8 +36292,8 @@
         <v>FLEX_FIELD_RULE_SET</v>
       </c>
       <c r="G177" s="16" t="str">
-        <f>RESOURCE!E164</f>
-        <v>fnd/flex/rule/detail/query</v>
+        <f>RESOURCE!E163</f>
+        <v>fnd/flex/rule/field/remove</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -36259,8 +36305,8 @@
         <v>FLEX_FIELD_RULE_SET</v>
       </c>
       <c r="G178" s="16" t="str">
-        <f>RESOURCE!E165</f>
-        <v>fnd/flex/rule/detail/submit</v>
+        <f>RESOURCE!E164</f>
+        <v>fnd/flex/rule/detail/query</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -36272,8 +36318,8 @@
         <v>FLEX_FIELD_RULE_SET</v>
       </c>
       <c r="G179" s="16" t="str">
-        <f>RESOURCE!E166</f>
-        <v>fnd/flex/rule/detail/remove</v>
+        <f>RESOURCE!E165</f>
+        <v>fnd/flex/rule/detail/submit</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -36285,8 +36331,8 @@
         <v>FLEX_FIELD_RULE_SET</v>
       </c>
       <c r="G180" s="16" t="str">
-        <f>RESOURCE!E167</f>
-        <v>flexfield/flex_rule_set.html</v>
+        <f>RESOURCE!E166</f>
+        <v>fnd/flex/rule/detail/remove</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -36298,8 +36344,8 @@
         <v>FLEX_FIELD_RULE_SET</v>
       </c>
       <c r="G181" s="16" t="str">
-        <f>RESOURCE!E168</f>
-        <v>fnd/flex/rule/set/query</v>
+        <f>RESOURCE!E167</f>
+        <v>flexfield/flex_rule_set.html</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -36311,8 +36357,8 @@
         <v>FLEX_FIELD_RULE_SET</v>
       </c>
       <c r="G182" s="16" t="str">
-        <f>RESOURCE!E169</f>
-        <v>fnd/flex/rule/set/submit</v>
+        <f>RESOURCE!E168</f>
+        <v>fnd/flex/rule/set/query</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -36324,66 +36370,66 @@
         <v>FLEX_FIELD_RULE_SET</v>
       </c>
       <c r="G183" s="16" t="str">
+        <f>RESOURCE!E169</f>
+        <v>fnd/flex/rule/set/submit</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="E184" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F184" s="16" t="str">
+        <f t="shared" si="25"/>
+        <v>FLEX_FIELD_RULE_SET</v>
+      </c>
+      <c r="G184" s="16" t="str">
         <f>RESOURCE!E170</f>
         <v>fnd/flex/rule/set/remove</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
-      <c r="E184" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F184" s="16" t="str">
-        <f>$E$36</f>
+    <row r="185" spans="1:7">
+      <c r="E185" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F185" s="16" t="str">
+        <f>$E$37</f>
         <v>FLEX_FIELD_DEMO</v>
       </c>
-      <c r="G184" s="16" t="str">
+      <c r="G185" s="16" t="str">
         <f>RESOURCE!E171</f>
         <v>demo/flexfield.html</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
-      <c r="A185" s="8">
+    <row r="186" spans="1:7">
+      <c r="A186" s="8">
         <v>42920</v>
       </c>
-      <c r="B185" s="7" t="s">
+      <c r="B186" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="E185" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F185" s="16" t="str">
+      <c r="E186" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F186" s="16" t="str">
         <f>$E$16</f>
         <v>ACCOUNT_USER</v>
       </c>
-      <c r="G185" s="16" t="str">
+      <c r="G186" s="16" t="str">
         <f>RESOURCE!E172</f>
         <v>sys/sys_user_addrole.html</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
-      <c r="E186" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F186" s="16" t="str">
-        <f t="shared" ref="F186:F189" si="26">$E$14</f>
+    <row r="187" spans="1:7">
+      <c r="E187" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F187" s="16" t="str">
+        <f t="shared" ref="F187:F190" si="26">$E$14</f>
         <v>SYS_CONFIG</v>
       </c>
-      <c r="G186" s="16" t="str">
+      <c r="G187" s="16" t="str">
         <f>RESOURCE!E173</f>
         <v>sys/config/query</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
-      <c r="E187" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F187" s="16" t="str">
-        <f t="shared" si="26"/>
-        <v>SYS_CONFIG</v>
-      </c>
-      <c r="G187" s="16" t="str">
-        <f>RESOURCE!E174</f>
-        <v>sys/config/submit</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -36395,8 +36441,8 @@
         <v>SYS_CONFIG</v>
       </c>
       <c r="G188" s="16" t="str">
-        <f>RESOURCE!E175</f>
-        <v>sys/config/logo/upload</v>
+        <f>RESOURCE!E174</f>
+        <v>sys/config/submit</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -36408,112 +36454,112 @@
         <v>SYS_CONFIG</v>
       </c>
       <c r="G189" s="16" t="str">
+        <f>RESOURCE!E175</f>
+        <v>sys/config/logo/upload</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="E190" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F190" s="16" t="str">
+        <f t="shared" si="26"/>
+        <v>SYS_CONFIG</v>
+      </c>
+      <c r="G190" s="16" t="str">
         <f>RESOURCE!E176</f>
         <v>sys/config/favicon/upload</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
-      <c r="E190" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F190" s="16" t="str">
-        <f t="shared" ref="F190:F195" si="27">$E$28</f>
+    <row r="191" spans="1:7">
+      <c r="E191" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F191" s="16" t="str">
+        <f t="shared" ref="F191:F196" si="27">$E$28</f>
         <v>HR_EMPLOYEE</v>
       </c>
-      <c r="G190" s="16" t="str">
+      <c r="G191" s="16" t="str">
         <f>RESOURCE!E183</f>
         <v>hr/employee/create_user</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
-      <c r="E191" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F191" s="16" t="str">
+    <row r="192" spans="1:7">
+      <c r="E192" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F192" s="16" t="str">
         <f t="shared" si="27"/>
         <v>HR_EMPLOYEE</v>
       </c>
-      <c r="G191" s="16" t="str">
+      <c r="G192" s="16" t="str">
         <f>RESOURCE!E184</f>
         <v>hr/employee/update_user</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
-      <c r="E192" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F192" s="16" t="str">
-        <f>$E$34</f>
+    <row r="193" spans="5:7">
+      <c r="E193" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F193" s="16" t="str">
+        <f>$E$35</f>
         <v>FLEX_FIELD_MODEL</v>
       </c>
-      <c r="G192" s="16" t="str">
+      <c r="G193" s="16" t="str">
         <f>RESOURCE!E186</f>
         <v>fnd/flex/rule/matching</v>
       </c>
     </row>
-    <row r="193" spans="5:7">
-      <c r="E193" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F193" s="16" t="str">
-        <f>$E$34</f>
+    <row r="194" spans="5:7">
+      <c r="E194" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F194" s="16" t="str">
+        <f>$E$35</f>
         <v>FLEX_FIELD_MODEL</v>
       </c>
-      <c r="G193" s="16" t="str">
+      <c r="G194" s="16" t="str">
         <f>RESOURCE!E187</f>
         <v>fnd/flex/column/queryAll</v>
       </c>
     </row>
-    <row r="194" spans="5:7">
-      <c r="E194" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F194" s="16" t="str">
+    <row r="195" spans="5:7">
+      <c r="E195" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F195" s="16" t="str">
         <f>$E$27</f>
         <v>HR_UNIT</v>
       </c>
-      <c r="G194" s="16" t="str">
+      <c r="G195" s="16" t="str">
         <f>RESOURCE!E182</f>
         <v>hr/unit/queryall</v>
       </c>
     </row>
-    <row r="195" spans="5:7">
-      <c r="E195" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F195" s="16" t="str">
+    <row r="196" spans="5:7">
+      <c r="E196" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F196" s="16" t="str">
         <f t="shared" si="27"/>
         <v>HR_EMPLOYEE</v>
       </c>
-      <c r="G195" s="16" t="str">
+      <c r="G196" s="16" t="str">
         <f>RESOURCE!E196</f>
         <v>hr/employee_edit.html</v>
       </c>
     </row>
-    <row r="196" spans="5:7">
-      <c r="E196" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F196" s="16" t="str">
-        <f t="shared" ref="F196:F203" si="28">$E$37</f>
+    <row r="197" spans="5:7">
+      <c r="E197" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F197" s="16" t="str">
+        <f t="shared" ref="F197:F204" si="28">$E$38</f>
         <v>SYS_CODE_RULE</v>
       </c>
-      <c r="G196" s="16" t="str">
+      <c r="G197" s="16" t="str">
         <f>RESOURCE!E197</f>
         <v>sys/code/rules/header/query</v>
-      </c>
-    </row>
-    <row r="197" spans="5:7">
-      <c r="E197" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F197" s="16" t="str">
-        <f t="shared" si="28"/>
-        <v>SYS_CODE_RULE</v>
-      </c>
-      <c r="G197" s="16" t="str">
-        <f>RESOURCE!E198</f>
-        <v>sys/code/rules/header/submit</v>
       </c>
     </row>
     <row r="198" spans="5:7">
@@ -36525,8 +36571,8 @@
         <v>SYS_CODE_RULE</v>
       </c>
       <c r="G198" s="16" t="str">
-        <f>RESOURCE!E199</f>
-        <v>sys/code/rules/header/remove</v>
+        <f>RESOURCE!E198</f>
+        <v>sys/code/rules/header/submit</v>
       </c>
     </row>
     <row r="199" spans="5:7">
@@ -36538,8 +36584,8 @@
         <v>SYS_CODE_RULE</v>
       </c>
       <c r="G199" s="16" t="str">
-        <f>RESOURCE!E200</f>
-        <v>sys/code/rules/line/query</v>
+        <f>RESOURCE!E199</f>
+        <v>sys/code/rules/header/remove</v>
       </c>
     </row>
     <row r="200" spans="5:7">
@@ -36551,8 +36597,8 @@
         <v>SYS_CODE_RULE</v>
       </c>
       <c r="G200" s="16" t="str">
-        <f>RESOURCE!E201</f>
-        <v>sys/code/rules/line/submit</v>
+        <f>RESOURCE!E200</f>
+        <v>sys/code/rules/line/query</v>
       </c>
     </row>
     <row r="201" spans="5:7">
@@ -36564,8 +36610,8 @@
         <v>SYS_CODE_RULE</v>
       </c>
       <c r="G201" s="16" t="str">
-        <f>RESOURCE!E202</f>
-        <v>sys/code/rules/line/submit/remove</v>
+        <f>RESOURCE!E201</f>
+        <v>sys/code/rules/line/submit</v>
       </c>
     </row>
     <row r="202" spans="5:7">
@@ -36577,8 +36623,8 @@
         <v>SYS_CODE_RULE</v>
       </c>
       <c r="G202" s="16" t="str">
-        <f>RESOURCE!E203</f>
-        <v>code/rule/code_rules.html</v>
+        <f>RESOURCE!E202</f>
+        <v>sys/code/rules/line/submit/remove</v>
       </c>
     </row>
     <row r="203" spans="5:7">
@@ -36590,34 +36636,34 @@
         <v>SYS_CODE_RULE</v>
       </c>
       <c r="G203" s="16" t="str">
+        <f>RESOURCE!E203</f>
+        <v>code/rule/code_rules.html</v>
+      </c>
+    </row>
+    <row r="204" spans="5:7">
+      <c r="E204" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F204" s="16" t="str">
+        <f t="shared" si="28"/>
+        <v>SYS_CODE_RULE</v>
+      </c>
+      <c r="G204" s="16" t="str">
         <f>RESOURCE!E204</f>
         <v>code/rule/code_rules_edit.html</v>
       </c>
     </row>
-    <row r="204" spans="5:7">
-      <c r="E204" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F204" s="16" t="str">
-        <f t="shared" ref="F204:F207" si="29">$E$20</f>
+    <row r="205" spans="5:7">
+      <c r="E205" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F205" s="16" t="str">
+        <f t="shared" ref="F205:F208" si="29">$E$20</f>
         <v>SYS_RESOURCE</v>
       </c>
-      <c r="G204" s="16" t="str">
+      <c r="G205" s="16" t="str">
         <f>RESOURCE!E205</f>
         <v>sys/sys_resource_item_element.html</v>
-      </c>
-    </row>
-    <row r="205" spans="5:7">
-      <c r="E205" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F205" s="16" t="str">
-        <f t="shared" si="29"/>
-        <v>SYS_RESOURCE</v>
-      </c>
-      <c r="G205" s="16" t="str">
-        <f>RESOURCE!E206</f>
-        <v>sys/resourceItemElement/query</v>
       </c>
     </row>
     <row r="206" spans="5:7">
@@ -36629,8 +36675,8 @@
         <v>SYS_RESOURCE</v>
       </c>
       <c r="G206" s="16" t="str">
-        <f>RESOURCE!E207</f>
-        <v>sys/resourceItemElement/submit</v>
+        <f>RESOURCE!E206</f>
+        <v>sys/resourceItemElement/query</v>
       </c>
     </row>
     <row r="207" spans="5:7">
@@ -36642,34 +36688,34 @@
         <v>SYS_RESOURCE</v>
       </c>
       <c r="G207" s="16" t="str">
+        <f>RESOURCE!E207</f>
+        <v>sys/resourceItemElement/submit</v>
+      </c>
+    </row>
+    <row r="208" spans="5:7">
+      <c r="E208" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F208" s="16" t="str">
+        <f t="shared" si="29"/>
+        <v>SYS_RESOURCE</v>
+      </c>
+      <c r="G208" s="16" t="str">
         <f>RESOURCE!E208</f>
         <v>sys/resourceItemElement/remove</v>
       </c>
     </row>
-    <row r="208" spans="5:7">
-      <c r="E208" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F208" s="16" t="str">
-        <f t="shared" ref="F208:F213" si="30">$E$16</f>
+    <row r="209" spans="5:7">
+      <c r="E209" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F209" s="16" t="str">
+        <f t="shared" ref="F209:F214" si="30">$E$16</f>
         <v>ACCOUNT_USER</v>
       </c>
-      <c r="G208" s="16" t="str">
+      <c r="G209" s="16" t="str">
         <f>RESOURCE!E209</f>
         <v>sys/sys_user_function.html</v>
-      </c>
-    </row>
-    <row r="209" spans="5:7">
-      <c r="E209" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F209" s="16" t="str">
-        <f t="shared" si="30"/>
-        <v>ACCOUNT_USER</v>
-      </c>
-      <c r="G209" s="16" t="str">
-        <f>RESOURCE!E210</f>
-        <v>sys/sys_user_resource_item.html</v>
       </c>
     </row>
     <row r="210" spans="5:7">
@@ -36681,8 +36727,8 @@
         <v>ACCOUNT_USER</v>
       </c>
       <c r="G210" s="16" t="str">
-        <f>RESOURCE!E211</f>
-        <v>sys/user/queryFunction</v>
+        <f>RESOURCE!E210</f>
+        <v>sys/sys_user_resource_item.html</v>
       </c>
     </row>
     <row r="211" spans="5:7">
@@ -36694,8 +36740,8 @@
         <v>ACCOUNT_USER</v>
       </c>
       <c r="G211" s="16" t="str">
-        <f>RESOURCE!E212</f>
-        <v>sys/user/queryResourceItems</v>
+        <f>RESOURCE!E211</f>
+        <v>sys/user/queryFunction</v>
       </c>
     </row>
     <row r="212" spans="5:7">
@@ -36707,8 +36753,8 @@
         <v>ACCOUNT_USER</v>
       </c>
       <c r="G212" s="16" t="str">
-        <f>RESOURCE!E213</f>
-        <v>sys/user/submitResourceItems</v>
+        <f>RESOURCE!E212</f>
+        <v>sys/user/queryResourceItems</v>
       </c>
     </row>
     <row r="213" spans="5:7">
@@ -36720,34 +36766,34 @@
         <v>ACCOUNT_USER</v>
       </c>
       <c r="G213" s="16" t="str">
+        <f>RESOURCE!E213</f>
+        <v>sys/user/submitResourceItems</v>
+      </c>
+    </row>
+    <row r="214" spans="5:7">
+      <c r="E214" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F214" s="16" t="str">
+        <f t="shared" si="30"/>
+        <v>ACCOUNT_USER</v>
+      </c>
+      <c r="G214" s="16" t="str">
         <f>RESOURCE!E214</f>
         <v>sys/user/deleteResourceItems</v>
       </c>
     </row>
-    <row r="214" spans="5:7">
-      <c r="E214" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F214" s="16" t="str">
-        <f t="shared" ref="F214:F226" si="31">$E$39</f>
+    <row r="215" spans="5:7">
+      <c r="E215" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F215" s="16" t="str">
+        <f t="shared" ref="F215:F227" si="31">$E$40</f>
         <v>DATA_PERMISSION_RULE</v>
       </c>
-      <c r="G214" s="16" t="str">
+      <c r="G215" s="16" t="str">
         <f>RESOURCE!E215</f>
         <v>permission/data_permission_rule.html</v>
-      </c>
-    </row>
-    <row r="215" spans="5:7">
-      <c r="E215" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F215" s="16" t="str">
-        <f t="shared" si="31"/>
-        <v>DATA_PERMISSION_RULE</v>
-      </c>
-      <c r="G215" s="16" t="str">
-        <f>RESOURCE!E216</f>
-        <v>sys/data/permission/rule/query</v>
       </c>
     </row>
     <row r="216" spans="5:7">
@@ -36759,8 +36805,8 @@
         <v>DATA_PERMISSION_RULE</v>
       </c>
       <c r="G216" s="16" t="str">
-        <f>RESOURCE!E217</f>
-        <v>sys/data/permission/rule/submit</v>
+        <f>RESOURCE!E216</f>
+        <v>sys/data/permission/rule/query</v>
       </c>
     </row>
     <row r="217" spans="5:7">
@@ -36772,8 +36818,8 @@
         <v>DATA_PERMISSION_RULE</v>
       </c>
       <c r="G217" s="16" t="str">
-        <f>RESOURCE!E218</f>
-        <v>sys/data/permission/rule/remove</v>
+        <f>RESOURCE!E217</f>
+        <v>sys/data/permission/rule/submit</v>
       </c>
     </row>
     <row r="218" spans="5:7">
@@ -36785,8 +36831,8 @@
         <v>DATA_PERMISSION_RULE</v>
       </c>
       <c r="G218" s="16" t="str">
-        <f>RESOURCE!E219</f>
-        <v>permission/data_permission_rule_detail.html</v>
+        <f>RESOURCE!E218</f>
+        <v>sys/data/permission/rule/remove</v>
       </c>
     </row>
     <row r="219" spans="5:7">
@@ -36798,8 +36844,8 @@
         <v>DATA_PERMISSION_RULE</v>
       </c>
       <c r="G219" s="16" t="str">
-        <f>RESOURCE!E220</f>
-        <v>sys/data/permission/rule/detail/query</v>
+        <f>RESOURCE!E219</f>
+        <v>permission/data_permission_rule_detail.html</v>
       </c>
     </row>
     <row r="220" spans="5:7">
@@ -36811,8 +36857,8 @@
         <v>DATA_PERMISSION_RULE</v>
       </c>
       <c r="G220" s="16" t="str">
-        <f>RESOURCE!E221</f>
-        <v>sys/data/permission/rule/detail/submit</v>
+        <f>RESOURCE!E220</f>
+        <v>sys/data/permission/rule/detail/query</v>
       </c>
     </row>
     <row r="221" spans="5:7">
@@ -36824,8 +36870,8 @@
         <v>DATA_PERMISSION_RULE</v>
       </c>
       <c r="G221" s="16" t="str">
-        <f>RESOURCE!E222</f>
-        <v>sys/data/permission/rule/detail/remove</v>
+        <f>RESOURCE!E221</f>
+        <v>sys/data/permission/rule/detail/submit</v>
       </c>
     </row>
     <row r="222" spans="5:7">
@@ -36837,8 +36883,8 @@
         <v>DATA_PERMISSION_RULE</v>
       </c>
       <c r="G222" s="16" t="str">
-        <f>RESOURCE!E223</f>
-        <v>permission/data_permission_rule_detail_sql.html</v>
+        <f>RESOURCE!E222</f>
+        <v>sys/data/permission/rule/detail/remove</v>
       </c>
     </row>
     <row r="223" spans="5:7">
@@ -36850,8 +36896,8 @@
         <v>DATA_PERMISSION_RULE</v>
       </c>
       <c r="G223" s="16" t="str">
-        <f>RESOURCE!E224</f>
-        <v>permission/data_permission_rule_assign.html</v>
+        <f>RESOURCE!E223</f>
+        <v>permission/data_permission_rule_detail_sql.html</v>
       </c>
     </row>
     <row r="224" spans="5:7">
@@ -36863,11 +36909,11 @@
         <v>DATA_PERMISSION_RULE</v>
       </c>
       <c r="G224" s="16" t="str">
-        <f>RESOURCE!E225</f>
-        <v>sys/data/permission/rule/assign/query</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7">
+        <f>RESOURCE!E224</f>
+        <v>permission/data_permission_rule_assign.html</v>
+      </c>
+    </row>
+    <row r="225" spans="5:7">
       <c r="E225" s="10" t="s">
         <v>82</v>
       </c>
@@ -36876,11 +36922,11 @@
         <v>DATA_PERMISSION_RULE</v>
       </c>
       <c r="G225" s="16" t="str">
-        <f>RESOURCE!E226</f>
-        <v>sys/data/permission/rule/assign/submit</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7">
+        <f>RESOURCE!E225</f>
+        <v>sys/data/permission/rule/assign/query</v>
+      </c>
+    </row>
+    <row r="226" spans="5:7">
       <c r="E226" s="10" t="s">
         <v>82</v>
       </c>
@@ -36889,37 +36935,37 @@
         <v>DATA_PERMISSION_RULE</v>
       </c>
       <c r="G226" s="16" t="str">
+        <f>RESOURCE!E226</f>
+        <v>sys/data/permission/rule/assign/submit</v>
+      </c>
+    </row>
+    <row r="227" spans="5:7">
+      <c r="E227" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F227" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>DATA_PERMISSION_RULE</v>
+      </c>
+      <c r="G227" s="16" t="str">
         <f>RESOURCE!E227</f>
         <v>sys/data/permission/rule/assign/remove</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
-      <c r="E227" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F227" s="16" t="str">
-        <f t="shared" ref="F227:F234" si="32">$E$40</f>
+    <row r="228" spans="5:7">
+      <c r="E228" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F228" s="16" t="str">
+        <f t="shared" ref="F228:F235" si="32">$E$41</f>
         <v>DATA_PERMISSION_TABLE</v>
       </c>
-      <c r="G227" s="16" t="str">
+      <c r="G228" s="16" t="str">
         <f>RESOURCE!E228</f>
         <v>permission/data_permission_table.html</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
-      <c r="E228" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F228" s="16" t="str">
-        <f t="shared" si="32"/>
-        <v>DATA_PERMISSION_TABLE</v>
-      </c>
-      <c r="G228" s="16" t="str">
-        <f>RESOURCE!E229</f>
-        <v>sys/data/permission/table/query</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="5:7">
       <c r="E229" s="10" t="s">
         <v>82</v>
       </c>
@@ -36928,11 +36974,11 @@
         <v>DATA_PERMISSION_TABLE</v>
       </c>
       <c r="G229" s="16" t="str">
-        <f>RESOURCE!E230</f>
-        <v>sys/data/permission/table/submit</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7">
+        <f>RESOURCE!E229</f>
+        <v>sys/data/permission/table/query</v>
+      </c>
+    </row>
+    <row r="230" spans="5:7">
       <c r="E230" s="10" t="s">
         <v>82</v>
       </c>
@@ -36941,11 +36987,11 @@
         <v>DATA_PERMISSION_TABLE</v>
       </c>
       <c r="G230" s="16" t="str">
-        <f>RESOURCE!E231</f>
-        <v>sys/data/permission/table/remove</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7">
+        <f>RESOURCE!E230</f>
+        <v>sys/data/permission/table/submit</v>
+      </c>
+    </row>
+    <row r="231" spans="5:7">
       <c r="E231" s="10" t="s">
         <v>82</v>
       </c>
@@ -36954,11 +37000,11 @@
         <v>DATA_PERMISSION_TABLE</v>
       </c>
       <c r="G231" s="16" t="str">
-        <f>RESOURCE!E232</f>
-        <v>permission/data_permission_table_rule.html</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7">
+        <f>RESOURCE!E231</f>
+        <v>sys/data/permission/table/remove</v>
+      </c>
+    </row>
+    <row r="232" spans="5:7">
       <c r="E232" s="10" t="s">
         <v>82</v>
       </c>
@@ -36967,11 +37013,11 @@
         <v>DATA_PERMISSION_TABLE</v>
       </c>
       <c r="G232" s="16" t="str">
-        <f>RESOURCE!E233</f>
-        <v>sys/data/permission/table/rule/query</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7">
+        <f>RESOURCE!E232</f>
+        <v>permission/data_permission_table_rule.html</v>
+      </c>
+    </row>
+    <row r="233" spans="5:7">
       <c r="E233" s="10" t="s">
         <v>82</v>
       </c>
@@ -36980,11 +37026,11 @@
         <v>DATA_PERMISSION_TABLE</v>
       </c>
       <c r="G233" s="16" t="str">
-        <f>RESOURCE!E234</f>
-        <v>sys/data/permission/table/rule/submit</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7">
+        <f>RESOURCE!E233</f>
+        <v>sys/data/permission/table/rule/query</v>
+      </c>
+    </row>
+    <row r="234" spans="5:7">
       <c r="E234" s="10" t="s">
         <v>82</v>
       </c>
@@ -36993,37 +37039,37 @@
         <v>DATA_PERMISSION_TABLE</v>
       </c>
       <c r="G234" s="16" t="str">
+        <f>RESOURCE!E234</f>
+        <v>sys/data/permission/table/rule/submit</v>
+      </c>
+    </row>
+    <row r="235" spans="5:7">
+      <c r="E235" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F235" s="16" t="str">
+        <f t="shared" si="32"/>
+        <v>DATA_PERMISSION_TABLE</v>
+      </c>
+      <c r="G235" s="16" t="str">
         <f>RESOURCE!E235</f>
         <v>sys/data/permission/table/rule/remove</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
-      <c r="E235" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F235" s="16" t="str">
-        <f t="shared" ref="F235:F239" si="33">$E$41</f>
+    <row r="236" spans="5:7">
+      <c r="E236" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F236" s="16" t="str">
+        <f t="shared" ref="F236:F240" si="33">$E$42</f>
         <v>FORM</v>
       </c>
-      <c r="G235" s="16" t="str">
+      <c r="G236" s="16" t="str">
         <f>RESOURCE!E242</f>
         <v>sys/ui-builder.html</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
-      <c r="E236" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F236" s="16" t="str">
-        <f t="shared" si="33"/>
-        <v>FORM</v>
-      </c>
-      <c r="G236" s="16" t="str">
-        <f>RESOURCE!E243</f>
-        <v>sys/form/builder/query</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="5:7">
       <c r="E237" s="10" t="s">
         <v>82</v>
       </c>
@@ -37032,11 +37078,11 @@
         <v>FORM</v>
       </c>
       <c r="G237" s="16" t="str">
-        <f>RESOURCE!E244</f>
-        <v>sys/form/builder/update</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7">
+        <f>RESOURCE!E243</f>
+        <v>sys/form/builder/query</v>
+      </c>
+    </row>
+    <row r="238" spans="5:7">
       <c r="E238" s="10" t="s">
         <v>82</v>
       </c>
@@ -37045,11 +37091,11 @@
         <v>FORM</v>
       </c>
       <c r="G238" s="16" t="str">
-        <f>RESOURCE!E245</f>
-        <v>sys/form/builder/remove</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7">
+        <f>RESOURCE!E244</f>
+        <v>sys/form/builder/update</v>
+      </c>
+    </row>
+    <row r="239" spans="5:7">
       <c r="E239" s="10" t="s">
         <v>82</v>
       </c>
@@ -37058,43 +37104,43 @@
         <v>FORM</v>
       </c>
       <c r="G239" s="16" t="str">
+        <f>RESOURCE!E245</f>
+        <v>sys/form/builder/remove</v>
+      </c>
+    </row>
+    <row r="240" spans="5:7">
+      <c r="E240" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F240" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>FORM</v>
+      </c>
+      <c r="G240" s="16" t="str">
         <f>RESOURCE!E246</f>
         <v>sys/ui-builder-edit.html</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
-      <c r="A240" s="26">
+    <row r="241" spans="1:7">
+      <c r="A241" s="26">
         <v>43040</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B241" t="s">
         <v>842</v>
       </c>
-      <c r="E240" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F240" s="16" t="str">
-        <f t="shared" ref="F240:F242" si="34">$E$9</f>
+      <c r="E241" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F241" s="16" t="str">
+        <f t="shared" ref="F241:F243" si="34">$E$9</f>
         <v>PROMPT</v>
       </c>
-      <c r="G240" s="16" t="str">
+      <c r="G241" s="16" t="str">
         <f>RESOURCE!E247</f>
         <v>api/sys/prompt/query</v>
       </c>
     </row>
-    <row r="241" spans="5:7">
-      <c r="E241" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F241" s="16" t="str">
-        <f t="shared" si="34"/>
-        <v>PROMPT</v>
-      </c>
-      <c r="G241" s="16" t="str">
-        <f>RESOURCE!E248</f>
-        <v>api/sys/prompt/remove</v>
-      </c>
-    </row>
-    <row r="242" spans="5:7">
+    <row r="242" spans="1:7">
       <c r="E242" s="10" t="s">
         <v>82</v>
       </c>
@@ -37103,37 +37149,37 @@
         <v>PROMPT</v>
       </c>
       <c r="G242" s="16" t="str">
+        <f>RESOURCE!E248</f>
+        <v>api/sys/prompt/remove</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="E243" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F243" s="16" t="str">
+        <f t="shared" si="34"/>
+        <v>PROMPT</v>
+      </c>
+      <c r="G243" s="16" t="str">
         <f>RESOURCE!E249</f>
         <v>api/sys/prompt/submit</v>
       </c>
     </row>
-    <row r="243" spans="5:7">
-      <c r="E243" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F243" s="16" t="str">
-        <f t="shared" ref="F243:F247" si="35">$E$10</f>
+    <row r="244" spans="1:7">
+      <c r="E244" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F244" s="16" t="str">
+        <f t="shared" ref="F244:F248" si="35">$E$10</f>
         <v>CODE</v>
       </c>
-      <c r="G243" s="16" t="str">
+      <c r="G244" s="16" t="str">
         <f>RESOURCE!E250</f>
         <v>api/sys/code/query</v>
       </c>
     </row>
-    <row r="244" spans="5:7">
-      <c r="E244" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F244" s="16" t="str">
-        <f t="shared" si="35"/>
-        <v>CODE</v>
-      </c>
-      <c r="G244" s="16" t="str">
-        <f>RESOURCE!E251</f>
-        <v>api/sys/code/remove</v>
-      </c>
-    </row>
-    <row r="245" spans="5:7">
+    <row r="245" spans="1:7">
       <c r="E245" s="10" t="s">
         <v>82</v>
       </c>
@@ -37142,11 +37188,11 @@
         <v>CODE</v>
       </c>
       <c r="G245" s="16" t="str">
-        <f>RESOURCE!E252</f>
-        <v>api/sys/code/submit</v>
-      </c>
-    </row>
-    <row r="246" spans="5:7">
+        <f>RESOURCE!E251</f>
+        <v>api/sys/code/remove</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
       <c r="E246" s="10" t="s">
         <v>82</v>
       </c>
@@ -37155,11 +37201,11 @@
         <v>CODE</v>
       </c>
       <c r="G246" s="16" t="str">
-        <f>RESOURCE!E253</f>
-        <v>api/sys/codevalue/query</v>
-      </c>
-    </row>
-    <row r="247" spans="5:7">
+        <f>RESOURCE!E252</f>
+        <v>api/sys/code/submit</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
       <c r="E247" s="10" t="s">
         <v>82</v>
       </c>
@@ -37168,37 +37214,37 @@
         <v>CODE</v>
       </c>
       <c r="G247" s="16" t="str">
+        <f>RESOURCE!E253</f>
+        <v>api/sys/codevalue/query</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="E248" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F248" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>CODE</v>
+      </c>
+      <c r="G248" s="16" t="str">
         <f>RESOURCE!E254</f>
         <v>api/sys/codevalue/remove</v>
       </c>
     </row>
-    <row r="248" spans="5:7">
-      <c r="E248" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F248" s="16" t="str">
-        <f t="shared" ref="F248:F253" si="36">$E$11</f>
+    <row r="249" spans="1:7">
+      <c r="E249" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F249" s="16" t="str">
+        <f t="shared" ref="F249:F254" si="36">$E$11</f>
         <v>LOV</v>
       </c>
-      <c r="G248" s="16" t="str">
+      <c r="G249" s="16" t="str">
         <f>RESOURCE!E255</f>
         <v>api/sys/lov/load</v>
       </c>
     </row>
-    <row r="249" spans="5:7">
-      <c r="E249" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F249" s="16" t="str">
-        <f t="shared" si="36"/>
-        <v>LOV</v>
-      </c>
-      <c r="G249" s="16" t="str">
-        <f>RESOURCE!E256</f>
-        <v>api/sys/lov/query</v>
-      </c>
-    </row>
-    <row r="250" spans="5:7">
+    <row r="250" spans="1:7">
       <c r="E250" s="10" t="s">
         <v>82</v>
       </c>
@@ -37207,11 +37253,11 @@
         <v>LOV</v>
       </c>
       <c r="G250" s="16" t="str">
-        <f>RESOURCE!E257</f>
-        <v>api/sys/lov/remove</v>
-      </c>
-    </row>
-    <row r="251" spans="5:7">
+        <f>RESOURCE!E256</f>
+        <v>api/sys/lov/query</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
       <c r="E251" s="10" t="s">
         <v>82</v>
       </c>
@@ -37220,11 +37266,11 @@
         <v>LOV</v>
       </c>
       <c r="G251" s="16" t="str">
-        <f>RESOURCE!E258</f>
-        <v>api/sys/lov/submit</v>
-      </c>
-    </row>
-    <row r="252" spans="5:7">
+        <f>RESOURCE!E257</f>
+        <v>api/sys/lov/remove</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
       <c r="E252" s="10" t="s">
         <v>82</v>
       </c>
@@ -37233,11 +37279,11 @@
         <v>LOV</v>
       </c>
       <c r="G252" s="16" t="str">
-        <f>RESOURCE!E259</f>
-        <v>api/sys/lovitem/query</v>
-      </c>
-    </row>
-    <row r="253" spans="5:7">
+        <f>RESOURCE!E258</f>
+        <v>api/sys/lov/submit</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
       <c r="E253" s="10" t="s">
         <v>82</v>
       </c>
@@ -37246,37 +37292,37 @@
         <v>LOV</v>
       </c>
       <c r="G253" s="16" t="str">
+        <f>RESOURCE!E259</f>
+        <v>api/sys/lovitem/query</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="E254" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F254" s="16" t="str">
+        <f t="shared" si="36"/>
+        <v>LOV</v>
+      </c>
+      <c r="G254" s="16" t="str">
         <f>RESOURCE!E260</f>
         <v>api/sys/lovitem/remove</v>
       </c>
     </row>
-    <row r="254" spans="5:7">
-      <c r="E254" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F254" s="16" t="str">
-        <f t="shared" ref="F254:F259" si="37">$E$13</f>
+    <row r="255" spans="1:7">
+      <c r="E255" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F255" s="16" t="str">
+        <f t="shared" ref="F255:F260" si="37">$E$13</f>
         <v>PROFILE</v>
       </c>
-      <c r="G254" s="16" t="str">
+      <c r="G255" s="16" t="str">
         <f>RESOURCE!E261</f>
         <v>api/sys/profile/query</v>
       </c>
     </row>
-    <row r="255" spans="5:7">
-      <c r="E255" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F255" s="16" t="str">
-        <f t="shared" si="37"/>
-        <v>PROFILE</v>
-      </c>
-      <c r="G255" s="16" t="str">
-        <f>RESOURCE!E262</f>
-        <v>api/sys/profile/remove</v>
-      </c>
-    </row>
-    <row r="256" spans="5:7">
+    <row r="256" spans="1:7">
       <c r="E256" s="10" t="s">
         <v>82</v>
       </c>
@@ -37285,8 +37331,8 @@
         <v>PROFILE</v>
       </c>
       <c r="G256" s="16" t="str">
-        <f>RESOURCE!E263</f>
-        <v>api/sys/profile/submit</v>
+        <f>RESOURCE!E262</f>
+        <v>api/sys/profile/remove</v>
       </c>
     </row>
     <row r="257" spans="5:7">
@@ -37298,8 +37344,8 @@
         <v>PROFILE</v>
       </c>
       <c r="G257" s="16" t="str">
-        <f>RESOURCE!E264</f>
-        <v>api/sys/profilevalue/query</v>
+        <f>RESOURCE!E263</f>
+        <v>api/sys/profile/submit</v>
       </c>
     </row>
     <row r="258" spans="5:7">
@@ -37311,8 +37357,8 @@
         <v>PROFILE</v>
       </c>
       <c r="G258" s="16" t="str">
-        <f>RESOURCE!E265</f>
-        <v>api/sys/profilevalue/querylevelvalues</v>
+        <f>RESOURCE!E264</f>
+        <v>api/sys/profilevalue/query</v>
       </c>
     </row>
     <row r="259" spans="5:7">
@@ -37324,34 +37370,34 @@
         <v>PROFILE</v>
       </c>
       <c r="G259" s="16" t="str">
+        <f>RESOURCE!E265</f>
+        <v>api/sys/profilevalue/querylevelvalues</v>
+      </c>
+    </row>
+    <row r="260" spans="5:7">
+      <c r="E260" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F260" s="16" t="str">
+        <f t="shared" si="37"/>
+        <v>PROFILE</v>
+      </c>
+      <c r="G260" s="16" t="str">
         <f>RESOURCE!E266</f>
         <v>api/sys/profilevalue/remove</v>
       </c>
     </row>
-    <row r="260" spans="5:7">
-      <c r="E260" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F260" s="16" t="str">
-        <f t="shared" ref="F260:F266" si="38">$E$19</f>
+    <row r="261" spans="5:7">
+      <c r="E261" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F261" s="16" t="str">
+        <f t="shared" ref="F261:F267" si="38">$E$19</f>
         <v>FUNCTION_ADD</v>
       </c>
-      <c r="G260" s="16" t="str">
+      <c r="G261" s="16" t="str">
         <f>RESOURCE!E267</f>
         <v>api/sys/function/fetchNotResource</v>
-      </c>
-    </row>
-    <row r="261" spans="5:7">
-      <c r="E261" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F261" s="16" t="str">
-        <f t="shared" si="38"/>
-        <v>FUNCTION_ADD</v>
-      </c>
-      <c r="G261" s="16" t="str">
-        <f>RESOURCE!E268</f>
-        <v>api/sys/function/fetchResource</v>
       </c>
     </row>
     <row r="262" spans="5:7">
@@ -37363,8 +37409,8 @@
         <v>FUNCTION_ADD</v>
       </c>
       <c r="G262" s="16" t="str">
-        <f>RESOURCE!E269</f>
-        <v>api/sys/function/menus</v>
+        <f>RESOURCE!E268</f>
+        <v>api/sys/function/fetchResource</v>
       </c>
     </row>
     <row r="263" spans="5:7">
@@ -37376,8 +37422,8 @@
         <v>FUNCTION_ADD</v>
       </c>
       <c r="G263" s="16" t="str">
-        <f>RESOURCE!E270</f>
-        <v>api/sys/function/query</v>
+        <f>RESOURCE!E269</f>
+        <v>api/sys/function/menus</v>
       </c>
     </row>
     <row r="264" spans="5:7">
@@ -37389,8 +37435,8 @@
         <v>FUNCTION_ADD</v>
       </c>
       <c r="G264" s="16" t="str">
-        <f>RESOURCE!E271</f>
-        <v>api/sys/function/remove</v>
+        <f>RESOURCE!E270</f>
+        <v>api/sys/function/query</v>
       </c>
     </row>
     <row r="265" spans="5:7">
@@ -37402,8 +37448,8 @@
         <v>FUNCTION_ADD</v>
       </c>
       <c r="G265" s="16" t="str">
-        <f>RESOURCE!E272</f>
-        <v>api/sys/function/submit</v>
+        <f>RESOURCE!E271</f>
+        <v>api/sys/function/remove</v>
       </c>
     </row>
     <row r="266" spans="5:7">
@@ -37415,34 +37461,34 @@
         <v>FUNCTION_ADD</v>
       </c>
       <c r="G266" s="16" t="str">
+        <f>RESOURCE!E272</f>
+        <v>api/sys/function/submit</v>
+      </c>
+    </row>
+    <row r="267" spans="5:7">
+      <c r="E267" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F267" s="16" t="str">
+        <f t="shared" si="38"/>
+        <v>FUNCTION_ADD</v>
+      </c>
+      <c r="G267" s="16" t="str">
         <f>RESOURCE!E273</f>
         <v>api/sys/function/updateFunctionResource</v>
       </c>
     </row>
-    <row r="267" spans="5:7">
-      <c r="E267" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F267" s="16" t="str">
-        <f t="shared" ref="F267:F278" si="39">$E$20</f>
+    <row r="268" spans="5:7">
+      <c r="E268" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F268" s="16" t="str">
+        <f t="shared" ref="F268:F279" si="39">$E$20</f>
         <v>SYS_RESOURCE</v>
       </c>
-      <c r="G267" s="16" t="str">
+      <c r="G268" s="16" t="str">
         <f>RESOURCE!E274</f>
         <v>api/sys/resource/query</v>
-      </c>
-    </row>
-    <row r="268" spans="5:7">
-      <c r="E268" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F268" s="16" t="str">
-        <f t="shared" si="39"/>
-        <v>SYS_RESOURCE</v>
-      </c>
-      <c r="G268" s="16" t="str">
-        <f>RESOURCE!E275</f>
-        <v>api/sys/resource/remove</v>
       </c>
     </row>
     <row r="269" spans="5:7">
@@ -37454,8 +37500,8 @@
         <v>SYS_RESOURCE</v>
       </c>
       <c r="G269" s="16" t="str">
-        <f>RESOURCE!E276</f>
-        <v>api/sys/resource/submit</v>
+        <f>RESOURCE!E275</f>
+        <v>api/sys/resource/remove</v>
       </c>
     </row>
     <row r="270" spans="5:7">
@@ -37467,8 +37513,8 @@
         <v>SYS_RESOURCE</v>
       </c>
       <c r="G270" s="16" t="str">
-        <f>RESOURCE!E277</f>
-        <v>api/sys/resourceItem/query</v>
+        <f>RESOURCE!E276</f>
+        <v>api/sys/resource/submit</v>
       </c>
     </row>
     <row r="271" spans="5:7">
@@ -37480,8 +37526,8 @@
         <v>SYS_RESOURCE</v>
       </c>
       <c r="G271" s="16" t="str">
-        <f>RESOURCE!E278</f>
-        <v>api/sys/resourceItem/remove</v>
+        <f>RESOURCE!E277</f>
+        <v>api/sys/resourceItem/query</v>
       </c>
     </row>
     <row r="272" spans="5:7">
@@ -37493,8 +37539,8 @@
         <v>SYS_RESOURCE</v>
       </c>
       <c r="G272" s="16" t="str">
-        <f>RESOURCE!E279</f>
-        <v>api/sys/resourceItem/submit</v>
+        <f>RESOURCE!E278</f>
+        <v>api/sys/resourceItem/remove</v>
       </c>
     </row>
     <row r="273" spans="5:7">
@@ -37506,8 +37552,8 @@
         <v>SYS_RESOURCE</v>
       </c>
       <c r="G273" s="16" t="str">
-        <f>RESOURCE!E280</f>
-        <v>api/sys/resourceCustomization/submit</v>
+        <f>RESOURCE!E279</f>
+        <v>api/sys/resourceItem/submit</v>
       </c>
     </row>
     <row r="274" spans="5:7">
@@ -37519,8 +37565,8 @@
         <v>SYS_RESOURCE</v>
       </c>
       <c r="G274" s="16" t="str">
-        <f>RESOURCE!E281</f>
-        <v>api/sys/resourceCustomization/query</v>
+        <f>RESOURCE!E280</f>
+        <v>api/sys/resourceCustomization/submit</v>
       </c>
     </row>
     <row r="275" spans="5:7">
@@ -37532,8 +37578,8 @@
         <v>SYS_RESOURCE</v>
       </c>
       <c r="G275" s="16" t="str">
-        <f>RESOURCE!E282</f>
-        <v>api/sys/resourceCustomization/remove</v>
+        <f>RESOURCE!E281</f>
+        <v>api/sys/resourceCustomization/query</v>
       </c>
     </row>
     <row r="276" spans="5:7">
@@ -37545,8 +37591,8 @@
         <v>SYS_RESOURCE</v>
       </c>
       <c r="G276" s="16" t="str">
-        <f>RESOURCE!E283</f>
-        <v>api/sys/resourceItemElement/query</v>
+        <f>RESOURCE!E282</f>
+        <v>api/sys/resourceCustomization/remove</v>
       </c>
     </row>
     <row r="277" spans="5:7">
@@ -37558,8 +37604,8 @@
         <v>SYS_RESOURCE</v>
       </c>
       <c r="G277" s="16" t="str">
-        <f>RESOURCE!E284</f>
-        <v>api/sys/resourceItemElement/submit</v>
+        <f>RESOURCE!E283</f>
+        <v>api/sys/resourceItemElement/query</v>
       </c>
     </row>
     <row r="278" spans="5:7">
@@ -37571,34 +37617,34 @@
         <v>SYS_RESOURCE</v>
       </c>
       <c r="G278" s="16" t="str">
+        <f>RESOURCE!E284</f>
+        <v>api/sys/resourceItemElement/submit</v>
+      </c>
+    </row>
+    <row r="279" spans="5:7">
+      <c r="E279" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F279" s="16" t="str">
+        <f t="shared" si="39"/>
+        <v>SYS_RESOURCE</v>
+      </c>
+      <c r="G279" s="16" t="str">
         <f>RESOURCE!E285</f>
         <v>api/sys/resourceItemElement/remove</v>
       </c>
     </row>
-    <row r="279" spans="5:7">
-      <c r="E279" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F279" s="16" t="str">
-        <f t="shared" ref="F279:F282" si="40">$E$21</f>
+    <row r="280" spans="5:7">
+      <c r="E280" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F280" s="16" t="str">
+        <f t="shared" ref="F280:F283" si="40">$E$21</f>
         <v>FUNCTION_ASSIGN</v>
       </c>
-      <c r="G279" s="16" t="str">
+      <c r="G280" s="16" t="str">
         <f>RESOURCE!E286</f>
         <v>api/sys/rolefunction/query</v>
-      </c>
-    </row>
-    <row r="280" spans="5:7">
-      <c r="E280" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F280" s="16" t="str">
-        <f t="shared" si="40"/>
-        <v>FUNCTION_ASSIGN</v>
-      </c>
-      <c r="G280" s="16" t="str">
-        <f>RESOURCE!E287</f>
-        <v>api/sys/rolefunction/queryResourceItems</v>
       </c>
     </row>
     <row r="281" spans="5:7">
@@ -37610,8 +37656,8 @@
         <v>FUNCTION_ASSIGN</v>
       </c>
       <c r="G281" s="16" t="str">
-        <f>RESOURCE!E288</f>
-        <v>api/sys/rolefunction/submit</v>
+        <f>RESOURCE!E287</f>
+        <v>api/sys/rolefunction/queryResourceItems</v>
       </c>
     </row>
     <row r="282" spans="5:7">
@@ -37623,34 +37669,34 @@
         <v>FUNCTION_ASSIGN</v>
       </c>
       <c r="G282" s="16" t="str">
+        <f>RESOURCE!E288</f>
+        <v>api/sys/rolefunction/submit</v>
+      </c>
+    </row>
+    <row r="283" spans="5:7">
+      <c r="E283" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F283" s="16" t="str">
+        <f t="shared" si="40"/>
+        <v>FUNCTION_ASSIGN</v>
+      </c>
+      <c r="G283" s="16" t="str">
         <f>RESOURCE!E289</f>
         <v>api/sys/rolefunction/submitResourceItems</v>
       </c>
     </row>
-    <row r="283" spans="5:7">
-      <c r="E283" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F283" s="16" t="str">
-        <f t="shared" ref="F283:F294" si="41">$E$16</f>
+    <row r="284" spans="5:7">
+      <c r="E284" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F284" s="16" t="str">
+        <f t="shared" ref="F284:F295" si="41">$E$16</f>
         <v>ACCOUNT_USER</v>
       </c>
-      <c r="G283" s="16" t="str">
+      <c r="G284" s="16" t="str">
         <f>RESOURCE!E290</f>
         <v>api/sys/user/query</v>
-      </c>
-    </row>
-    <row r="284" spans="5:7">
-      <c r="E284" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F284" s="16" t="str">
-        <f t="shared" si="41"/>
-        <v>ACCOUNT_USER</v>
-      </c>
-      <c r="G284" s="16" t="str">
-        <f>RESOURCE!E291</f>
-        <v>api/sys/user/remove</v>
       </c>
     </row>
     <row r="285" spans="5:7">
@@ -37662,8 +37708,8 @@
         <v>ACCOUNT_USER</v>
       </c>
       <c r="G285" s="16" t="str">
-        <f>RESOURCE!E292</f>
-        <v>api/sys/user/submit</v>
+        <f>RESOURCE!E291</f>
+        <v>api/sys/user/remove</v>
       </c>
     </row>
     <row r="286" spans="5:7">
@@ -37675,8 +37721,8 @@
         <v>ACCOUNT_USER</v>
       </c>
       <c r="G286" s="16" t="str">
-        <f>RESOURCE!E293</f>
-        <v>api/sys/user/{userId}/roles</v>
+        <f>RESOURCE!E292</f>
+        <v>api/sys/user/submit</v>
       </c>
     </row>
     <row r="287" spans="5:7">
@@ -37688,8 +37734,8 @@
         <v>ACCOUNT_USER</v>
       </c>
       <c r="G287" s="16" t="str">
-        <f>RESOURCE!E294</f>
-        <v>api/sys/userrole/submit</v>
+        <f>RESOURCE!E293</f>
+        <v>api/sys/user/{userId}/roles</v>
       </c>
     </row>
     <row r="288" spans="5:7">
@@ -37701,8 +37747,8 @@
         <v>ACCOUNT_USER</v>
       </c>
       <c r="G288" s="16" t="str">
-        <f>RESOURCE!E295</f>
-        <v>api/sys/role/queryRoleNotUserRole</v>
+        <f>RESOURCE!E294</f>
+        <v>api/sys/userrole/submit</v>
       </c>
     </row>
     <row r="289" spans="5:7">
@@ -37714,8 +37760,8 @@
         <v>ACCOUNT_USER</v>
       </c>
       <c r="G289" s="16" t="str">
-        <f>RESOURCE!E296</f>
-        <v>api/sys/um/getSingleUser</v>
+        <f>RESOURCE!E295</f>
+        <v>api/sys/role/queryRoleNotUserRole</v>
       </c>
     </row>
     <row r="290" spans="5:7">
@@ -37727,8 +37773,8 @@
         <v>ACCOUNT_USER</v>
       </c>
       <c r="G290" s="16" t="str">
-        <f>RESOURCE!E297</f>
-        <v>api/sys/user/queryFunction</v>
+        <f>RESOURCE!E296</f>
+        <v>api/sys/um/getSingleUser</v>
       </c>
     </row>
     <row r="291" spans="5:7">
@@ -37740,8 +37786,8 @@
         <v>ACCOUNT_USER</v>
       </c>
       <c r="G291" s="16" t="str">
-        <f>RESOURCE!E298</f>
-        <v>api/sys/user/queryResourceItems</v>
+        <f>RESOURCE!E297</f>
+        <v>api/sys/user/queryFunction</v>
       </c>
     </row>
     <row r="292" spans="5:7">
@@ -37753,8 +37799,8 @@
         <v>ACCOUNT_USER</v>
       </c>
       <c r="G292" s="16" t="str">
-        <f>RESOURCE!E299</f>
-        <v>api/sys/user/submitResourceItems</v>
+        <f>RESOURCE!E298</f>
+        <v>api/sys/user/queryResourceItems</v>
       </c>
     </row>
     <row r="293" spans="5:7">
@@ -37766,8 +37812,8 @@
         <v>ACCOUNT_USER</v>
       </c>
       <c r="G293" s="16" t="str">
-        <f>RESOURCE!E300</f>
-        <v>api/sys/user/deleteResourceItems</v>
+        <f>RESOURCE!E299</f>
+        <v>api/sys/user/submitResourceItems</v>
       </c>
     </row>
     <row r="294" spans="5:7">
@@ -37779,34 +37825,34 @@
         <v>ACCOUNT_USER</v>
       </c>
       <c r="G294" s="16" t="str">
+        <f>RESOURCE!E300</f>
+        <v>api/sys/user/deleteResourceItems</v>
+      </c>
+    </row>
+    <row r="295" spans="5:7">
+      <c r="E295" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F295" s="16" t="str">
+        <f t="shared" si="41"/>
+        <v>ACCOUNT_USER</v>
+      </c>
+      <c r="G295" s="16" t="str">
         <f>RESOURCE!E301</f>
         <v>api/sys/user/password/reset</v>
       </c>
     </row>
-    <row r="295" spans="5:7">
-      <c r="E295" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F295" s="16" t="str">
-        <f t="shared" ref="F295:F297" si="42">$E$17</f>
+    <row r="296" spans="5:7">
+      <c r="E296" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F296" s="16" t="str">
+        <f t="shared" ref="F296:F298" si="42">$E$17</f>
         <v>ACCOUNT_ROLE</v>
       </c>
-      <c r="G295" s="16" t="str">
+      <c r="G296" s="16" t="str">
         <f>RESOURCE!E302</f>
         <v>api/sys/role/remove</v>
-      </c>
-    </row>
-    <row r="296" spans="5:7">
-      <c r="E296" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F296" s="16" t="str">
-        <f t="shared" si="42"/>
-        <v>ACCOUNT_ROLE</v>
-      </c>
-      <c r="G296" s="16" t="str">
-        <f>RESOURCE!E303</f>
-        <v>api/sys/role/query</v>
       </c>
     </row>
     <row r="297" spans="5:7">
@@ -37818,34 +37864,34 @@
         <v>ACCOUNT_ROLE</v>
       </c>
       <c r="G297" s="16" t="str">
+        <f>RESOURCE!E303</f>
+        <v>api/sys/role/query</v>
+      </c>
+    </row>
+    <row r="298" spans="5:7">
+      <c r="E298" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F298" s="16" t="str">
+        <f t="shared" si="42"/>
+        <v>ACCOUNT_ROLE</v>
+      </c>
+      <c r="G298" s="16" t="str">
         <f>RESOURCE!E304</f>
         <v>api/sys/role/submit</v>
       </c>
     </row>
-    <row r="298" spans="5:7">
-      <c r="E298" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F298" s="16" t="str">
-        <f t="shared" ref="F298:F300" si="43">$E$12</f>
+    <row r="299" spans="5:7">
+      <c r="E299" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F299" s="16" t="str">
+        <f t="shared" ref="F299:F301" si="43">$E$12</f>
         <v>LANGUAGE</v>
       </c>
-      <c r="G298" s="16" t="str">
+      <c r="G299" s="16" t="str">
         <f>RESOURCE!E305</f>
         <v>api/sys/language/remove</v>
-      </c>
-    </row>
-    <row r="299" spans="5:7">
-      <c r="E299" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F299" s="16" t="str">
-        <f t="shared" si="43"/>
-        <v>LANGUAGE</v>
-      </c>
-      <c r="G299" s="16" t="str">
-        <f>RESOURCE!E306</f>
-        <v>api/sys/language/query</v>
       </c>
     </row>
     <row r="300" spans="5:7">
@@ -37857,34 +37903,34 @@
         <v>LANGUAGE</v>
       </c>
       <c r="G300" s="16" t="str">
+        <f>RESOURCE!E306</f>
+        <v>api/sys/language/query</v>
+      </c>
+    </row>
+    <row r="301" spans="5:7">
+      <c r="E301" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F301" s="16" t="str">
+        <f t="shared" si="43"/>
+        <v>LANGUAGE</v>
+      </c>
+      <c r="G301" s="16" t="str">
         <f>RESOURCE!E307</f>
         <v>api/sys/language/submit</v>
       </c>
     </row>
-    <row r="301" spans="5:7">
-      <c r="E301" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F301" s="16" t="str">
-        <f t="shared" ref="F301:F303" si="44">$E$25</f>
+    <row r="302" spans="5:7">
+      <c r="E302" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F302" s="16" t="str">
+        <f t="shared" ref="F302:F304" si="44">$E$25</f>
         <v>ATTACH_CATEGORY</v>
       </c>
-      <c r="G301" s="16" t="str">
+      <c r="G302" s="16" t="str">
         <f>RESOURCE!E308</f>
         <v>api/sys/attachcategory/query</v>
-      </c>
-    </row>
-    <row r="302" spans="5:7">
-      <c r="E302" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F302" s="16" t="str">
-        <f t="shared" si="44"/>
-        <v>ATTACH_CATEGORY</v>
-      </c>
-      <c r="G302" s="16" t="str">
-        <f>RESOURCE!E309</f>
-        <v>api/sys/attachcategory/remove</v>
       </c>
     </row>
     <row r="303" spans="5:7">
@@ -37896,34 +37942,34 @@
         <v>ATTACH_CATEGORY</v>
       </c>
       <c r="G303" s="16" t="str">
+        <f>RESOURCE!E309</f>
+        <v>api/sys/attachcategory/remove</v>
+      </c>
+    </row>
+    <row r="304" spans="5:7">
+      <c r="E304" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F304" s="16" t="str">
+        <f t="shared" si="44"/>
+        <v>ATTACH_CATEGORY</v>
+      </c>
+      <c r="G304" s="16" t="str">
         <f>RESOURCE!E310</f>
         <v>api/sys/attachcategory/submit</v>
       </c>
     </row>
-    <row r="304" spans="5:7">
-      <c r="E304" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F304" s="16" t="str">
-        <f t="shared" ref="F304:F311" si="45">$E$23</f>
+    <row r="305" spans="5:7">
+      <c r="E305" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F305" s="16" t="str">
+        <f t="shared" ref="F305:F312" si="45">$E$23</f>
         <v>ATTACH_FILE</v>
       </c>
-      <c r="G304" s="16" t="str">
+      <c r="G305" s="16" t="str">
         <f>RESOURCE!E311</f>
         <v>api/sys/attachcategory/tree</v>
-      </c>
-    </row>
-    <row r="305" spans="5:7">
-      <c r="E305" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F305" s="16" t="str">
-        <f t="shared" si="45"/>
-        <v>ATTACH_FILE</v>
-      </c>
-      <c r="G305" s="16" t="str">
-        <f>RESOURCE!E312</f>
-        <v>api/sys/attach/file/queryFiles</v>
       </c>
     </row>
     <row r="306" spans="5:7">
@@ -37935,8 +37981,8 @@
         <v>ATTACH_FILE</v>
       </c>
       <c r="G306" s="16" t="str">
-        <f>RESOURCE!E313</f>
-        <v>api/sys/attach/file/remove</v>
+        <f>RESOURCE!E312</f>
+        <v>api/sys/attach/file/queryFiles</v>
       </c>
     </row>
     <row r="307" spans="5:7">
@@ -37948,8 +37994,8 @@
         <v>ATTACH_FILE</v>
       </c>
       <c r="G307" s="16" t="str">
-        <f>RESOURCE!E314</f>
-        <v>api/sys/attach/file/detail</v>
+        <f>RESOURCE!E313</f>
+        <v>api/sys/attach/file/remove</v>
       </c>
     </row>
     <row r="308" spans="5:7">
@@ -37961,8 +38007,8 @@
         <v>ATTACH_FILE</v>
       </c>
       <c r="G308" s="16" t="str">
-        <f>RESOURCE!E315</f>
-        <v>api/sys/attach/file/view</v>
+        <f>RESOURCE!E314</f>
+        <v>api/sys/attach/file/detail</v>
       </c>
     </row>
     <row r="309" spans="5:7">
@@ -37974,8 +38020,8 @@
         <v>ATTACH_FILE</v>
       </c>
       <c r="G309" s="16" t="str">
-        <f>RESOURCE!E316</f>
-        <v>api/sys/attach/remove</v>
+        <f>RESOURCE!E315</f>
+        <v>api/sys/attach/file/view</v>
       </c>
     </row>
     <row r="310" spans="5:7">
@@ -37987,8 +38033,8 @@
         <v>ATTACH_FILE</v>
       </c>
       <c r="G310" s="16" t="str">
-        <f>RESOURCE!E317</f>
-        <v>api/sys/attach/file/query</v>
+        <f>RESOURCE!E316</f>
+        <v>api/sys/attach/remove</v>
       </c>
     </row>
     <row r="311" spans="5:7">
@@ -38000,47 +38046,47 @@
         <v>ATTACH_FILE</v>
       </c>
       <c r="G311" s="16" t="str">
+        <f>RESOURCE!E317</f>
+        <v>api/sys/attach/file/query</v>
+      </c>
+    </row>
+    <row r="312" spans="5:7">
+      <c r="E312" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F312" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>ATTACH_FILE</v>
+      </c>
+      <c r="G312" s="16" t="str">
         <f>RESOURCE!E318</f>
         <v>api/sys/attach/manage</v>
       </c>
     </row>
-    <row r="312" spans="5:7">
-      <c r="E312" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F312" s="16" t="str">
+    <row r="313" spans="5:7">
+      <c r="E313" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F313" s="16" t="str">
         <f>$E$24</f>
         <v>ATTACH_TEST</v>
       </c>
-      <c r="G312" s="16" t="str">
+      <c r="G313" s="16" t="str">
         <f>RESOURCE!E319</f>
         <v>api/sys/attach/upload</v>
       </c>
     </row>
-    <row r="313" spans="5:7">
-      <c r="E313" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F313" s="16" t="str">
-        <f t="shared" ref="F313:F316" si="46">$E$14</f>
+    <row r="314" spans="5:7">
+      <c r="E314" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F314" s="16" t="str">
+        <f t="shared" ref="F314:F317" si="46">$E$14</f>
         <v>SYS_CONFIG</v>
       </c>
-      <c r="G313" s="16" t="str">
+      <c r="G314" s="16" t="str">
         <f>RESOURCE!E320</f>
         <v>api/sys/config/query</v>
-      </c>
-    </row>
-    <row r="314" spans="5:7">
-      <c r="E314" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F314" s="16" t="str">
-        <f t="shared" si="46"/>
-        <v>SYS_CONFIG</v>
-      </c>
-      <c r="G314" s="16" t="str">
-        <f>RESOURCE!E321</f>
-        <v>api/sys/config/submit</v>
       </c>
     </row>
     <row r="315" spans="5:7">
@@ -38052,8 +38098,8 @@
         <v>SYS_CONFIG</v>
       </c>
       <c r="G315" s="16" t="str">
-        <f>RESOURCE!E322</f>
-        <v>api/sys/config/logo/upload</v>
+        <f>RESOURCE!E321</f>
+        <v>api/sys/config/submit</v>
       </c>
     </row>
     <row r="316" spans="5:7">
@@ -38065,34 +38111,34 @@
         <v>SYS_CONFIG</v>
       </c>
       <c r="G316" s="16" t="str">
+        <f>RESOURCE!E322</f>
+        <v>api/sys/config/logo/upload</v>
+      </c>
+    </row>
+    <row r="317" spans="5:7">
+      <c r="E317" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F317" s="16" t="str">
+        <f t="shared" si="46"/>
+        <v>SYS_CONFIG</v>
+      </c>
+      <c r="G317" s="16" t="str">
         <f>RESOURCE!E323</f>
         <v>api/sys/config/favicon/upload</v>
       </c>
     </row>
-    <row r="317" spans="5:7">
-      <c r="E317" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F317" s="16" t="str">
-        <f t="shared" ref="F317:F320" si="47">$E$27</f>
+    <row r="318" spans="5:7">
+      <c r="E318" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F318" s="16" t="str">
+        <f t="shared" ref="F318:F321" si="47">$E$27</f>
         <v>HR_UNIT</v>
       </c>
-      <c r="G317" s="16" t="str">
+      <c r="G318" s="16" t="str">
         <f>RESOURCE!E324</f>
         <v>api/hr/unit/query</v>
-      </c>
-    </row>
-    <row r="318" spans="5:7">
-      <c r="E318" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F318" s="16" t="str">
-        <f t="shared" si="47"/>
-        <v>HR_UNIT</v>
-      </c>
-      <c r="G318" s="16" t="str">
-        <f>RESOURCE!E325</f>
-        <v>api/hr/unit/remove</v>
       </c>
     </row>
     <row r="319" spans="5:7">
@@ -38104,8 +38150,8 @@
         <v>HR_UNIT</v>
       </c>
       <c r="G319" s="16" t="str">
-        <f>RESOURCE!E326</f>
-        <v>api/hr/unit/submit</v>
+        <f>RESOURCE!E325</f>
+        <v>api/hr/unit/remove</v>
       </c>
     </row>
     <row r="320" spans="5:7">
@@ -38117,34 +38163,34 @@
         <v>HR_UNIT</v>
       </c>
       <c r="G320" s="16" t="str">
+        <f>RESOURCE!E326</f>
+        <v>api/hr/unit/submit</v>
+      </c>
+    </row>
+    <row r="321" spans="5:7">
+      <c r="E321" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F321" s="16" t="str">
+        <f t="shared" si="47"/>
+        <v>HR_UNIT</v>
+      </c>
+      <c r="G321" s="16" t="str">
         <f>RESOURCE!E327</f>
         <v>api/hr/unit/queryall</v>
       </c>
     </row>
-    <row r="321" spans="5:7">
-      <c r="E321" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F321" s="16" t="str">
-        <f t="shared" ref="F321:F324" si="48">$E$28</f>
+    <row r="322" spans="5:7">
+      <c r="E322" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F322" s="16" t="str">
+        <f t="shared" ref="F322:F325" si="48">$E$28</f>
         <v>HR_EMPLOYEE</v>
       </c>
-      <c r="G321" s="16" t="str">
+      <c r="G322" s="16" t="str">
         <f>RESOURCE!E328</f>
         <v>api/hr/employee/query</v>
-      </c>
-    </row>
-    <row r="322" spans="5:7">
-      <c r="E322" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F322" s="16" t="str">
-        <f t="shared" si="48"/>
-        <v>HR_EMPLOYEE</v>
-      </c>
-      <c r="G322" s="16" t="str">
-        <f>RESOURCE!E329</f>
-        <v>api/hr/employee/submit</v>
       </c>
     </row>
     <row r="323" spans="5:7">
@@ -38156,8 +38202,8 @@
         <v>HR_EMPLOYEE</v>
       </c>
       <c r="G323" s="16" t="str">
-        <f>RESOURCE!E330</f>
-        <v>api/hr/employee/create_user</v>
+        <f>RESOURCE!E329</f>
+        <v>api/hr/employee/submit</v>
       </c>
     </row>
     <row r="324" spans="5:7">
@@ -38169,34 +38215,34 @@
         <v>HR_EMPLOYEE</v>
       </c>
       <c r="G324" s="16" t="str">
+        <f>RESOURCE!E330</f>
+        <v>api/hr/employee/create_user</v>
+      </c>
+    </row>
+    <row r="325" spans="5:7">
+      <c r="E325" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F325" s="16" t="str">
+        <f t="shared" si="48"/>
+        <v>HR_EMPLOYEE</v>
+      </c>
+      <c r="G325" s="16" t="str">
         <f>RESOURCE!E331</f>
         <v>api/hr/employee/update_user</v>
       </c>
     </row>
-    <row r="325" spans="5:7">
-      <c r="E325" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F325" s="16" t="str">
-        <f t="shared" ref="F325:F327" si="49">$E$29</f>
+    <row r="326" spans="5:7">
+      <c r="E326" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F326" s="16" t="str">
+        <f t="shared" ref="F326:F328" si="49">$E$29</f>
         <v>HR_POSITION</v>
       </c>
-      <c r="G325" s="16" t="str">
+      <c r="G326" s="16" t="str">
         <f>RESOURCE!E332</f>
         <v>api/hr/position/query</v>
-      </c>
-    </row>
-    <row r="326" spans="5:7">
-      <c r="E326" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F326" s="16" t="str">
-        <f t="shared" si="49"/>
-        <v>HR_POSITION</v>
-      </c>
-      <c r="G326" s="16" t="str">
-        <f>RESOURCE!E333</f>
-        <v>api/hr/position/remove</v>
       </c>
     </row>
     <row r="327" spans="5:7">
@@ -38208,73 +38254,73 @@
         <v>HR_POSITION</v>
       </c>
       <c r="G327" s="16" t="str">
+        <f>RESOURCE!E333</f>
+        <v>api/hr/position/remove</v>
+      </c>
+    </row>
+    <row r="328" spans="5:7">
+      <c r="E328" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F328" s="16" t="str">
+        <f t="shared" si="49"/>
+        <v>HR_POSITION</v>
+      </c>
+      <c r="G328" s="16" t="str">
         <f>RESOURCE!E334</f>
         <v>api/hr/position/submit</v>
       </c>
     </row>
-    <row r="328" spans="5:7">
-      <c r="E328" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F328" s="16" t="str">
-        <f t="shared" ref="F328:F330" si="50">$E$30</f>
-        <v>FND_COMPANY</v>
-      </c>
-      <c r="G328" s="16" t="str">
+    <row r="329" spans="5:7">
+      <c r="E329" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F329" s="16" t="str">
+        <f t="shared" ref="F329:F331" si="50">$E$31</f>
+        <v>FND1010</v>
+      </c>
+      <c r="G329" s="16" t="str">
         <f>RESOURCE!E335</f>
         <v>api/fnd/company/submit</v>
       </c>
     </row>
-    <row r="329" spans="5:7">
-      <c r="E329" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F329" s="16" t="str">
+    <row r="330" spans="5:7">
+      <c r="E330" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F330" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>FND_COMPANY</v>
-      </c>
-      <c r="G329" s="16" t="str">
+        <v>FND1010</v>
+      </c>
+      <c r="G330" s="16" t="str">
         <f>RESOURCE!E336</f>
         <v>api/fnd/company/query</v>
       </c>
     </row>
-    <row r="330" spans="5:7">
-      <c r="E330" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F330" s="16" t="str">
+    <row r="331" spans="5:7">
+      <c r="E331" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F331" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>FND_COMPANY</v>
-      </c>
-      <c r="G330" s="16" t="str">
+        <v>FND1010</v>
+      </c>
+      <c r="G331" s="16" t="str">
         <f>RESOURCE!E337</f>
         <v>api/fnd/company/remove</v>
       </c>
     </row>
-    <row r="331" spans="5:7">
-      <c r="E331" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F331" s="16" t="str">
-        <f t="shared" ref="F331:F333" si="51">$E$31</f>
+    <row r="332" spans="5:7">
+      <c r="E332" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F332" s="16" t="str">
+        <f t="shared" ref="F332:F334" si="51">$E$32</f>
         <v>SYS_DASHBOARD</v>
       </c>
-      <c r="G331" s="16" t="str">
+      <c r="G332" s="16" t="str">
         <f>RESOURCE!E338</f>
         <v>api/sys/sys_dashboard/query</v>
-      </c>
-    </row>
-    <row r="332" spans="5:7">
-      <c r="E332" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F332" s="16" t="str">
-        <f t="shared" si="51"/>
-        <v>SYS_DASHBOARD</v>
-      </c>
-      <c r="G332" s="16" t="str">
-        <f>RESOURCE!E339</f>
-        <v>api/sys/sys_dashboard/submit</v>
       </c>
     </row>
     <row r="333" spans="5:7">
@@ -38286,34 +38332,34 @@
         <v>SYS_DASHBOARD</v>
       </c>
       <c r="G333" s="16" t="str">
+        <f>RESOURCE!E339</f>
+        <v>api/sys/sys_dashboard/submit</v>
+      </c>
+    </row>
+    <row r="334" spans="5:7">
+      <c r="E334" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F334" s="16" t="str">
+        <f t="shared" si="51"/>
+        <v>SYS_DASHBOARD</v>
+      </c>
+      <c r="G334" s="16" t="str">
         <f>RESOURCE!E340</f>
         <v>api/sys/sys_dashboard/remove</v>
       </c>
     </row>
-    <row r="334" spans="5:7">
-      <c r="E334" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F334" s="16" t="str">
-        <f t="shared" ref="F334:F341" si="52">$E$34</f>
+    <row r="335" spans="5:7">
+      <c r="E335" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F335" s="16" t="str">
+        <f t="shared" ref="F335:F342" si="52">$E$35</f>
         <v>FLEX_FIELD_MODEL</v>
       </c>
-      <c r="G334" s="16" t="str">
+      <c r="G335" s="16" t="str">
         <f>RESOURCE!E341</f>
         <v>api/fnd/flex/model/query</v>
-      </c>
-    </row>
-    <row r="335" spans="5:7">
-      <c r="E335" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F335" s="16" t="str">
-        <f t="shared" si="52"/>
-        <v>FLEX_FIELD_MODEL</v>
-      </c>
-      <c r="G335" s="16" t="str">
-        <f>RESOURCE!E342</f>
-        <v>api/fnd/flex/model/submit</v>
       </c>
     </row>
     <row r="336" spans="5:7">
@@ -38325,8 +38371,8 @@
         <v>FLEX_FIELD_MODEL</v>
       </c>
       <c r="G336" s="16" t="str">
-        <f>RESOURCE!E343</f>
-        <v>api/fnd/flex/model/remove</v>
+        <f>RESOURCE!E342</f>
+        <v>api/fnd/flex/model/submit</v>
       </c>
     </row>
     <row r="337" spans="5:7">
@@ -38338,8 +38384,8 @@
         <v>FLEX_FIELD_MODEL</v>
       </c>
       <c r="G337" s="16" t="str">
-        <f>RESOURCE!E344</f>
-        <v>api/fnd/flex/model/column/query</v>
+        <f>RESOURCE!E343</f>
+        <v>api/fnd/flex/model/remove</v>
       </c>
     </row>
     <row r="338" spans="5:7">
@@ -38351,8 +38397,8 @@
         <v>FLEX_FIELD_MODEL</v>
       </c>
       <c r="G338" s="16" t="str">
-        <f>RESOURCE!E345</f>
-        <v>api/fnd/flex/model/column/submit</v>
+        <f>RESOURCE!E344</f>
+        <v>api/fnd/flex/model/column/query</v>
       </c>
     </row>
     <row r="339" spans="5:7">
@@ -38364,8 +38410,8 @@
         <v>FLEX_FIELD_MODEL</v>
       </c>
       <c r="G339" s="16" t="str">
-        <f>RESOURCE!E346</f>
-        <v>api/fnd/flex/model/column/remove</v>
+        <f>RESOURCE!E345</f>
+        <v>api/fnd/flex/model/column/submit</v>
       </c>
     </row>
     <row r="340" spans="5:7">
@@ -38377,8 +38423,8 @@
         <v>FLEX_FIELD_MODEL</v>
       </c>
       <c r="G340" s="16" t="str">
-        <f>RESOURCE!E347</f>
-        <v>api/fnd/flex/rule/matching</v>
+        <f>RESOURCE!E346</f>
+        <v>api/fnd/flex/model/column/remove</v>
       </c>
     </row>
     <row r="341" spans="5:7">
@@ -38390,34 +38436,34 @@
         <v>FLEX_FIELD_MODEL</v>
       </c>
       <c r="G341" s="16" t="str">
+        <f>RESOURCE!E347</f>
+        <v>api/fnd/flex/rule/matching</v>
+      </c>
+    </row>
+    <row r="342" spans="5:7">
+      <c r="E342" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F342" s="16" t="str">
+        <f t="shared" si="52"/>
+        <v>FLEX_FIELD_MODEL</v>
+      </c>
+      <c r="G342" s="16" t="str">
         <f>RESOURCE!E348</f>
         <v>api/fnd/flex/column/queryAll</v>
       </c>
     </row>
-    <row r="342" spans="5:7">
-      <c r="E342" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F342" s="16" t="str">
-        <f t="shared" ref="F342:F353" si="53">$E$35</f>
+    <row r="343" spans="5:7">
+      <c r="E343" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F343" s="16" t="str">
+        <f t="shared" ref="F343:F354" si="53">$E$36</f>
         <v>FLEX_FIELD_RULE_SET</v>
       </c>
-      <c r="G342" s="16" t="str">
+      <c r="G343" s="16" t="str">
         <f>RESOURCE!E349</f>
         <v>api/fnd/flex/rule/query</v>
-      </c>
-    </row>
-    <row r="343" spans="5:7">
-      <c r="E343" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F343" s="16" t="str">
-        <f t="shared" si="53"/>
-        <v>FLEX_FIELD_RULE_SET</v>
-      </c>
-      <c r="G343" s="16" t="str">
-        <f>RESOURCE!E350</f>
-        <v>api/fnd/flex/rule/submit</v>
       </c>
     </row>
     <row r="344" spans="5:7">
@@ -38429,8 +38475,8 @@
         <v>FLEX_FIELD_RULE_SET</v>
       </c>
       <c r="G344" s="16" t="str">
-        <f>RESOURCE!E351</f>
-        <v>api/fnd/flex/rule/remove</v>
+        <f>RESOURCE!E350</f>
+        <v>api/fnd/flex/rule/submit</v>
       </c>
     </row>
     <row r="345" spans="5:7">
@@ -38442,8 +38488,8 @@
         <v>FLEX_FIELD_RULE_SET</v>
       </c>
       <c r="G345" s="16" t="str">
-        <f>RESOURCE!E352</f>
-        <v>api/fnd/flex/rule/field/query</v>
+        <f>RESOURCE!E351</f>
+        <v>api/fnd/flex/rule/remove</v>
       </c>
     </row>
     <row r="346" spans="5:7">
@@ -38455,8 +38501,8 @@
         <v>FLEX_FIELD_RULE_SET</v>
       </c>
       <c r="G346" s="16" t="str">
-        <f>RESOURCE!E353</f>
-        <v>api/fnd/flex/rule/field/submit</v>
+        <f>RESOURCE!E352</f>
+        <v>api/fnd/flex/rule/field/query</v>
       </c>
     </row>
     <row r="347" spans="5:7">
@@ -38468,8 +38514,8 @@
         <v>FLEX_FIELD_RULE_SET</v>
       </c>
       <c r="G347" s="16" t="str">
-        <f>RESOURCE!E354</f>
-        <v>api/fnd/flex/rule/field/remove</v>
+        <f>RESOURCE!E353</f>
+        <v>api/fnd/flex/rule/field/submit</v>
       </c>
     </row>
     <row r="348" spans="5:7">
@@ -38481,8 +38527,8 @@
         <v>FLEX_FIELD_RULE_SET</v>
       </c>
       <c r="G348" s="16" t="str">
-        <f>RESOURCE!E355</f>
-        <v>api/fnd/flex/rule/detail/query</v>
+        <f>RESOURCE!E354</f>
+        <v>api/fnd/flex/rule/field/remove</v>
       </c>
     </row>
     <row r="349" spans="5:7">
@@ -38494,8 +38540,8 @@
         <v>FLEX_FIELD_RULE_SET</v>
       </c>
       <c r="G349" s="16" t="str">
-        <f>RESOURCE!E356</f>
-        <v>api/fnd/flex/rule/detail/submit</v>
+        <f>RESOURCE!E355</f>
+        <v>api/fnd/flex/rule/detail/query</v>
       </c>
     </row>
     <row r="350" spans="5:7">
@@ -38507,8 +38553,8 @@
         <v>FLEX_FIELD_RULE_SET</v>
       </c>
       <c r="G350" s="16" t="str">
-        <f>RESOURCE!E357</f>
-        <v>api/fnd/flex/rule/detail/remove</v>
+        <f>RESOURCE!E356</f>
+        <v>api/fnd/flex/rule/detail/submit</v>
       </c>
     </row>
     <row r="351" spans="5:7">
@@ -38520,8 +38566,8 @@
         <v>FLEX_FIELD_RULE_SET</v>
       </c>
       <c r="G351" s="16" t="str">
-        <f>RESOURCE!E358</f>
-        <v>api/fnd/flex/rule/set/query</v>
+        <f>RESOURCE!E357</f>
+        <v>api/fnd/flex/rule/detail/remove</v>
       </c>
     </row>
     <row r="352" spans="5:7">
@@ -38533,8 +38579,8 @@
         <v>FLEX_FIELD_RULE_SET</v>
       </c>
       <c r="G352" s="16" t="str">
-        <f>RESOURCE!E359</f>
-        <v>api/fnd/flex/rule/set/submit</v>
+        <f>RESOURCE!E358</f>
+        <v>api/fnd/flex/rule/set/query</v>
       </c>
     </row>
     <row r="353" spans="5:7">
@@ -38546,34 +38592,34 @@
         <v>FLEX_FIELD_RULE_SET</v>
       </c>
       <c r="G353" s="16" t="str">
+        <f>RESOURCE!E359</f>
+        <v>api/fnd/flex/rule/set/submit</v>
+      </c>
+    </row>
+    <row r="354" spans="5:7">
+      <c r="E354" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F354" s="16" t="str">
+        <f t="shared" si="53"/>
+        <v>FLEX_FIELD_RULE_SET</v>
+      </c>
+      <c r="G354" s="16" t="str">
         <f>RESOURCE!E360</f>
         <v>api/fnd/flex/rule/set/remove</v>
       </c>
     </row>
-    <row r="354" spans="5:7">
-      <c r="E354" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F354" s="16" t="str">
-        <f t="shared" ref="F354:F359" si="54">$E$37</f>
+    <row r="355" spans="5:7">
+      <c r="E355" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F355" s="16" t="str">
+        <f t="shared" ref="F355:F360" si="54">$E$38</f>
         <v>SYS_CODE_RULE</v>
       </c>
-      <c r="G354" s="16" t="str">
+      <c r="G355" s="16" t="str">
         <f>RESOURCE!E361</f>
         <v>api/sys/code/rules/header/query</v>
-      </c>
-    </row>
-    <row r="355" spans="5:7">
-      <c r="E355" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F355" s="16" t="str">
-        <f t="shared" si="54"/>
-        <v>SYS_CODE_RULE</v>
-      </c>
-      <c r="G355" s="16" t="str">
-        <f>RESOURCE!E362</f>
-        <v>api/sys/code/rules/header/submit</v>
       </c>
     </row>
     <row r="356" spans="5:7">
@@ -38585,8 +38631,8 @@
         <v>SYS_CODE_RULE</v>
       </c>
       <c r="G356" s="16" t="str">
-        <f>RESOURCE!E363</f>
-        <v>api/sys/code/rules/header/remove</v>
+        <f>RESOURCE!E362</f>
+        <v>api/sys/code/rules/header/submit</v>
       </c>
     </row>
     <row r="357" spans="5:7">
@@ -38598,8 +38644,8 @@
         <v>SYS_CODE_RULE</v>
       </c>
       <c r="G357" s="16" t="str">
-        <f>RESOURCE!E364</f>
-        <v>api/sys/code/rules/line/query</v>
+        <f>RESOURCE!E363</f>
+        <v>api/sys/code/rules/header/remove</v>
       </c>
     </row>
     <row r="358" spans="5:7">
@@ -38611,8 +38657,8 @@
         <v>SYS_CODE_RULE</v>
       </c>
       <c r="G358" s="16" t="str">
-        <f>RESOURCE!E365</f>
-        <v>api/sys/code/rules/line/submit</v>
+        <f>RESOURCE!E364</f>
+        <v>api/sys/code/rules/line/query</v>
       </c>
     </row>
     <row r="359" spans="5:7">
@@ -38624,34 +38670,34 @@
         <v>SYS_CODE_RULE</v>
       </c>
       <c r="G359" s="16" t="str">
+        <f>RESOURCE!E365</f>
+        <v>api/sys/code/rules/line/submit</v>
+      </c>
+    </row>
+    <row r="360" spans="5:7">
+      <c r="E360" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F360" s="16" t="str">
+        <f t="shared" si="54"/>
+        <v>SYS_CODE_RULE</v>
+      </c>
+      <c r="G360" s="16" t="str">
         <f>RESOURCE!E366</f>
         <v>api/sys/code/rules/line/submit/remove</v>
       </c>
     </row>
-    <row r="360" spans="5:7">
-      <c r="E360" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F360" s="16" t="str">
-        <f t="shared" ref="F360:F368" si="55">$E$39</f>
+    <row r="361" spans="5:7">
+      <c r="E361" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F361" s="16" t="str">
+        <f t="shared" ref="F361:F369" si="55">$E$40</f>
         <v>DATA_PERMISSION_RULE</v>
       </c>
-      <c r="G360" s="16" t="str">
+      <c r="G361" s="16" t="str">
         <f>RESOURCE!E367</f>
         <v>api/sys/data/permission/rule/query</v>
-      </c>
-    </row>
-    <row r="361" spans="5:7">
-      <c r="E361" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F361" s="16" t="str">
-        <f t="shared" si="55"/>
-        <v>DATA_PERMISSION_RULE</v>
-      </c>
-      <c r="G361" s="16" t="str">
-        <f>RESOURCE!E368</f>
-        <v>api/sys/data/permission/rule/submit</v>
       </c>
     </row>
     <row r="362" spans="5:7">
@@ -38663,8 +38709,8 @@
         <v>DATA_PERMISSION_RULE</v>
       </c>
       <c r="G362" s="16" t="str">
-        <f>RESOURCE!E369</f>
-        <v>api/sys/data/permission/rule/remove</v>
+        <f>RESOURCE!E368</f>
+        <v>api/sys/data/permission/rule/submit</v>
       </c>
     </row>
     <row r="363" spans="5:7">
@@ -38676,8 +38722,8 @@
         <v>DATA_PERMISSION_RULE</v>
       </c>
       <c r="G363" s="16" t="str">
-        <f>RESOURCE!E370</f>
-        <v>api/sys/data/permission/rule/detail/query</v>
+        <f>RESOURCE!E369</f>
+        <v>api/sys/data/permission/rule/remove</v>
       </c>
     </row>
     <row r="364" spans="5:7">
@@ -38689,8 +38735,8 @@
         <v>DATA_PERMISSION_RULE</v>
       </c>
       <c r="G364" s="16" t="str">
-        <f>RESOURCE!E371</f>
-        <v>api/sys/data/permission/rule/detail/submit</v>
+        <f>RESOURCE!E370</f>
+        <v>api/sys/data/permission/rule/detail/query</v>
       </c>
     </row>
     <row r="365" spans="5:7">
@@ -38702,8 +38748,8 @@
         <v>DATA_PERMISSION_RULE</v>
       </c>
       <c r="G365" s="16" t="str">
-        <f>RESOURCE!E372</f>
-        <v>api/sys/data/permission/rule/detail/remove</v>
+        <f>RESOURCE!E371</f>
+        <v>api/sys/data/permission/rule/detail/submit</v>
       </c>
     </row>
     <row r="366" spans="5:7">
@@ -38715,8 +38761,8 @@
         <v>DATA_PERMISSION_RULE</v>
       </c>
       <c r="G366" s="16" t="str">
-        <f>RESOURCE!E373</f>
-        <v>api/sys/data/permission/rule/assign/query</v>
+        <f>RESOURCE!E372</f>
+        <v>api/sys/data/permission/rule/detail/remove</v>
       </c>
     </row>
     <row r="367" spans="5:7">
@@ -38728,8 +38774,8 @@
         <v>DATA_PERMISSION_RULE</v>
       </c>
       <c r="G367" s="16" t="str">
-        <f>RESOURCE!E374</f>
-        <v>api/sys/data/permission/rule/assign/submit</v>
+        <f>RESOURCE!E373</f>
+        <v>api/sys/data/permission/rule/assign/query</v>
       </c>
     </row>
     <row r="368" spans="5:7">
@@ -38741,34 +38787,34 @@
         <v>DATA_PERMISSION_RULE</v>
       </c>
       <c r="G368" s="16" t="str">
+        <f>RESOURCE!E374</f>
+        <v>api/sys/data/permission/rule/assign/submit</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7">
+      <c r="E369" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F369" s="16" t="str">
+        <f t="shared" si="55"/>
+        <v>DATA_PERMISSION_RULE</v>
+      </c>
+      <c r="G369" s="16" t="str">
         <f>RESOURCE!E375</f>
         <v>api/sys/data/permission/rule/assign/remove</v>
       </c>
     </row>
-    <row r="369" spans="1:7">
-      <c r="E369" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F369" s="16" t="str">
-        <f t="shared" ref="F369:F374" si="56">$E$40</f>
+    <row r="370" spans="1:7">
+      <c r="E370" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F370" s="16" t="str">
+        <f t="shared" ref="F370:F375" si="56">$E$41</f>
         <v>DATA_PERMISSION_TABLE</v>
       </c>
-      <c r="G369" s="16" t="str">
+      <c r="G370" s="16" t="str">
         <f>RESOURCE!E376</f>
         <v>api/sys/data/permission/table/query</v>
-      </c>
-    </row>
-    <row r="370" spans="1:7">
-      <c r="E370" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F370" s="16" t="str">
-        <f t="shared" si="56"/>
-        <v>DATA_PERMISSION_TABLE</v>
-      </c>
-      <c r="G370" s="16" t="str">
-        <f>RESOURCE!E377</f>
-        <v>api/sys/data/permission/table/submit</v>
       </c>
     </row>
     <row r="371" spans="1:7">
@@ -38780,8 +38826,8 @@
         <v>DATA_PERMISSION_TABLE</v>
       </c>
       <c r="G371" s="16" t="str">
-        <f>RESOURCE!E378</f>
-        <v>api/sys/data/permission/table/remove</v>
+        <f>RESOURCE!E377</f>
+        <v>api/sys/data/permission/table/submit</v>
       </c>
     </row>
     <row r="372" spans="1:7">
@@ -38793,8 +38839,8 @@
         <v>DATA_PERMISSION_TABLE</v>
       </c>
       <c r="G372" s="16" t="str">
-        <f>RESOURCE!E379</f>
-        <v>api/sys/data/permission/table/rule/query</v>
+        <f>RESOURCE!E378</f>
+        <v>api/sys/data/permission/table/remove</v>
       </c>
     </row>
     <row r="373" spans="1:7">
@@ -38806,8 +38852,8 @@
         <v>DATA_PERMISSION_TABLE</v>
       </c>
       <c r="G373" s="16" t="str">
-        <f>RESOURCE!E380</f>
-        <v>api/sys/data/permission/table/rule/submit</v>
+        <f>RESOURCE!E379</f>
+        <v>api/sys/data/permission/table/rule/query</v>
       </c>
     </row>
     <row r="374" spans="1:7">
@@ -38819,34 +38865,34 @@
         <v>DATA_PERMISSION_TABLE</v>
       </c>
       <c r="G374" s="16" t="str">
+        <f>RESOURCE!E380</f>
+        <v>api/sys/data/permission/table/rule/submit</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7">
+      <c r="E375" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F375" s="16" t="str">
+        <f t="shared" si="56"/>
+        <v>DATA_PERMISSION_TABLE</v>
+      </c>
+      <c r="G375" s="16" t="str">
         <f>RESOURCE!E381</f>
         <v>api/sys/data/permission/table/rule/remove</v>
       </c>
     </row>
-    <row r="375" spans="1:7">
-      <c r="E375" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F375" s="16" t="str">
-        <f t="shared" ref="F375:F377" si="57">$E$41</f>
+    <row r="376" spans="1:7">
+      <c r="E376" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F376" s="16" t="str">
+        <f t="shared" ref="F376:F378" si="57">$E$42</f>
         <v>FORM</v>
       </c>
-      <c r="G375" s="16" t="str">
+      <c r="G376" s="16" t="str">
         <f>RESOURCE!E388</f>
         <v>api/sys/form/builder/query</v>
-      </c>
-    </row>
-    <row r="376" spans="1:7">
-      <c r="E376" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F376" s="16" t="str">
-        <f t="shared" si="57"/>
-        <v>FORM</v>
-      </c>
-      <c r="G376" s="16" t="str">
-        <f>RESOURCE!E389</f>
-        <v>api/sys/form/builder/update</v>
       </c>
     </row>
     <row r="377" spans="1:7">
@@ -38858,34 +38904,34 @@
         <v>FORM</v>
       </c>
       <c r="G377" s="16" t="str">
+        <f>RESOURCE!E389</f>
+        <v>api/sys/form/builder/update</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7">
+      <c r="E378" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F378" s="16" t="str">
+        <f t="shared" si="57"/>
+        <v>FORM</v>
+      </c>
+      <c r="G378" s="16" t="str">
         <f>RESOURCE!E390</f>
         <v>api/sys/form/builder/remove</v>
       </c>
     </row>
-    <row r="378" spans="1:7">
-      <c r="E378" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F378" s="16" t="str">
-        <f t="shared" ref="F378:F382" si="58">$E$42</f>
+    <row r="379" spans="1:7">
+      <c r="E379" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F379" s="16" t="str">
+        <f t="shared" ref="F379:F383" si="58">$E$43</f>
         <v>HOTKEY</v>
       </c>
-      <c r="G378" s="16" t="str">
+      <c r="G379" s="16" t="str">
         <f>RESOURCE!E391</f>
         <v>sys/sys_hotkey.html</v>
-      </c>
-    </row>
-    <row r="379" spans="1:7">
-      <c r="E379" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F379" s="16" t="str">
-        <f t="shared" si="58"/>
-        <v>HOTKEY</v>
-      </c>
-      <c r="G379" s="16" t="str">
-        <f>RESOURCE!E392</f>
-        <v>sys/hotkey/query</v>
       </c>
     </row>
     <row r="380" spans="1:7">
@@ -38897,8 +38943,8 @@
         <v>HOTKEY</v>
       </c>
       <c r="G380" s="16" t="str">
-        <f>RESOURCE!E393</f>
-        <v>sys/hotkey/submit</v>
+        <f>RESOURCE!E392</f>
+        <v>sys/hotkey/query</v>
       </c>
     </row>
     <row r="381" spans="1:7">
@@ -38910,8 +38956,8 @@
         <v>HOTKEY</v>
       </c>
       <c r="G381" s="16" t="str">
-        <f>RESOURCE!E394</f>
-        <v>sys/hotkey/remove</v>
+        <f>RESOURCE!E393</f>
+        <v>sys/hotkey/submit</v>
       </c>
     </row>
     <row r="382" spans="1:7">
@@ -38923,40 +38969,40 @@
         <v>HOTKEY</v>
       </c>
       <c r="G382" s="16" t="str">
+        <f>RESOURCE!E394</f>
+        <v>sys/hotkey/remove</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7">
+      <c r="E383" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F383" s="16" t="str">
+        <f t="shared" si="58"/>
+        <v>HOTKEY</v>
+      </c>
+      <c r="G383" s="16" t="str">
         <f>RESOURCE!E395</f>
         <v>sys/preference/hotkey/query</v>
       </c>
     </row>
-    <row r="383" spans="1:7">
-      <c r="A383" s="26">
+    <row r="384" spans="1:7">
+      <c r="A384" s="26">
         <v>43173</v>
       </c>
-      <c r="B383" t="s">
+      <c r="B384" t="s">
         <v>710</v>
       </c>
-      <c r="E383" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F383" s="16" t="str">
-        <f t="shared" ref="F383:F386" si="59">$E$28</f>
+      <c r="E384" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F384" s="16" t="str">
+        <f t="shared" ref="F384:F387" si="59">$E$28</f>
         <v>HR_EMPLOYEE</v>
       </c>
-      <c r="G383" s="16" t="str">
+      <c r="G384" s="16" t="str">
         <f>RESOURCE!E398</f>
         <v>hr/employee/queryExistingUser</v>
-      </c>
-    </row>
-    <row r="384" spans="1:7">
-      <c r="E384" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F384" s="16" t="str">
-        <f t="shared" si="59"/>
-        <v>HR_EMPLOYEE</v>
-      </c>
-      <c r="G384" s="16" t="str">
-        <f>RESOURCE!E399</f>
-        <v>api/hr/employee/queryExistingUser</v>
       </c>
     </row>
     <row r="385" spans="5:7">
@@ -38968,8 +39014,8 @@
         <v>HR_EMPLOYEE</v>
       </c>
       <c r="G385" s="16" t="str">
-        <f>RESOURCE!E91</f>
-        <v>sys/role/queryRoleNotUserRole</v>
+        <f>RESOURCE!E399</f>
+        <v>api/hr/employee/queryExistingUser</v>
       </c>
     </row>
     <row r="386" spans="5:7">
@@ -38981,34 +39027,34 @@
         <v>HR_EMPLOYEE</v>
       </c>
       <c r="G386" s="16" t="str">
+        <f>RESOURCE!E91</f>
+        <v>sys/role/queryRoleNotUserRole</v>
+      </c>
+    </row>
+    <row r="387" spans="5:7">
+      <c r="E387" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F387" s="16" t="str">
+        <f t="shared" si="59"/>
+        <v>HR_EMPLOYEE</v>
+      </c>
+      <c r="G387" s="16" t="str">
         <f>RESOURCE!E295</f>
         <v>api/sys/role/queryRoleNotUserRole</v>
       </c>
     </row>
-    <row r="387" spans="5:7">
-      <c r="E387" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F387" s="16" t="str">
-        <f t="shared" ref="F387:F395" si="60">$E$44</f>
+    <row r="388" spans="5:7">
+      <c r="E388" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F388" s="16" t="str">
+        <f t="shared" ref="F388:F396" si="60">$E$45</f>
         <v>IF_INVOKE</v>
       </c>
-      <c r="G387" s="16" t="str">
+      <c r="G388" s="16" t="str">
         <f>RESOURCE!E400</f>
         <v>sys/invoke/querryInbound</v>
-      </c>
-    </row>
-    <row r="388" spans="5:7">
-      <c r="E388" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F388" s="16" t="str">
-        <f t="shared" si="60"/>
-        <v>IF_INVOKE</v>
-      </c>
-      <c r="G388" s="16" t="str">
-        <f>RESOURCE!E401</f>
-        <v>sys/invoke/querryOutbound</v>
       </c>
     </row>
     <row r="389" spans="5:7">
@@ -39020,8 +39066,8 @@
         <v>IF_INVOKE</v>
       </c>
       <c r="G389" s="16" t="str">
-        <f>RESOURCE!E402</f>
-        <v>sys/invoke/removeInbound</v>
+        <f>RESOURCE!E401</f>
+        <v>sys/invoke/querryOutbound</v>
       </c>
     </row>
     <row r="390" spans="5:7">
@@ -39033,8 +39079,8 @@
         <v>IF_INVOKE</v>
       </c>
       <c r="G390" s="16" t="str">
-        <f>RESOURCE!E403</f>
-        <v>sys/invoke/removeOutbound</v>
+        <f>RESOURCE!E402</f>
+        <v>sys/invoke/removeInbound</v>
       </c>
     </row>
     <row r="391" spans="5:7">
@@ -39046,8 +39092,8 @@
         <v>IF_INVOKE</v>
       </c>
       <c r="G391" s="16" t="str">
-        <f>RESOURCE!E404</f>
-        <v>api/sys/invoke/querryInbound</v>
+        <f>RESOURCE!E403</f>
+        <v>sys/invoke/removeOutbound</v>
       </c>
     </row>
     <row r="392" spans="5:7">
@@ -39059,8 +39105,8 @@
         <v>IF_INVOKE</v>
       </c>
       <c r="G392" s="16" t="str">
-        <f>RESOURCE!E405</f>
-        <v>api/sys/invoke/querryOutbound</v>
+        <f>RESOURCE!E404</f>
+        <v>api/sys/invoke/querryInbound</v>
       </c>
     </row>
     <row r="393" spans="5:7">
@@ -39072,8 +39118,8 @@
         <v>IF_INVOKE</v>
       </c>
       <c r="G393" s="16" t="str">
-        <f>RESOURCE!E406</f>
-        <v>api/sys/invoke/removeInbound</v>
+        <f>RESOURCE!E405</f>
+        <v>api/sys/invoke/querryOutbound</v>
       </c>
     </row>
     <row r="394" spans="5:7">
@@ -39085,8 +39131,8 @@
         <v>IF_INVOKE</v>
       </c>
       <c r="G394" s="16" t="str">
-        <f>RESOURCE!E407</f>
-        <v>api/sys/invoke/removeOutbound</v>
+        <f>RESOURCE!E406</f>
+        <v>api/sys/invoke/removeInbound</v>
       </c>
     </row>
     <row r="395" spans="5:7">
@@ -39098,6 +39144,19 @@
         <v>IF_INVOKE</v>
       </c>
       <c r="G395" s="16" t="str">
+        <f>RESOURCE!E407</f>
+        <v>api/sys/invoke/removeOutbound</v>
+      </c>
+    </row>
+    <row r="396" spans="5:7">
+      <c r="E396" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F396" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v>IF_INVOKE</v>
+      </c>
+      <c r="G396" s="16" t="str">
         <f>RESOURCE!E408</f>
         <v>intergration/sys_interface_invoke.html</v>
       </c>
@@ -39111,10 +39170,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -39463,7 +39522,7 @@
       </c>
       <c r="G30" s="16" t="str">
         <f>FUNCTION!E30</f>
-        <v>FND_COMPANY</v>
+        <v>FND</v>
       </c>
     </row>
     <row r="31" spans="5:7">
@@ -39471,12 +39530,12 @@
         <v>82</v>
       </c>
       <c r="F31" s="16" t="str">
-        <f>ACCOUNT!$E$9</f>
-        <v>EMPLOYEE</v>
+        <f>ACCOUNT!$E$8</f>
+        <v>ADMIN</v>
       </c>
       <c r="G31" s="16" t="str">
-        <f>FUNCTION!$E$10</f>
-        <v>CODE</v>
+        <f>FUNCTION!E31</f>
+        <v>FND1010</v>
       </c>
     </row>
     <row r="32" spans="5:7">
@@ -39488,8 +39547,8 @@
         <v>EMPLOYEE</v>
       </c>
       <c r="G32" s="16" t="str">
-        <f>FUNCTION!$E$11</f>
-        <v>LOV</v>
+        <f>FUNCTION!$E$10</f>
+        <v>CODE</v>
       </c>
     </row>
     <row r="33" spans="5:7">
@@ -39501,8 +39560,8 @@
         <v>EMPLOYEE</v>
       </c>
       <c r="G33" s="16" t="str">
-        <f>FUNCTION!$E$13</f>
-        <v>PROFILE</v>
+        <f>FUNCTION!$E$11</f>
+        <v>LOV</v>
       </c>
     </row>
     <row r="34" spans="5:7">
@@ -39514,21 +39573,21 @@
         <v>EMPLOYEE</v>
       </c>
       <c r="G34" s="16" t="str">
+        <f>FUNCTION!$E$13</f>
+        <v>PROFILE</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7">
+      <c r="E35" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" s="16" t="str">
+        <f>ACCOUNT!$E$9</f>
+        <v>EMPLOYEE</v>
+      </c>
+      <c r="G35" s="16" t="str">
         <f>FUNCTION!$E$9</f>
         <v>PROMPT</v>
-      </c>
-    </row>
-    <row r="35" spans="5:7">
-      <c r="E35" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F35" s="16" t="str">
-        <f>ACCOUNT!$E$8</f>
-        <v>ADMIN</v>
-      </c>
-      <c r="G35" s="16" t="str">
-        <f>FUNCTION!E31</f>
-        <v>SYS_DASHBOARD</v>
       </c>
     </row>
     <row r="36" spans="5:7">
@@ -39540,8 +39599,8 @@
         <v>ADMIN</v>
       </c>
       <c r="G36" s="16" t="str">
-        <f>FUNCTION!$E$32</f>
-        <v>SYS_METRICS</v>
+        <f>FUNCTION!E32</f>
+        <v>SYS_DASHBOARD</v>
       </c>
     </row>
     <row r="37" spans="5:7">
@@ -39554,7 +39613,7 @@
       </c>
       <c r="G37" s="16" t="str">
         <f>FUNCTION!$E$33</f>
-        <v>FLEX_FIELD</v>
+        <v>SYS_METRICS</v>
       </c>
     </row>
     <row r="38" spans="5:7">
@@ -39567,7 +39626,7 @@
       </c>
       <c r="G38" s="16" t="str">
         <f>FUNCTION!$E$34</f>
-        <v>FLEX_FIELD_MODEL</v>
+        <v>FLEX_FIELD</v>
       </c>
     </row>
     <row r="39" spans="5:7">
@@ -39580,7 +39639,7 @@
       </c>
       <c r="G39" s="16" t="str">
         <f>FUNCTION!$E$35</f>
-        <v>FLEX_FIELD_RULE_SET</v>
+        <v>FLEX_FIELD_MODEL</v>
       </c>
     </row>
     <row r="40" spans="5:7">
@@ -39593,7 +39652,7 @@
       </c>
       <c r="G40" s="16" t="str">
         <f>FUNCTION!$E$36</f>
-        <v>FLEX_FIELD_DEMO</v>
+        <v>FLEX_FIELD_RULE_SET</v>
       </c>
     </row>
     <row r="41" spans="5:7">
@@ -39606,7 +39665,7 @@
       </c>
       <c r="G41" s="16" t="str">
         <f>FUNCTION!$E$37</f>
-        <v>SYS_CODE_RULE</v>
+        <v>FLEX_FIELD_DEMO</v>
       </c>
     </row>
     <row r="42" spans="5:7">
@@ -39619,7 +39678,7 @@
       </c>
       <c r="G42" s="16" t="str">
         <f>FUNCTION!$E$38</f>
-        <v>DATA_PERMISSION</v>
+        <v>SYS_CODE_RULE</v>
       </c>
     </row>
     <row r="43" spans="5:7">
@@ -39632,7 +39691,7 @@
       </c>
       <c r="G43" s="16" t="str">
         <f>FUNCTION!$E$39</f>
-        <v>DATA_PERMISSION_RULE</v>
+        <v>DATA_PERMISSION</v>
       </c>
     </row>
     <row r="44" spans="5:7">
@@ -39645,7 +39704,7 @@
       </c>
       <c r="G44" s="16" t="str">
         <f>FUNCTION!$E$40</f>
-        <v>DATA_PERMISSION_TABLE</v>
+        <v>DATA_PERMISSION_RULE</v>
       </c>
     </row>
     <row r="45" spans="5:7">
@@ -39658,7 +39717,7 @@
       </c>
       <c r="G45" s="16" t="str">
         <f>FUNCTION!$E$41</f>
-        <v>FORM</v>
+        <v>DATA_PERMISSION_TABLE</v>
       </c>
     </row>
     <row r="46" spans="5:7">
@@ -39671,7 +39730,7 @@
       </c>
       <c r="G46" s="16" t="str">
         <f>FUNCTION!$E$42</f>
-        <v>HOTKEY</v>
+        <v>FORM</v>
       </c>
     </row>
     <row r="47" spans="5:7">
@@ -39684,7 +39743,7 @@
       </c>
       <c r="G47" s="16" t="str">
         <f>FUNCTION!$E$43</f>
-        <v>IF</v>
+        <v>HOTKEY</v>
       </c>
     </row>
     <row r="48" spans="5:7">
@@ -39697,6 +39756,19 @@
       </c>
       <c r="G48" s="16" t="str">
         <f>FUNCTION!$E$44</f>
+        <v>IF</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7">
+      <c r="E49" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F49" s="16" t="str">
+        <f>ACCOUNT!$E$8</f>
+        <v>ADMIN</v>
+      </c>
+      <c r="G49" s="16" t="str">
+        <f>FUNCTION!$E$45</f>
         <v>IF_INVOKE</v>
       </c>
     </row>

--- a/jrap-core-db/src/main/java/com/jingrui/jrap/db/data/core-init-data.xlsx
+++ b/jrap-core-db/src/main/java/com/jingrui/jrap/db/data/core-init-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hap\MyProject\jrap_lease\jrap-core-db\src\main\java\com\jingrui\jrap\db\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\jrap_lease\jrap-core-db\src\main\java\com\jingrui\jrap\db\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0077628E-B92E-47AC-8972-6E3C05FA264A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424F1BF9-B47C-413E-9398-8141E67CE8C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="913" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="913" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,13 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -17060,7 +17067,7 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="9" style="40"/>
     <col min="2" max="2" width="9" style="41"/>
@@ -17093,7 +17100,7 @@
       <c r="F3" s="66"/>
       <c r="G3" s="66"/>
     </row>
-    <row r="4" spans="1:8" ht="33">
+    <row r="4" spans="1:8" ht="34.799999999999997">
       <c r="A4"/>
       <c r="C4" s="67" t="s">
         <v>3</v>
@@ -17135,7 +17142,7 @@
       </c>
       <c r="E8" s="51"/>
     </row>
-    <row r="9" spans="1:8" ht="165">
+    <row r="9" spans="1:8" ht="156.6">
       <c r="C9" s="52" t="s">
         <v>13</v>
       </c>
@@ -17149,7 +17156,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="198">
+    <row r="10" spans="1:8" ht="191.4">
       <c r="C10" s="55" t="s">
         <v>17</v>
       </c>
@@ -17160,7 +17167,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="181">
+    <row r="11" spans="1:8" ht="173.4">
       <c r="C11" s="50" t="s">
         <v>20</v>
       </c>
@@ -17171,7 +17178,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="49.5">
+    <row r="12" spans="1:8" ht="34.799999999999997">
       <c r="C12" s="50" t="s">
         <v>23</v>
       </c>
@@ -17190,7 +17197,7 @@
       <c r="C14" s="50"/>
       <c r="E14" s="51"/>
     </row>
-    <row r="15" spans="1:8" ht="132">
+    <row r="15" spans="1:8" ht="121.8">
       <c r="C15" s="57" t="s">
         <v>26</v>
       </c>
@@ -17263,7 +17270,7 @@
       </c>
       <c r="E26" s="64"/>
     </row>
-    <row r="27" spans="3:5" ht="132">
+    <row r="27" spans="3:5" ht="121.8">
       <c r="C27" s="61" t="s">
         <v>43</v>
       </c>
@@ -17292,14 +17299,14 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.92578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -17316,7 +17323,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="33">
+    <row r="4" spans="1:13" ht="34.799999999999997">
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
@@ -17620,19 +17627,19 @@
       <selection activeCell="M8" sqref="M8:M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="4.58203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.35546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.35546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.4140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.35546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -17649,7 +17656,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="33">
+    <row r="4" spans="1:13" ht="34.799999999999997">
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
@@ -18115,15 +18122,15 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="4" max="4" width="19.78515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.78515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.92578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.9140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.78515625" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="26.75" customWidth="1"/>
+    <col min="10" max="10" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -18571,16 +18578,16 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="10.35546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.58203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.0703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.08203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -18597,7 +18604,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="33">
+    <row r="4" spans="1:8" ht="34.799999999999997">
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
@@ -18780,10 +18787,10 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="19.2109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -18800,7 +18807,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="33">
+    <row r="4" spans="1:12" ht="34.799999999999997">
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
@@ -19062,21 +19069,21 @@
       <selection activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="9.35546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.2109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.78515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.92578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="255.640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.92578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.35546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="255.640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.9140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.9140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.4140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -19695,10 +19702,10 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="6" max="6" width="28.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16.58203125" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -19867,11 +19874,11 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.5" customWidth="1"/>
-    <col min="8" max="8" width="23.0703125" customWidth="1"/>
+    <col min="8" max="8" width="23.08203125" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -20357,19 +20364,19 @@
       <selection activeCell="D413" sqref="D413"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="10.35546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.35546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="46.35546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.92578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.2109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.35546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.35546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.9140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -20386,7 +20393,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="33">
+    <row r="4" spans="1:13" ht="34.799999999999997">
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
@@ -27470,7 +27477,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="242" spans="1:13" s="25" customFormat="1" ht="15.5">
+    <row r="242" spans="1:13" s="25" customFormat="1" ht="15.6">
       <c r="A242" s="35">
         <v>43035</v>
       </c>
@@ -32145,7 +32152,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="391" spans="1:13" s="25" customFormat="1" ht="15.5">
+    <row r="391" spans="1:13" s="25" customFormat="1" ht="15.6">
       <c r="A391" s="35">
         <v>43042</v>
       </c>
@@ -32816,12 +32823,12 @@
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="42.28515625" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" customWidth="1"/>
-    <col min="16" max="16" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.58203125" customWidth="1"/>
+    <col min="9" max="9" width="42.25" customWidth="1"/>
+    <col min="14" max="14" width="18.75" customWidth="1"/>
+    <col min="16" max="16" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -32838,7 +32845,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="33">
+    <row r="4" spans="1:17" ht="34.799999999999997">
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
@@ -33718,7 +33725,7 @@
         <v>1084</v>
       </c>
       <c r="K27" s="16" t="str">
-        <f t="shared" ref="K27:K31" si="3">$E$26</f>
+        <f t="shared" ref="K27:K29" si="3">$E$26</f>
         <v>HR</v>
       </c>
       <c r="L27">
@@ -39172,13 +39179,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="6" max="6" width="11.2109375" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
     <col min="7" max="7" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -39196,7 +39203,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="33">
+    <row r="4" spans="1:8" ht="34.799999999999997">
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
@@ -39787,11 +39794,11 @@
       <selection activeCell="H1150" sqref="H1150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="25.35546875" customWidth="1"/>
-    <col min="8" max="8" width="12.35546875" customWidth="1"/>
+    <col min="1" max="1" width="10.58203125" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -39808,7 +39815,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="33">
+    <row r="4" spans="1:8" ht="34.799999999999997">
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
@@ -50701,7 +50708,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="744" spans="2:8" ht="49.5">
+    <row r="744" spans="2:8" ht="47.4">
       <c r="E744" s="10" t="s">
         <v>82</v>
       </c>
@@ -61740,7 +61747,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="1530" spans="1:8" s="25" customFormat="1" ht="15.5">
+    <row r="1530" spans="1:8" s="25" customFormat="1" ht="15.6">
       <c r="B1530" s="25" t="s">
         <v>1709</v>
       </c>
@@ -61757,7 +61764,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="1531" spans="1:8" ht="17">
+    <row r="1531" spans="1:8">
       <c r="A1531" s="25"/>
       <c r="C1531" s="25"/>
       <c r="D1531" s="25"/>
@@ -63913,7 +63920,7 @@
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <sheetData>
     <row r="4" spans="4:7">
       <c r="E4" t="s">
@@ -63976,10 +63983,10 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.2109375" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -63997,7 +64004,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="33">
+    <row r="4" spans="1:19" ht="34.799999999999997">
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
@@ -64016,7 +64023,7 @@
         <v>3152</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="47">
+    <row r="7" spans="1:19" ht="32.4">
       <c r="A7" s="8">
         <v>42643</v>
       </c>
@@ -67390,22 +67397,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+    <sheetView tabSelected="1" topLeftCell="E58" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="9.35546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.2109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.92578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.35546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.78515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.78515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.9140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -68577,7 +68584,7 @@
         <v>82</v>
       </c>
       <c r="F69" s="12" t="str">
-        <f t="shared" ref="F69:F71" si="7">$E$20</f>
+        <f t="shared" ref="F69:F70" si="7">$E$20</f>
         <v>HR.CERTIFICATE_TYPE</v>
       </c>
       <c r="G69" s="7" t="s">
@@ -68613,7 +68620,7 @@
         <v>82</v>
       </c>
       <c r="F71" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f>$E$20</f>
         <v>HR.CERTIFICATE_TYPE</v>
       </c>
       <c r="G71" s="7" t="s">

--- a/jrap-core-db/src/main/java/com/jingrui/jrap/db/data/core-init-data.xlsx
+++ b/jrap-core-db/src/main/java/com/jingrui/jrap/db/data/core-init-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\jrap_lease\jrap-core-db\src\main\java\com\jingrui\jrap\db\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hap\MyProject\jrap_lease\jrap-core-db\src\main\java\com\jingrui\jrap\db\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424F1BF9-B47C-413E-9398-8141E67CE8C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A45BF03-5F86-466F-A62F-D42CAFF71E87}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="913" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="913" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13210" uniqueCount="3907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13214" uniqueCount="3910">
   <si>
     <r>
       <rPr>
@@ -16208,6 +16208,18 @@
   </si>
   <si>
     <t>商户维护</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>LS</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>驾照</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Car Licence</t>
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
 </sst>
@@ -17067,7 +17079,7 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="40"/>
     <col min="2" max="2" width="9" style="41"/>
@@ -17100,7 +17112,7 @@
       <c r="F3" s="66"/>
       <c r="G3" s="66"/>
     </row>
-    <row r="4" spans="1:8" ht="34.799999999999997">
+    <row r="4" spans="1:8" ht="33">
       <c r="A4"/>
       <c r="C4" s="67" t="s">
         <v>3</v>
@@ -17142,7 +17154,7 @@
       </c>
       <c r="E8" s="51"/>
     </row>
-    <row r="9" spans="1:8" ht="156.6">
+    <row r="9" spans="1:8" ht="165">
       <c r="C9" s="52" t="s">
         <v>13</v>
       </c>
@@ -17156,7 +17168,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="191.4">
+    <row r="10" spans="1:8" ht="198">
       <c r="C10" s="55" t="s">
         <v>17</v>
       </c>
@@ -17167,7 +17179,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="173.4">
+    <row r="11" spans="1:8" ht="181">
       <c r="C11" s="50" t="s">
         <v>20</v>
       </c>
@@ -17178,7 +17190,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="34.799999999999997">
+    <row r="12" spans="1:8" ht="49.5">
       <c r="C12" s="50" t="s">
         <v>23</v>
       </c>
@@ -17197,7 +17209,7 @@
       <c r="C14" s="50"/>
       <c r="E14" s="51"/>
     </row>
-    <row r="15" spans="1:8" ht="121.8">
+    <row r="15" spans="1:8" ht="132">
       <c r="C15" s="57" t="s">
         <v>26</v>
       </c>
@@ -17270,7 +17282,7 @@
       </c>
       <c r="E26" s="64"/>
     </row>
-    <row r="27" spans="3:5" ht="121.8">
+    <row r="27" spans="3:5" ht="132">
       <c r="C27" s="61" t="s">
         <v>43</v>
       </c>
@@ -17299,14 +17311,14 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.2109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.9140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.2109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.92578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -17323,7 +17335,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="34.799999999999997">
+    <row r="4" spans="1:13" ht="33">
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
@@ -17627,19 +17639,19 @@
       <selection activeCell="M8" sqref="M8:M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="3" width="4.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.4140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.35546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.35546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.35546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -17656,7 +17668,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="34.799999999999997">
+    <row r="4" spans="1:13" ht="33">
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
@@ -18122,15 +18134,15 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="4" max="4" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.9140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.92578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.75" customWidth="1"/>
-    <col min="10" max="10" width="15.25" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.2109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -18578,16 +18590,16 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.35546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.08203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.2109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.0703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -18604,7 +18616,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="34.799999999999997">
+    <row r="4" spans="1:8" ht="33">
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
@@ -18787,10 +18799,10 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.2109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -18807,7 +18819,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="34.799999999999997">
+    <row r="4" spans="1:12" ht="33">
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
@@ -19069,21 +19081,21 @@
       <selection activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.58203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.9140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="255.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.9140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="255.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.4140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.35546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.2109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.2109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.92578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="255.640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.92578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.35546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="255.640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.2109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -19702,10 +19714,10 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="6" max="6" width="28.1640625" customWidth="1"/>
-    <col min="7" max="7" width="16.58203125" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -19874,11 +19886,11 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.5" customWidth="1"/>
-    <col min="8" max="8" width="23.08203125" customWidth="1"/>
+    <col min="8" max="8" width="23.0703125" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -20364,19 +20376,19 @@
       <selection activeCell="D413" sqref="D413"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.35546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.35546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="46.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.9140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="46.35546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.92578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.2109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.35546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.35546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -20393,7 +20405,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="34.799999999999997">
+    <row r="4" spans="1:13" ht="33">
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
@@ -27477,7 +27489,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="242" spans="1:13" s="25" customFormat="1" ht="15.6">
+    <row r="242" spans="1:13" s="25" customFormat="1" ht="15.5">
       <c r="A242" s="35">
         <v>43035</v>
       </c>
@@ -32152,7 +32164,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="391" spans="1:13" s="25" customFormat="1" ht="15.6">
+    <row r="391" spans="1:13" s="25" customFormat="1" ht="15.5">
       <c r="A391" s="35">
         <v>43042</v>
       </c>
@@ -32823,12 +32835,12 @@
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="20.58203125" customWidth="1"/>
-    <col min="9" max="9" width="42.25" customWidth="1"/>
-    <col min="14" max="14" width="18.75" customWidth="1"/>
-    <col min="16" max="16" width="25.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="42.2109375" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" customWidth="1"/>
+    <col min="16" max="16" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -32845,7 +32857,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="34.799999999999997">
+    <row r="4" spans="1:17" ht="33">
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
@@ -39183,9 +39195,9 @@
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="6" max="6" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="11.2109375" customWidth="1"/>
     <col min="7" max="7" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -39203,7 +39215,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="34.799999999999997">
+    <row r="4" spans="1:8" ht="33">
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
@@ -39794,11 +39806,11 @@
       <selection activeCell="H1150" sqref="H1150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.58203125" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25.35546875" customWidth="1"/>
+    <col min="8" max="8" width="12.35546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -39815,7 +39827,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="34.799999999999997">
+    <row r="4" spans="1:8" ht="33">
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
@@ -50708,7 +50720,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="744" spans="2:8" ht="47.4">
+    <row r="744" spans="2:8" ht="49.5">
       <c r="E744" s="10" t="s">
         <v>82</v>
       </c>
@@ -61747,7 +61759,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="1530" spans="1:8" s="25" customFormat="1" ht="15.6">
+    <row r="1530" spans="1:8" s="25" customFormat="1" ht="15.5">
       <c r="B1530" s="25" t="s">
         <v>1709</v>
       </c>
@@ -61764,7 +61776,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="1531" spans="1:8">
+    <row r="1531" spans="1:8" ht="17">
       <c r="A1531" s="25"/>
       <c r="C1531" s="25"/>
       <c r="D1531" s="25"/>
@@ -63920,7 +63932,7 @@
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="4" spans="4:7">
       <c r="E4" t="s">
@@ -63983,10 +63995,10 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="7.83203125" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.2109375" customWidth="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -64004,7 +64016,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="34.799999999999997">
+    <row r="4" spans="1:19" ht="33">
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
@@ -64023,7 +64035,7 @@
         <v>3152</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="32.4">
+    <row r="7" spans="1:19" ht="47">
       <c r="A7" s="8">
         <v>42643</v>
       </c>
@@ -67395,24 +67407,24 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E58" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+    <sheetView tabSelected="1" topLeftCell="D64" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.9140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.35546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.2109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.92578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.35546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -68634,45 +68646,45 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="8">
+      <c r="E72" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F72" s="12" t="str">
+        <f>$E$20</f>
+        <v>HR.CERTIFICATE_TYPE</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>3907</v>
+      </c>
+      <c r="H72" s="62" t="s">
+        <v>3908</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>3909</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="8">
         <v>42851</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B73" s="7" t="s">
         <v>710</v>
       </c>
-      <c r="E72" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F72" s="12" t="str">
-        <f t="shared" ref="F72:F76" si="8">$E$21</f>
+      <c r="E73" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F73" s="12" t="str">
+        <f t="shared" ref="F73:F77" si="8">$E$21</f>
         <v>SYS.UNIT_CATEGORY</v>
       </c>
-      <c r="G72" s="7" t="s">
+      <c r="G73" s="7" t="s">
         <v>3448</v>
       </c>
-      <c r="H72" s="20" t="s">
+      <c r="H73" s="20" t="s">
         <v>3379</v>
       </c>
-      <c r="I72" s="7" t="s">
+      <c r="I73" s="7" t="s">
         <v>3380</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="E73" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F73" s="12" t="str">
-        <f t="shared" si="8"/>
-        <v>SYS.UNIT_CATEGORY</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>3449</v>
-      </c>
-      <c r="H73" s="20" t="s">
-        <v>3450</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>3451</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -68684,13 +68696,13 @@
         <v>SYS.UNIT_CATEGORY</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>3452</v>
+        <v>3449</v>
       </c>
       <c r="H74" s="20" t="s">
-        <v>3453</v>
+        <v>3450</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>3454</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -68702,13 +68714,13 @@
         <v>SYS.UNIT_CATEGORY</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>3455</v>
+        <v>3452</v>
       </c>
       <c r="H75" s="20" t="s">
-        <v>3456</v>
+        <v>3453</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>3457</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -68720,13 +68732,13 @@
         <v>SYS.UNIT_CATEGORY</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>3458</v>
+        <v>3455</v>
       </c>
       <c r="H76" s="20" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>3460</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -68734,17 +68746,17 @@
         <v>82</v>
       </c>
       <c r="F77" s="12" t="str">
-        <f t="shared" ref="F77:F80" si="9">$E$22</f>
-        <v>SYS.UNIT_TYPE</v>
-      </c>
-      <c r="G77" s="21" t="s">
-        <v>3461</v>
+        <f t="shared" si="8"/>
+        <v>SYS.UNIT_CATEGORY</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>3458</v>
       </c>
       <c r="H77" s="20" t="s">
-        <v>3462</v>
+        <v>3459</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>3463</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -68752,17 +68764,17 @@
         <v>82</v>
       </c>
       <c r="F78" s="12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="F78:F81" si="9">$E$22</f>
         <v>SYS.UNIT_TYPE</v>
       </c>
       <c r="G78" s="21" t="s">
-        <v>3464</v>
-      </c>
-      <c r="H78" t="s">
-        <v>3465</v>
+        <v>3461</v>
+      </c>
+      <c r="H78" s="20" t="s">
+        <v>3462</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>3466</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -68774,13 +68786,13 @@
         <v>SYS.UNIT_TYPE</v>
       </c>
       <c r="G79" s="21" t="s">
-        <v>3467</v>
+        <v>3464</v>
       </c>
       <c r="H79" t="s">
-        <v>3468</v>
+        <v>3465</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>3469</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -68792,13 +68804,13 @@
         <v>SYS.UNIT_TYPE</v>
       </c>
       <c r="G80" s="21" t="s">
-        <v>3470</v>
+        <v>3467</v>
       </c>
       <c r="H80" t="s">
-        <v>3471</v>
+        <v>3468</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>3472</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="81" spans="5:9">
@@ -68806,17 +68818,17 @@
         <v>82</v>
       </c>
       <c r="F81" s="12" t="str">
-        <f t="shared" ref="F81:F84" si="10">$E$23</f>
-        <v>FND.COMPANY_TYPE</v>
-      </c>
-      <c r="G81">
-        <v>10001</v>
+        <f t="shared" si="9"/>
+        <v>SYS.UNIT_TYPE</v>
+      </c>
+      <c r="G81" s="21" t="s">
+        <v>3470</v>
       </c>
       <c r="H81" t="s">
-        <v>3473</v>
+        <v>3471</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>3474</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="82" spans="5:9">
@@ -68824,17 +68836,17 @@
         <v>82</v>
       </c>
       <c r="F82" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="F82:F85" si="10">$E$23</f>
         <v>FND.COMPANY_TYPE</v>
       </c>
       <c r="G82">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="H82" t="s">
-        <v>3475</v>
+        <v>3473</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>3476</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="83" spans="5:9">
@@ -68846,13 +68858,13 @@
         <v>FND.COMPANY_TYPE</v>
       </c>
       <c r="G83">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="H83" t="s">
-        <v>3477</v>
+        <v>3475</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>3478</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="84" spans="5:9">
@@ -68864,13 +68876,13 @@
         <v>FND.COMPANY_TYPE</v>
       </c>
       <c r="G84">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="H84" t="s">
-        <v>3479</v>
+        <v>3477</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>3480</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="85" spans="5:9">
@@ -68878,17 +68890,17 @@
         <v>82</v>
       </c>
       <c r="F85" s="12" t="str">
-        <f t="shared" ref="F85:F88" si="11">$E$24</f>
-        <v>FND.COMPANY_LEVEL</v>
+        <f t="shared" si="10"/>
+        <v>FND.COMPANY_TYPE</v>
       </c>
       <c r="G85">
-        <v>10001</v>
+        <v>10004</v>
       </c>
       <c r="H85" t="s">
-        <v>3481</v>
+        <v>3479</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>3482</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="86" spans="5:9">
@@ -68896,17 +68908,17 @@
         <v>82</v>
       </c>
       <c r="F86" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="F86:F89" si="11">$E$24</f>
         <v>FND.COMPANY_LEVEL</v>
       </c>
       <c r="G86">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="H86" t="s">
-        <v>3483</v>
+        <v>3481</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>3484</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="87" spans="5:9">
@@ -68918,13 +68930,13 @@
         <v>FND.COMPANY_LEVEL</v>
       </c>
       <c r="G87">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="H87" t="s">
-        <v>3485</v>
+        <v>3483</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>3486</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="88" spans="5:9">
@@ -68936,13 +68948,13 @@
         <v>FND.COMPANY_LEVEL</v>
       </c>
       <c r="G88">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="H88" t="s">
-        <v>3487</v>
+        <v>3485</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>3488</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="89" spans="5:9">
@@ -68950,17 +68962,17 @@
         <v>82</v>
       </c>
       <c r="F89" s="12" t="str">
-        <f t="shared" ref="F89:F93" si="12">$E$25</f>
-        <v>SYS.CODERULE.FIEDLTYPE</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>3489</v>
+        <f t="shared" si="11"/>
+        <v>FND.COMPANY_LEVEL</v>
+      </c>
+      <c r="G89">
+        <v>10004</v>
       </c>
       <c r="H89" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>3489</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="90" spans="5:9">
@@ -68968,17 +68980,17 @@
         <v>82</v>
       </c>
       <c r="F90" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="F90:F94" si="12">$E$25</f>
         <v>SYS.CODERULE.FIEDLTYPE</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>3368</v>
+        <v>3489</v>
       </c>
       <c r="H90" t="s">
-        <v>44</v>
+        <v>3490</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>3368</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="91" spans="5:9">
@@ -68990,13 +69002,13 @@
         <v>SYS.CODERULE.FIEDLTYPE</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>3491</v>
+        <v>3368</v>
       </c>
       <c r="H91" t="s">
-        <v>3492</v>
+        <v>44</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>3491</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="92" spans="5:9">
@@ -69008,13 +69020,13 @@
         <v>SYS.CODERULE.FIEDLTYPE</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>3493</v>
+        <v>3491</v>
       </c>
       <c r="H92" t="s">
-        <v>3494</v>
+        <v>3492</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>3493</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="93" spans="5:9">
@@ -69026,13 +69038,13 @@
         <v>SYS.CODERULE.FIEDLTYPE</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>3495</v>
+        <v>3493</v>
       </c>
       <c r="H93" t="s">
-        <v>3495</v>
+        <v>3494</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>3495</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="94" spans="5:9">
@@ -69040,17 +69052,17 @@
         <v>82</v>
       </c>
       <c r="F94" s="12" t="str">
-        <f t="shared" ref="F94:F96" si="13">$E$26</f>
-        <v>SYS.CODERULE.DATEMASK</v>
+        <f t="shared" si="12"/>
+        <v>SYS.CODERULE.FIEDLTYPE</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
       <c r="H94" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="95" spans="5:9">
@@ -69058,17 +69070,17 @@
         <v>82</v>
       </c>
       <c r="F95" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="F95:F97" si="13">$E$26</f>
         <v>SYS.CODERULE.DATEMASK</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
       <c r="H95" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="96" spans="5:9">
@@ -69080,13 +69092,13 @@
         <v>SYS.CODERULE.DATEMASK</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>3498</v>
+        <v>3497</v>
       </c>
       <c r="H96" t="s">
-        <v>3498</v>
+        <v>3497</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>3498</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="97" spans="5:11">
@@ -69094,17 +69106,17 @@
         <v>82</v>
       </c>
       <c r="F97" s="12" t="str">
-        <f t="shared" ref="F97:F100" si="14">$E$27</f>
-        <v>SYS.CODERULE.RESTPERIOD</v>
+        <f t="shared" si="13"/>
+        <v>SYS.CODERULE.DATEMASK</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>3499</v>
+        <v>3498</v>
       </c>
       <c r="H97" t="s">
-        <v>3500</v>
+        <v>3498</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>3499</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="98" spans="5:11">
@@ -69112,17 +69124,17 @@
         <v>82</v>
       </c>
       <c r="F98" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="F98:F101" si="14">$E$27</f>
         <v>SYS.CODERULE.RESTPERIOD</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>3501</v>
+        <v>3499</v>
       </c>
       <c r="H98" t="s">
-        <v>3502</v>
+        <v>3500</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>3503</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="99" spans="5:11">
@@ -69134,13 +69146,13 @@
         <v>SYS.CODERULE.RESTPERIOD</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>3504</v>
+        <v>3501</v>
       </c>
       <c r="H99" t="s">
-        <v>3505</v>
+        <v>3502</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>3506</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="100" spans="5:11">
@@ -69152,13 +69164,13 @@
         <v>SYS.CODERULE.RESTPERIOD</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>3507</v>
+        <v>3504</v>
       </c>
       <c r="H100" t="s">
-        <v>3508</v>
+        <v>3505</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>3509</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="101" spans="5:11">
@@ -69166,17 +69178,17 @@
         <v>82</v>
       </c>
       <c r="F101" s="12" t="str">
-        <f t="shared" ref="F101:F103" si="15">$E$28</f>
-        <v>SYS.AUTHORITY_SEGMENT</v>
-      </c>
-      <c r="G101" t="s">
-        <v>3167</v>
+        <f t="shared" si="14"/>
+        <v>SYS.CODERULE.RESTPERIOD</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>3507</v>
       </c>
       <c r="H101" t="s">
-        <v>3382</v>
+        <v>3508</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>424</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="102" spans="5:11">
@@ -69184,17 +69196,17 @@
         <v>82</v>
       </c>
       <c r="F102" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="F102:F104" si="15">$E$28</f>
         <v>SYS.AUTHORITY_SEGMENT</v>
       </c>
       <c r="G102" t="s">
-        <v>3178</v>
+        <v>3167</v>
       </c>
       <c r="H102" t="s">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
     </row>
     <row r="103" spans="5:11">
@@ -69206,13 +69218,13 @@
         <v>SYS.AUTHORITY_SEGMENT</v>
       </c>
       <c r="G103" t="s">
-        <v>3510</v>
+        <v>3178</v>
       </c>
       <c r="H103" t="s">
-        <v>3511</v>
+        <v>3381</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>3512</v>
+        <v>411</v>
       </c>
     </row>
     <row r="104" spans="5:11">
@@ -69220,17 +69232,17 @@
         <v>82</v>
       </c>
       <c r="F104" s="12" t="str">
-        <f>$E$29</f>
-        <v>SYS.AUTHORITY_ROLE</v>
+        <f t="shared" si="15"/>
+        <v>SYS.AUTHORITY_SEGMENT</v>
       </c>
       <c r="G104" t="s">
-        <v>3167</v>
+        <v>3510</v>
       </c>
       <c r="H104" t="s">
-        <v>3382</v>
+        <v>3511</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>424</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="105" spans="5:11">
@@ -69242,13 +69254,13 @@
         <v>SYS.AUTHORITY_ROLE</v>
       </c>
       <c r="G105" t="s">
-        <v>3178</v>
+        <v>3167</v>
       </c>
       <c r="H105" t="s">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="I105" s="7" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
     </row>
     <row r="106" spans="5:11">
@@ -69256,23 +69268,17 @@
         <v>82</v>
       </c>
       <c r="F106" s="12" t="str">
-        <f>$E$30</f>
-        <v>SYS.IF.REQUEST_STATUS</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>3513</v>
+        <f>$E$29</f>
+        <v>SYS.AUTHORITY_ROLE</v>
+      </c>
+      <c r="G106" t="s">
+        <v>3178</v>
       </c>
       <c r="H106" t="s">
-        <v>2706</v>
+        <v>3381</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>3514</v>
-      </c>
-      <c r="J106" t="s">
-        <v>3515</v>
-      </c>
-      <c r="K106" s="7" t="s">
-        <v>3516</v>
+        <v>411</v>
       </c>
     </row>
     <row r="107" spans="5:11">
@@ -69284,18 +69290,42 @@
         <v>SYS.IF.REQUEST_STATUS</v>
       </c>
       <c r="G107" s="7" t="s">
+        <v>3513</v>
+      </c>
+      <c r="H107" t="s">
+        <v>2706</v>
+      </c>
+      <c r="I107" s="7" t="s">
+        <v>3514</v>
+      </c>
+      <c r="J107" t="s">
+        <v>3515</v>
+      </c>
+      <c r="K107" s="7" t="s">
+        <v>3516</v>
+      </c>
+    </row>
+    <row r="108" spans="5:11">
+      <c r="E108" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F108" s="12" t="str">
+        <f>$E$30</f>
+        <v>SYS.IF.REQUEST_STATUS</v>
+      </c>
+      <c r="G108" s="7" t="s">
         <v>3517</v>
       </c>
-      <c r="H107" t="s">
+      <c r="H108" t="s">
         <v>2707</v>
       </c>
-      <c r="I107" s="7" t="s">
+      <c r="I108" s="7" t="s">
         <v>3518</v>
       </c>
-      <c r="J107" t="s">
+      <c r="J108" t="s">
         <v>3519</v>
       </c>
-      <c r="K107" s="7" t="s">
+      <c r="K108" s="7" t="s">
         <v>3520</v>
       </c>
     </row>
